--- a/FedExApplication/bin/TestFiles/FedExShipments.xlsx
+++ b/FedExApplication/bin/TestFiles/FedExShipments.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="124">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -311,6 +311,81 @@
   </si>
   <si>
     <t>320017993203</t>
+  </si>
+  <si>
+    <t>320018063820</t>
+  </si>
+  <si>
+    <t>320018063831</t>
+  </si>
+  <si>
+    <t>320018063864</t>
+  </si>
+  <si>
+    <t>320018063886</t>
+  </si>
+  <si>
+    <t>320018063923</t>
+  </si>
+  <si>
+    <t>320018063945</t>
+  </si>
+  <si>
+    <t>320018063978</t>
+  </si>
+  <si>
+    <t>320018063990</t>
+  </si>
+  <si>
+    <t>320018064025</t>
+  </si>
+  <si>
+    <t>320018064047</t>
+  </si>
+  <si>
+    <t>320018064080</t>
+  </si>
+  <si>
+    <t>320018064106</t>
+  </si>
+  <si>
+    <t>320018064139</t>
+  </si>
+  <si>
+    <t>320018064150</t>
+  </si>
+  <si>
+    <t>320018064183</t>
+  </si>
+  <si>
+    <t>320018064209</t>
+  </si>
+  <si>
+    <t>320018064242</t>
+  </si>
+  <si>
+    <t>320018064264</t>
+  </si>
+  <si>
+    <t>320018064297</t>
+  </si>
+  <si>
+    <t>320018064312</t>
+  </si>
+  <si>
+    <t>320018064345</t>
+  </si>
+  <si>
+    <t>320018064356</t>
+  </si>
+  <si>
+    <t>$248.51</t>
+  </si>
+  <si>
+    <t>320018064367</t>
+  </si>
+  <si>
+    <t>320018064378</t>
   </si>
 </sst>
 </file>
@@ -867,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="Q2" t="s">
         <v>55</v>
@@ -920,7 +995,7 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="Q3" t="s">
         <v>58</v>
@@ -973,7 +1048,7 @@
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="Q4" t="s">
         <v>60</v>
@@ -1026,7 +1101,7 @@
         <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="Q5" t="s">
         <v>62</v>
@@ -1079,7 +1154,7 @@
         <v>2</v>
       </c>
       <c r="P6" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="Q6" t="s">
         <v>64</v>
@@ -1132,7 +1207,7 @@
         <v>3</v>
       </c>
       <c r="P7" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="Q7" t="s">
         <v>66</v>
@@ -1185,7 +1260,7 @@
         <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="Q8" t="s">
         <v>55</v>
@@ -1238,7 +1313,7 @@
         <v>3</v>
       </c>
       <c r="P9" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="Q9" t="s">
         <v>69</v>
@@ -1291,7 +1366,7 @@
         <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="Q10" t="s">
         <v>58</v>
@@ -1344,7 +1419,7 @@
         <v>4</v>
       </c>
       <c r="P11" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="Q11" t="s">
         <v>72</v>
@@ -1397,7 +1472,7 @@
         <v>2</v>
       </c>
       <c r="P12" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="Q12" t="s">
         <v>74</v>
@@ -1450,7 +1525,7 @@
         <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="Q13" t="s">
         <v>76</v>
@@ -1503,7 +1578,7 @@
         <v>2</v>
       </c>
       <c r="P14" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="Q14" t="s">
         <v>78</v>
@@ -1556,7 +1631,7 @@
         <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="Q15" t="s">
         <v>80</v>
@@ -1609,7 +1684,7 @@
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="Q16" t="s">
         <v>60</v>
@@ -1662,7 +1737,7 @@
         <v>4</v>
       </c>
       <c r="P17" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="Q17" t="s">
         <v>83</v>
@@ -1715,7 +1790,7 @@
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="Q18" t="s">
         <v>62</v>
@@ -1768,7 +1843,7 @@
         <v>3</v>
       </c>
       <c r="P19" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="Q19" t="s">
         <v>86</v>
@@ -1821,7 +1896,7 @@
         <v>2</v>
       </c>
       <c r="P20" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="Q20" t="s">
         <v>88</v>
@@ -1874,7 +1949,7 @@
         <v>3</v>
       </c>
       <c r="P21" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="Q21" t="s">
         <v>90</v>
@@ -1927,7 +2002,7 @@
         <v>2</v>
       </c>
       <c r="P22" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="Q22" t="s">
         <v>92</v>
@@ -1980,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="Q23" t="s">
         <v>94</v>
@@ -2033,10 +2108,10 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="Q24" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="R24" t="s">
         <v>52</v>
@@ -2086,7 +2161,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="Q25" t="s">
         <v>74</v>

--- a/FedExApplication/bin/TestFiles/FedExShipments.xlsx
+++ b/FedExApplication/bin/TestFiles/FedExShipments.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="127">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -386,6 +386,15 @@
   </si>
   <si>
     <t>320018064378</t>
+  </si>
+  <si>
+    <t>320018069439</t>
+  </si>
+  <si>
+    <t>320018069440</t>
+  </si>
+  <si>
+    <t>320018069472</t>
   </si>
 </sst>
 </file>
@@ -942,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="Q2" t="s">
         <v>55</v>
@@ -995,7 +1004,7 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="Q3" t="s">
         <v>58</v>
@@ -1048,7 +1057,7 @@
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="Q4" t="s">
         <v>60</v>

--- a/FedExApplication/bin/TestFiles/FedExShipments.xlsx
+++ b/FedExApplication/bin/TestFiles/FedExShipments.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="95">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -172,229 +172,133 @@
     <t>FRG</t>
   </si>
   <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>$354.26</t>
-  </si>
-  <si>
-    <t>320017989829</t>
-  </si>
-  <si>
     <t>$19.04</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>320017992652</t>
-  </si>
-  <si>
     <t>$27.50</t>
   </si>
   <si>
-    <t>320017992663</t>
-  </si>
-  <si>
     <t>$31.73</t>
   </si>
   <si>
-    <t>320017992696</t>
-  </si>
-  <si>
     <t>$43.36</t>
   </si>
   <si>
-    <t>320017992711</t>
-  </si>
-  <si>
     <t>$56.05</t>
   </si>
   <si>
-    <t>320017992755</t>
-  </si>
-  <si>
     <t>$231.08</t>
   </si>
   <si>
-    <t>320017992777</t>
-  </si>
-  <si>
-    <t>320017992803</t>
-  </si>
-  <si>
     <t>$23.27</t>
   </si>
   <si>
-    <t>320017992825</t>
-  </si>
-  <si>
-    <t>320017992858</t>
-  </si>
-  <si>
     <t>$40.19</t>
   </si>
   <si>
-    <t>320017992870</t>
-  </si>
-  <si>
     <t>$52.88</t>
   </si>
   <si>
-    <t>320017992917</t>
-  </si>
-  <si>
     <t>$14.81</t>
   </si>
   <si>
-    <t>320017992939</t>
-  </si>
-  <si>
     <t>$17.98</t>
   </si>
   <si>
-    <t>320017992961</t>
-  </si>
-  <si>
     <t>$21.15</t>
   </si>
   <si>
-    <t>320017992983</t>
-  </si>
-  <si>
-    <t>320017993019</t>
-  </si>
-  <si>
     <t>$42.30</t>
   </si>
   <si>
-    <t>320017993030</t>
-  </si>
-  <si>
-    <t>320017993074</t>
-  </si>
-  <si>
     <t>$53.93</t>
   </si>
   <si>
-    <t>320017993096</t>
-  </si>
-  <si>
-    <t>$62.39</t>
-  </si>
-  <si>
-    <t>320017993122</t>
-  </si>
-  <si>
     <t>$111.04</t>
   </si>
   <si>
-    <t>320017993144</t>
-  </si>
-  <si>
-    <t>$216.18</t>
-  </si>
-  <si>
-    <t>320017993177</t>
-  </si>
-  <si>
-    <t>$436.98</t>
-  </si>
-  <si>
-    <t>320017993188</t>
-  </si>
-  <si>
-    <t>$278.12</t>
-  </si>
-  <si>
-    <t>320017993199</t>
-  </si>
-  <si>
-    <t>320017993203</t>
-  </si>
-  <si>
-    <t>320018063820</t>
-  </si>
-  <si>
-    <t>320018063831</t>
-  </si>
-  <si>
-    <t>320018063864</t>
-  </si>
-  <si>
-    <t>320018063886</t>
-  </si>
-  <si>
-    <t>320018063923</t>
-  </si>
-  <si>
-    <t>320018063945</t>
-  </si>
-  <si>
-    <t>320018063978</t>
-  </si>
-  <si>
-    <t>320018063990</t>
-  </si>
-  <si>
-    <t>320018064025</t>
-  </si>
-  <si>
-    <t>320018064047</t>
-  </si>
-  <si>
-    <t>320018064080</t>
-  </si>
-  <si>
-    <t>320018064106</t>
-  </si>
-  <si>
-    <t>320018064139</t>
-  </si>
-  <si>
-    <t>320018064150</t>
-  </si>
-  <si>
-    <t>320018064183</t>
-  </si>
-  <si>
-    <t>320018064209</t>
-  </si>
-  <si>
-    <t>320018064242</t>
-  </si>
-  <si>
-    <t>320018064264</t>
-  </si>
-  <si>
-    <t>320018064297</t>
-  </si>
-  <si>
-    <t>320018064312</t>
-  </si>
-  <si>
-    <t>320018064345</t>
-  </si>
-  <si>
-    <t>320018064356</t>
-  </si>
-  <si>
     <t>$248.51</t>
   </si>
   <si>
-    <t>320018064367</t>
-  </si>
-  <si>
-    <t>320018064378</t>
-  </si>
-  <si>
-    <t>320018069439</t>
-  </si>
-  <si>
-    <t>320018069440</t>
-  </si>
-  <si>
-    <t>320018069472</t>
+    <t>$85.66</t>
+  </si>
+  <si>
+    <t>$439.28</t>
+  </si>
+  <si>
+    <t>320018110613</t>
+  </si>
+  <si>
+    <t>320018110624</t>
+  </si>
+  <si>
+    <t>320018110635</t>
+  </si>
+  <si>
+    <t>320018113690</t>
+  </si>
+  <si>
+    <t>320018113704</t>
+  </si>
+  <si>
+    <t>320018113737</t>
+  </si>
+  <si>
+    <t>320018113759</t>
+  </si>
+  <si>
+    <t>320018113792</t>
+  </si>
+  <si>
+    <t>320018113818</t>
+  </si>
+  <si>
+    <t>320018113840</t>
+  </si>
+  <si>
+    <t>320018113862</t>
+  </si>
+  <si>
+    <t>320018113895</t>
+  </si>
+  <si>
+    <t>320018113910</t>
+  </si>
+  <si>
+    <t>320018113954</t>
+  </si>
+  <si>
+    <t>320018113976</t>
+  </si>
+  <si>
+    <t>320018114001</t>
+  </si>
+  <si>
+    <t>320018114023</t>
+  </si>
+  <si>
+    <t>320018114056</t>
+  </si>
+  <si>
+    <t>320018114078</t>
+  </si>
+  <si>
+    <t>320018114115</t>
+  </si>
+  <si>
+    <t>320018114137</t>
+  </si>
+  <si>
+    <t>320018114160</t>
+  </si>
+  <si>
+    <t>320018114181</t>
+  </si>
+  <si>
+    <t>$248.35</t>
+  </si>
+  <si>
+    <t>320018114218</t>
   </si>
 </sst>
 </file>
@@ -828,7 +732,7 @@
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="R2" sqref="R2:R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -951,14 +855,12 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="Q2" t="s">
-        <v>55</v>
-      </c>
-      <c r="R2" t="s">
-        <v>56</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="R2"/>
       <c r="S2" s="3"/>
     </row>
     <row r="3" spans="1:19">
@@ -1004,14 +906,12 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="Q3" t="s">
-        <v>58</v>
-      </c>
-      <c r="R3" t="s">
-        <v>56</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="R3"/>
       <c r="S3" s="3"/>
     </row>
     <row r="4" spans="1:19">
@@ -1057,14 +957,12 @@
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="Q4" t="s">
-        <v>60</v>
-      </c>
-      <c r="R4" t="s">
-        <v>56</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="R4"/>
       <c r="S4" s="3"/>
     </row>
     <row r="5" spans="1:19">
@@ -1110,14 +1008,12 @@
         <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="Q5" t="s">
-        <v>62</v>
-      </c>
-      <c r="R5" t="s">
-        <v>56</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="R5"/>
       <c r="S5" s="3"/>
     </row>
     <row r="6" spans="1:19">
@@ -1163,14 +1059,12 @@
         <v>2</v>
       </c>
       <c r="P6" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="Q6" t="s">
-        <v>64</v>
-      </c>
-      <c r="R6" t="s">
         <v>56</v>
       </c>
+      <c r="R6"/>
       <c r="S6" s="3"/>
     </row>
     <row r="7" spans="1:19">
@@ -1216,14 +1110,12 @@
         <v>3</v>
       </c>
       <c r="P7" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="Q7" t="s">
-        <v>66</v>
-      </c>
-      <c r="R7" t="s">
-        <v>52</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="R7"/>
       <c r="S7" s="3"/>
     </row>
     <row r="8" spans="1:19">
@@ -1269,14 +1161,12 @@
         <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="Q8" t="s">
-        <v>55</v>
-      </c>
-      <c r="R8" t="s">
-        <v>56</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="R8"/>
       <c r="S8" s="3"/>
     </row>
     <row r="9" spans="1:19">
@@ -1322,14 +1212,12 @@
         <v>3</v>
       </c>
       <c r="P9" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="Q9" t="s">
-        <v>69</v>
-      </c>
-      <c r="R9" t="s">
-        <v>56</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="R9"/>
       <c r="S9" s="3"/>
     </row>
     <row r="10" spans="1:19">
@@ -1375,14 +1263,12 @@
         <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="Q10" t="s">
-        <v>58</v>
-      </c>
-      <c r="R10" t="s">
-        <v>56</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="R10"/>
       <c r="S10" s="3"/>
     </row>
     <row r="11" spans="1:19">
@@ -1428,14 +1314,12 @@
         <v>4</v>
       </c>
       <c r="P11" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="Q11" t="s">
-        <v>72</v>
-      </c>
-      <c r="R11" t="s">
-        <v>56</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="R11"/>
       <c r="S11" s="3"/>
     </row>
     <row r="12" spans="1:19">
@@ -1481,14 +1365,12 @@
         <v>2</v>
       </c>
       <c r="P12" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="Q12" t="s">
-        <v>74</v>
-      </c>
-      <c r="R12" t="s">
-        <v>56</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="R12"/>
       <c r="S12" s="3"/>
     </row>
     <row r="13" spans="1:19">
@@ -1534,14 +1416,12 @@
         <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="Q13" t="s">
-        <v>76</v>
-      </c>
-      <c r="R13" t="s">
-        <v>56</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="R13"/>
       <c r="S13" s="3"/>
     </row>
     <row r="14" spans="1:19">
@@ -1587,14 +1467,12 @@
         <v>2</v>
       </c>
       <c r="P14" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="Q14" t="s">
-        <v>78</v>
-      </c>
-      <c r="R14" t="s">
-        <v>56</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="R14"/>
       <c r="S14" s="3"/>
     </row>
     <row r="15" spans="1:19">
@@ -1640,14 +1518,12 @@
         <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="Q15" t="s">
-        <v>80</v>
-      </c>
-      <c r="R15" t="s">
-        <v>56</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="R15"/>
       <c r="S15" s="3"/>
     </row>
     <row r="16" spans="1:19">
@@ -1693,14 +1569,12 @@
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="Q16" t="s">
-        <v>60</v>
-      </c>
-      <c r="R16" t="s">
-        <v>56</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="R16"/>
       <c r="S16" s="3"/>
     </row>
     <row r="17" spans="1:19">
@@ -1746,14 +1620,12 @@
         <v>4</v>
       </c>
       <c r="P17" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="Q17" t="s">
-        <v>83</v>
-      </c>
-      <c r="R17" t="s">
-        <v>56</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="R17"/>
       <c r="S17" s="3"/>
     </row>
     <row r="18" spans="1:19">
@@ -1799,14 +1671,12 @@
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="Q18" t="s">
-        <v>62</v>
-      </c>
-      <c r="R18" t="s">
-        <v>56</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="R18"/>
       <c r="S18" s="3"/>
     </row>
     <row r="19" spans="1:19">
@@ -1852,14 +1722,12 @@
         <v>3</v>
       </c>
       <c r="P19" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="Q19" t="s">
-        <v>86</v>
-      </c>
-      <c r="R19" t="s">
-        <v>56</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="R19"/>
       <c r="S19" s="3"/>
     </row>
     <row r="20" spans="1:19">
@@ -1905,14 +1773,12 @@
         <v>2</v>
       </c>
       <c r="P20" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="Q20" t="s">
-        <v>88</v>
-      </c>
-      <c r="R20" t="s">
-        <v>56</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="R20"/>
       <c r="S20" s="3"/>
     </row>
     <row r="21" spans="1:19">
@@ -1958,14 +1824,12 @@
         <v>3</v>
       </c>
       <c r="P21" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="Q21" t="s">
-        <v>90</v>
-      </c>
-      <c r="R21" t="s">
-        <v>56</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="R21"/>
       <c r="S21" s="3"/>
     </row>
     <row r="22" spans="1:19">
@@ -2011,14 +1875,12 @@
         <v>2</v>
       </c>
       <c r="P22" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="Q22" t="s">
-        <v>92</v>
-      </c>
-      <c r="R22" t="s">
-        <v>52</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="R22"/>
       <c r="S22" s="3"/>
     </row>
     <row r="23" spans="1:19">
@@ -2064,14 +1926,12 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="Q23" t="s">
-        <v>94</v>
-      </c>
-      <c r="R23" t="s">
-        <v>52</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="R23"/>
       <c r="S23" s="3"/>
     </row>
     <row r="24" spans="1:19">
@@ -2117,14 +1977,12 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="Q24" t="s">
-        <v>121</v>
-      </c>
-      <c r="R24" t="s">
-        <v>52</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="R24"/>
       <c r="S24" s="3"/>
     </row>
     <row r="25" spans="1:19">
@@ -2170,14 +2028,12 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="Q25" t="s">
-        <v>74</v>
-      </c>
-      <c r="R25" t="s">
-        <v>56</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="R25"/>
       <c r="S25" s="3"/>
     </row>
     <row r="26" spans="1:19">

--- a/FedExApplication/bin/TestFiles/FedExShipments.xlsx
+++ b/FedExApplication/bin/TestFiles/FedExShipments.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="193">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -226,79 +226,373 @@
     <t>$439.28</t>
   </si>
   <si>
-    <t>320018110613</t>
-  </si>
-  <si>
-    <t>320018110624</t>
-  </si>
-  <si>
-    <t>320018110635</t>
-  </si>
-  <si>
-    <t>320018113690</t>
-  </si>
-  <si>
-    <t>320018113704</t>
-  </si>
-  <si>
-    <t>320018113737</t>
-  </si>
-  <si>
-    <t>320018113759</t>
-  </si>
-  <si>
-    <t>320018113792</t>
-  </si>
-  <si>
-    <t>320018113818</t>
-  </si>
-  <si>
-    <t>320018113840</t>
-  </si>
-  <si>
-    <t>320018113862</t>
-  </si>
-  <si>
-    <t>320018113895</t>
-  </si>
-  <si>
-    <t>320018113910</t>
-  </si>
-  <si>
-    <t>320018113954</t>
-  </si>
-  <si>
-    <t>320018113976</t>
-  </si>
-  <si>
-    <t>320018114001</t>
-  </si>
-  <si>
-    <t>320018114023</t>
-  </si>
-  <si>
-    <t>320018114056</t>
-  </si>
-  <si>
-    <t>320018114078</t>
-  </si>
-  <si>
-    <t>320018114115</t>
-  </si>
-  <si>
-    <t>320018114137</t>
-  </si>
-  <si>
-    <t>320018114160</t>
-  </si>
-  <si>
-    <t>320018114181</t>
-  </si>
-  <si>
-    <t>$248.35</t>
-  </si>
-  <si>
-    <t>320018114218</t>
+    <t>320018154233</t>
+  </si>
+  <si>
+    <t>320018154440</t>
+  </si>
+  <si>
+    <t>320018154472</t>
+  </si>
+  <si>
+    <t>320018154494</t>
+  </si>
+  <si>
+    <t>320018154531</t>
+  </si>
+  <si>
+    <t>320018154553</t>
+  </si>
+  <si>
+    <t>320018154586</t>
+  </si>
+  <si>
+    <t>320018154601</t>
+  </si>
+  <si>
+    <t>320018154634</t>
+  </si>
+  <si>
+    <t>320018154656</t>
+  </si>
+  <si>
+    <t>320018154704</t>
+  </si>
+  <si>
+    <t>320018154726</t>
+  </si>
+  <si>
+    <t>320018154760</t>
+  </si>
+  <si>
+    <t>320018154781</t>
+  </si>
+  <si>
+    <t>320018154818</t>
+  </si>
+  <si>
+    <t>320018154830</t>
+  </si>
+  <si>
+    <t>320018154873</t>
+  </si>
+  <si>
+    <t>320018154895</t>
+  </si>
+  <si>
+    <t>320018154921</t>
+  </si>
+  <si>
+    <t>320018154943</t>
+  </si>
+  <si>
+    <t>$195.48</t>
+  </si>
+  <si>
+    <t>320018154976</t>
+  </si>
+  <si>
+    <t>320018154987</t>
+  </si>
+  <si>
+    <t>320018154998</t>
+  </si>
+  <si>
+    <t>320018155001</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>320018155229</t>
+  </si>
+  <si>
+    <t>320018155230</t>
+  </si>
+  <si>
+    <t>320018155262</t>
+  </si>
+  <si>
+    <t>320018155284</t>
+  </si>
+  <si>
+    <t>320018155321</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>320018155343</t>
+  </si>
+  <si>
+    <t>320018155376</t>
+  </si>
+  <si>
+    <t>320018155398</t>
+  </si>
+  <si>
+    <t>320018155424</t>
+  </si>
+  <si>
+    <t>320018155446</t>
+  </si>
+  <si>
+    <t>320018155480</t>
+  </si>
+  <si>
+    <t>320018155505</t>
+  </si>
+  <si>
+    <t>320018155538</t>
+  </si>
+  <si>
+    <t>320018155550</t>
+  </si>
+  <si>
+    <t>320018155582</t>
+  </si>
+  <si>
+    <t>320018155608</t>
+  </si>
+  <si>
+    <t>320018155641</t>
+  </si>
+  <si>
+    <t>320018155663</t>
+  </si>
+  <si>
+    <t>320018155696</t>
+  </si>
+  <si>
+    <t>320018155711</t>
+  </si>
+  <si>
+    <t>320018155744</t>
+  </si>
+  <si>
+    <t>320018155755</t>
+  </si>
+  <si>
+    <t>320018155766</t>
+  </si>
+  <si>
+    <t>320018157254</t>
+  </si>
+  <si>
+    <t>320018157265</t>
+  </si>
+  <si>
+    <t>320018157298</t>
+  </si>
+  <si>
+    <t>320018157313</t>
+  </si>
+  <si>
+    <t>320018157357</t>
+  </si>
+  <si>
+    <t>320018157379</t>
+  </si>
+  <si>
+    <t>320018157405</t>
+  </si>
+  <si>
+    <t>320018157427</t>
+  </si>
+  <si>
+    <t>320018157450</t>
+  </si>
+  <si>
+    <t>320018157471</t>
+  </si>
+  <si>
+    <t>320018158971</t>
+  </si>
+  <si>
+    <t>320018158993</t>
+  </si>
+  <si>
+    <t>320018159029</t>
+  </si>
+  <si>
+    <t>320018159040</t>
+  </si>
+  <si>
+    <t>320018159073</t>
+  </si>
+  <si>
+    <t>320018160559</t>
+  </si>
+  <si>
+    <t>320018160592</t>
+  </si>
+  <si>
+    <t>320018160618</t>
+  </si>
+  <si>
+    <t>320018160640</t>
+  </si>
+  <si>
+    <t>320018160695</t>
+  </si>
+  <si>
+    <t>320018160700</t>
+  </si>
+  <si>
+    <t>320018160732</t>
+  </si>
+  <si>
+    <t>320018160754</t>
+  </si>
+  <si>
+    <t>320018160813</t>
+  </si>
+  <si>
+    <t>320018160835</t>
+  </si>
+  <si>
+    <t>320018160868</t>
+  </si>
+  <si>
+    <t>320018160880</t>
+  </si>
+  <si>
+    <t>320018160916</t>
+  </si>
+  <si>
+    <t>320018160938</t>
+  </si>
+  <si>
+    <t>320018160971</t>
+  </si>
+  <si>
+    <t>320018160993</t>
+  </si>
+  <si>
+    <t>320018161029</t>
+  </si>
+  <si>
+    <t>320018161040</t>
+  </si>
+  <si>
+    <t>320018161073</t>
+  </si>
+  <si>
+    <t>320018161095</t>
+  </si>
+  <si>
+    <t>320018161132</t>
+  </si>
+  <si>
+    <t>320018161154</t>
+  </si>
+  <si>
+    <t>320018161187</t>
+  </si>
+  <si>
+    <t>320018161202</t>
+  </si>
+  <si>
+    <t>320018161235</t>
+  </si>
+  <si>
+    <t>320018164175</t>
+  </si>
+  <si>
+    <t>320018164186</t>
+  </si>
+  <si>
+    <t>320018164212</t>
+  </si>
+  <si>
+    <t>320018164234</t>
+  </si>
+  <si>
+    <t>320018164278</t>
+  </si>
+  <si>
+    <t>320018164337</t>
+  </si>
+  <si>
+    <t>320018164360</t>
+  </si>
+  <si>
+    <t>320018164381</t>
+  </si>
+  <si>
+    <t>320018164418</t>
+  </si>
+  <si>
+    <t>320018164451</t>
+  </si>
+  <si>
+    <t>320018164495</t>
+  </si>
+  <si>
+    <t>320018164510</t>
+  </si>
+  <si>
+    <t>320018164543</t>
+  </si>
+  <si>
+    <t>320018164565</t>
+  </si>
+  <si>
+    <t>320018164598</t>
+  </si>
+  <si>
+    <t>320018164613</t>
+  </si>
+  <si>
+    <t>320018164657</t>
+  </si>
+  <si>
+    <t>320018164679</t>
+  </si>
+  <si>
+    <t>320018164705</t>
+  </si>
+  <si>
+    <t>320018164727</t>
+  </si>
+  <si>
+    <t>320018164750</t>
+  </si>
+  <si>
+    <t>320018164760</t>
+  </si>
+  <si>
+    <t>320018164771</t>
+  </si>
+  <si>
+    <t>320018164782</t>
+  </si>
+  <si>
+    <t>320018164863</t>
+  </si>
+  <si>
+    <t>320018164874</t>
+  </si>
+  <si>
+    <t>320018164922</t>
+  </si>
+  <si>
+    <t>320018164944</t>
+  </si>
+  <si>
+    <t>320018164988</t>
+  </si>
+  <si>
+    <t>320018165002</t>
+  </si>
+  <si>
+    <t>320018165035</t>
+  </si>
+  <si>
+    <t>320018165046</t>
+  </si>
+  <si>
+    <t>320018165080</t>
   </si>
 </sst>
 </file>
@@ -731,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:R25"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -855,12 +1149,14 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>73</v>
+        <v>192</v>
       </c>
       <c r="Q2" t="s">
         <v>52</v>
       </c>
-      <c r="R2"/>
+      <c r="R2" t="s">
+        <v>95</v>
+      </c>
       <c r="S2" s="3"/>
     </row>
     <row r="3" spans="1:19">
@@ -906,12 +1202,14 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>74</v>
+        <v>185</v>
       </c>
       <c r="Q3" t="s">
         <v>53</v>
       </c>
-      <c r="R3"/>
+      <c r="R3" t="s">
+        <v>95</v>
+      </c>
       <c r="S3" s="3"/>
     </row>
     <row r="4" spans="1:19">
@@ -957,12 +1255,14 @@
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>75</v>
+        <v>186</v>
       </c>
       <c r="Q4" t="s">
         <v>54</v>
       </c>
-      <c r="R4"/>
+      <c r="R4" t="s">
+        <v>95</v>
+      </c>
       <c r="S4" s="3"/>
     </row>
     <row r="5" spans="1:19">
@@ -1008,12 +1308,14 @@
         <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>76</v>
+        <v>187</v>
       </c>
       <c r="Q5" t="s">
         <v>55</v>
       </c>
-      <c r="R5"/>
+      <c r="R5" t="s">
+        <v>95</v>
+      </c>
       <c r="S5" s="3"/>
     </row>
     <row r="6" spans="1:19">
@@ -1059,12 +1361,14 @@
         <v>2</v>
       </c>
       <c r="P6" t="s">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="Q6" t="s">
         <v>56</v>
       </c>
-      <c r="R6"/>
+      <c r="R6" t="s">
+        <v>95</v>
+      </c>
       <c r="S6" s="3"/>
     </row>
     <row r="7" spans="1:19">
@@ -1110,12 +1414,14 @@
         <v>3</v>
       </c>
       <c r="P7" t="s">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c r="Q7" t="s">
         <v>57</v>
       </c>
-      <c r="R7"/>
+      <c r="R7" t="s">
+        <v>101</v>
+      </c>
       <c r="S7" s="3"/>
     </row>
     <row r="8" spans="1:19">
@@ -1161,12 +1467,14 @@
         <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="Q8" t="s">
         <v>52</v>
       </c>
-      <c r="R8"/>
+      <c r="R8" t="s">
+        <v>95</v>
+      </c>
       <c r="S8" s="3"/>
     </row>
     <row r="9" spans="1:19">
@@ -1212,12 +1520,14 @@
         <v>3</v>
       </c>
       <c r="P9" t="s">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="Q9" t="s">
         <v>58</v>
       </c>
-      <c r="R9"/>
+      <c r="R9" t="s">
+        <v>95</v>
+      </c>
       <c r="S9" s="3"/>
     </row>
     <row r="10" spans="1:19">
@@ -1263,12 +1573,14 @@
         <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="Q10" t="s">
         <v>53</v>
       </c>
-      <c r="R10"/>
+      <c r="R10" t="s">
+        <v>95</v>
+      </c>
       <c r="S10" s="3"/>
     </row>
     <row r="11" spans="1:19">
@@ -1314,12 +1626,14 @@
         <v>4</v>
       </c>
       <c r="P11" t="s">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="Q11" t="s">
         <v>59</v>
       </c>
-      <c r="R11"/>
+      <c r="R11" t="s">
+        <v>95</v>
+      </c>
       <c r="S11" s="3"/>
     </row>
     <row r="12" spans="1:19">
@@ -1365,12 +1679,14 @@
         <v>2</v>
       </c>
       <c r="P12" t="s">
-        <v>83</v>
+        <v>170</v>
       </c>
       <c r="Q12" t="s">
         <v>60</v>
       </c>
-      <c r="R12"/>
+      <c r="R12" t="s">
+        <v>95</v>
+      </c>
       <c r="S12" s="3"/>
     </row>
     <row r="13" spans="1:19">
@@ -1416,12 +1732,14 @@
         <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>84</v>
+        <v>171</v>
       </c>
       <c r="Q13" t="s">
         <v>61</v>
       </c>
-      <c r="R13"/>
+      <c r="R13" t="s">
+        <v>95</v>
+      </c>
       <c r="S13" s="3"/>
     </row>
     <row r="14" spans="1:19">
@@ -1467,12 +1785,14 @@
         <v>2</v>
       </c>
       <c r="P14" t="s">
-        <v>85</v>
+        <v>172</v>
       </c>
       <c r="Q14" t="s">
         <v>62</v>
       </c>
-      <c r="R14"/>
+      <c r="R14" t="s">
+        <v>95</v>
+      </c>
       <c r="S14" s="3"/>
     </row>
     <row r="15" spans="1:19">
@@ -1518,12 +1838,14 @@
         <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>86</v>
+        <v>173</v>
       </c>
       <c r="Q15" t="s">
         <v>63</v>
       </c>
-      <c r="R15"/>
+      <c r="R15" t="s">
+        <v>95</v>
+      </c>
       <c r="S15" s="3"/>
     </row>
     <row r="16" spans="1:19">
@@ -1569,12 +1891,14 @@
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>87</v>
+        <v>174</v>
       </c>
       <c r="Q16" t="s">
         <v>54</v>
       </c>
-      <c r="R16"/>
+      <c r="R16" t="s">
+        <v>95</v>
+      </c>
       <c r="S16" s="3"/>
     </row>
     <row r="17" spans="1:19">
@@ -1620,12 +1944,14 @@
         <v>4</v>
       </c>
       <c r="P17" t="s">
-        <v>88</v>
+        <v>175</v>
       </c>
       <c r="Q17" t="s">
         <v>64</v>
       </c>
-      <c r="R17"/>
+      <c r="R17" t="s">
+        <v>95</v>
+      </c>
       <c r="S17" s="3"/>
     </row>
     <row r="18" spans="1:19">
@@ -1671,12 +1997,14 @@
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>89</v>
+        <v>176</v>
       </c>
       <c r="Q18" t="s">
         <v>65</v>
       </c>
-      <c r="R18"/>
+      <c r="R18" t="s">
+        <v>101</v>
+      </c>
       <c r="S18" s="3"/>
     </row>
     <row r="19" spans="1:19">
@@ -1722,12 +2050,14 @@
         <v>3</v>
       </c>
       <c r="P19" t="s">
-        <v>90</v>
+        <v>177</v>
       </c>
       <c r="Q19" t="s">
         <v>65</v>
       </c>
-      <c r="R19"/>
+      <c r="R19" t="s">
+        <v>95</v>
+      </c>
       <c r="S19" s="3"/>
     </row>
     <row r="20" spans="1:19">
@@ -1773,12 +2103,14 @@
         <v>2</v>
       </c>
       <c r="P20" t="s">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="Q20" t="s">
         <v>68</v>
       </c>
-      <c r="R20"/>
+      <c r="R20" t="s">
+        <v>101</v>
+      </c>
       <c r="S20" s="3"/>
     </row>
     <row r="21" spans="1:19">
@@ -1824,12 +2156,14 @@
         <v>3</v>
       </c>
       <c r="P21" t="s">
-        <v>92</v>
+        <v>179</v>
       </c>
       <c r="Q21" t="s">
         <v>66</v>
       </c>
-      <c r="R21"/>
+      <c r="R21" t="s">
+        <v>95</v>
+      </c>
       <c r="S21" s="3"/>
     </row>
     <row r="22" spans="1:19">
@@ -1875,12 +2209,14 @@
         <v>2</v>
       </c>
       <c r="P22" t="s">
-        <v>94</v>
+        <v>180</v>
       </c>
       <c r="Q22" t="s">
-        <v>93</v>
-      </c>
-      <c r="R22"/>
+        <v>90</v>
+      </c>
+      <c r="R22" t="s">
+        <v>101</v>
+      </c>
       <c r="S22" s="3"/>
     </row>
     <row r="23" spans="1:19">
@@ -1926,12 +2262,14 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>70</v>
+        <v>181</v>
       </c>
       <c r="Q23" t="s">
         <v>69</v>
       </c>
-      <c r="R23"/>
+      <c r="R23" t="s">
+        <v>95</v>
+      </c>
       <c r="S23" s="3"/>
     </row>
     <row r="24" spans="1:19">
@@ -1977,12 +2315,14 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>71</v>
+        <v>182</v>
       </c>
       <c r="Q24" t="s">
         <v>67</v>
       </c>
-      <c r="R24"/>
+      <c r="R24" t="s">
+        <v>101</v>
+      </c>
       <c r="S24" s="3"/>
     </row>
     <row r="25" spans="1:19">
@@ -2028,12 +2368,14 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>72</v>
+        <v>183</v>
       </c>
       <c r="Q25" t="s">
         <v>60</v>
       </c>
-      <c r="R25"/>
+      <c r="R25" t="s">
+        <v>95</v>
+      </c>
       <c r="S25" s="3"/>
     </row>
     <row r="26" spans="1:19">

--- a/FedExApplication/bin/TestFiles/FedExShipments.xlsx
+++ b/FedExApplication/bin/TestFiles/FedExShipments.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="328">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -593,6 +593,411 @@
   </si>
   <si>
     <t>320018165080</t>
+  </si>
+  <si>
+    <t>320018165127</t>
+  </si>
+  <si>
+    <t>320018165138</t>
+  </si>
+  <si>
+    <t>320018165160</t>
+  </si>
+  <si>
+    <t>320018165182</t>
+  </si>
+  <si>
+    <t>320018165220</t>
+  </si>
+  <si>
+    <t>320018165241</t>
+  </si>
+  <si>
+    <t>320018165274</t>
+  </si>
+  <si>
+    <t>320018165296</t>
+  </si>
+  <si>
+    <t>320018165322</t>
+  </si>
+  <si>
+    <t>320018165344</t>
+  </si>
+  <si>
+    <t>320018165388</t>
+  </si>
+  <si>
+    <t>320018165403</t>
+  </si>
+  <si>
+    <t>320018165436</t>
+  </si>
+  <si>
+    <t>320018165458</t>
+  </si>
+  <si>
+    <t>320018165480</t>
+  </si>
+  <si>
+    <t>320018165506</t>
+  </si>
+  <si>
+    <t>320018165540</t>
+  </si>
+  <si>
+    <t>320018165561</t>
+  </si>
+  <si>
+    <t>320018165594</t>
+  </si>
+  <si>
+    <t>320018165610</t>
+  </si>
+  <si>
+    <t>320018165642</t>
+  </si>
+  <si>
+    <t>$278.12</t>
+  </si>
+  <si>
+    <t>320018165653</t>
+  </si>
+  <si>
+    <t>320018165664</t>
+  </si>
+  <si>
+    <t>320018165697</t>
+  </si>
+  <si>
+    <t>320018165712</t>
+  </si>
+  <si>
+    <t>320018165756</t>
+  </si>
+  <si>
+    <t>320018167016</t>
+  </si>
+  <si>
+    <t>320018175850</t>
+  </si>
+  <si>
+    <t>320018175860</t>
+  </si>
+  <si>
+    <t>320018175893</t>
+  </si>
+  <si>
+    <t>320018175919</t>
+  </si>
+  <si>
+    <t>320018175952</t>
+  </si>
+  <si>
+    <t>320018175996</t>
+  </si>
+  <si>
+    <t>320018176010</t>
+  </si>
+  <si>
+    <t>320018176043</t>
+  </si>
+  <si>
+    <t>320018176065</t>
+  </si>
+  <si>
+    <t>320018176113</t>
+  </si>
+  <si>
+    <t>320018176135</t>
+  </si>
+  <si>
+    <t>320018176179</t>
+  </si>
+  <si>
+    <t>320018176190</t>
+  </si>
+  <si>
+    <t>320018176227</t>
+  </si>
+  <si>
+    <t>320018176249</t>
+  </si>
+  <si>
+    <t>320018176271</t>
+  </si>
+  <si>
+    <t>320018176293</t>
+  </si>
+  <si>
+    <t>320018176341</t>
+  </si>
+  <si>
+    <t>320018176374</t>
+  </si>
+  <si>
+    <t>320018176400</t>
+  </si>
+  <si>
+    <t>320018176422</t>
+  </si>
+  <si>
+    <t>$202.67</t>
+  </si>
+  <si>
+    <t>320018176455</t>
+  </si>
+  <si>
+    <t>$61.34</t>
+  </si>
+  <si>
+    <t>320018176499</t>
+  </si>
+  <si>
+    <t>$69.80</t>
+  </si>
+  <si>
+    <t>320018176503</t>
+  </si>
+  <si>
+    <t>$74.03</t>
+  </si>
+  <si>
+    <t>320018176536</t>
+  </si>
+  <si>
+    <t>320018176558</t>
+  </si>
+  <si>
+    <t>$98.35</t>
+  </si>
+  <si>
+    <t>320018176591</t>
+  </si>
+  <si>
+    <t>$273.38</t>
+  </si>
+  <si>
+    <t>320018176617</t>
+  </si>
+  <si>
+    <t>320018176694</t>
+  </si>
+  <si>
+    <t>320018176720</t>
+  </si>
+  <si>
+    <t>320018176742</t>
+  </si>
+  <si>
+    <t>320018176786</t>
+  </si>
+  <si>
+    <t>320018176801</t>
+  </si>
+  <si>
+    <t>320018176834</t>
+  </si>
+  <si>
+    <t>320018177050</t>
+  </si>
+  <si>
+    <t>320018177061</t>
+  </si>
+  <si>
+    <t>320018177094</t>
+  </si>
+  <si>
+    <t>320018177278</t>
+  </si>
+  <si>
+    <t>320018177315</t>
+  </si>
+  <si>
+    <t>320018177337</t>
+  </si>
+  <si>
+    <t>320018177360</t>
+  </si>
+  <si>
+    <t>320018177381</t>
+  </si>
+  <si>
+    <t>320018177418</t>
+  </si>
+  <si>
+    <t>320018177430</t>
+  </si>
+  <si>
+    <t>320018177473</t>
+  </si>
+  <si>
+    <t>320018177500</t>
+  </si>
+  <si>
+    <t>320018177532</t>
+  </si>
+  <si>
+    <t>320018177554</t>
+  </si>
+  <si>
+    <t>320018177587</t>
+  </si>
+  <si>
+    <t>320018177602</t>
+  </si>
+  <si>
+    <t>320018177679</t>
+  </si>
+  <si>
+    <t>320018177690</t>
+  </si>
+  <si>
+    <t>320018179189</t>
+  </si>
+  <si>
+    <t>320018179190</t>
+  </si>
+  <si>
+    <t>320018179226</t>
+  </si>
+  <si>
+    <t>320018179454</t>
+  </si>
+  <si>
+    <t>320018179498</t>
+  </si>
+  <si>
+    <t>320018179513</t>
+  </si>
+  <si>
+    <t>320018179546</t>
+  </si>
+  <si>
+    <t>320018179568</t>
+  </si>
+  <si>
+    <t>320018179590</t>
+  </si>
+  <si>
+    <t>320018179616</t>
+  </si>
+  <si>
+    <t>320018179650</t>
+  </si>
+  <si>
+    <t>320018179671</t>
+  </si>
+  <si>
+    <t>320018179708</t>
+  </si>
+  <si>
+    <t>320018179720</t>
+  </si>
+  <si>
+    <t>320018179752</t>
+  </si>
+  <si>
+    <t>320018179774</t>
+  </si>
+  <si>
+    <t>320018179811</t>
+  </si>
+  <si>
+    <t>320018179833</t>
+  </si>
+  <si>
+    <t>320018179866</t>
+  </si>
+  <si>
+    <t>320018179888</t>
+  </si>
+  <si>
+    <t>320018179914</t>
+  </si>
+  <si>
+    <t>320018179925</t>
+  </si>
+  <si>
+    <t>320018179947</t>
+  </si>
+  <si>
+    <t>320018179958</t>
+  </si>
+  <si>
+    <t>320018179980</t>
+  </si>
+  <si>
+    <t>320018179991</t>
+  </si>
+  <si>
+    <t>320018180002</t>
+  </si>
+  <si>
+    <t>320018180035</t>
+  </si>
+  <si>
+    <t>320018180057</t>
+  </si>
+  <si>
+    <t>320018180090</t>
+  </si>
+  <si>
+    <t>320018180127</t>
+  </si>
+  <si>
+    <t>320018180150</t>
+  </si>
+  <si>
+    <t>320018180171</t>
+  </si>
+  <si>
+    <t>320018180208</t>
+  </si>
+  <si>
+    <t>320018180220</t>
+  </si>
+  <si>
+    <t>320018180263</t>
+  </si>
+  <si>
+    <t>320018180285</t>
+  </si>
+  <si>
+    <t>320018180311</t>
+  </si>
+  <si>
+    <t>320018180333</t>
+  </si>
+  <si>
+    <t>320018180366</t>
+  </si>
+  <si>
+    <t>320018180388</t>
+  </si>
+  <si>
+    <t>320018180425</t>
+  </si>
+  <si>
+    <t>320018180447</t>
+  </si>
+  <si>
+    <t>320018180480</t>
+  </si>
+  <si>
+    <t>320018180506</t>
+  </si>
+  <si>
+    <t>320018180539</t>
+  </si>
+  <si>
+    <t>320018180540</t>
+  </si>
+  <si>
+    <t>320018180550</t>
+  </si>
+  <si>
+    <t>320018180561</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>192</v>
+        <v>304</v>
       </c>
       <c r="Q2" t="s">
         <v>52</v>
@@ -1202,7 +1607,7 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>185</v>
+        <v>305</v>
       </c>
       <c r="Q3" t="s">
         <v>53</v>
@@ -1255,7 +1660,7 @@
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>186</v>
+        <v>306</v>
       </c>
       <c r="Q4" t="s">
         <v>54</v>
@@ -1308,7 +1713,7 @@
         <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>187</v>
+        <v>307</v>
       </c>
       <c r="Q5" t="s">
         <v>55</v>
@@ -1361,7 +1766,7 @@
         <v>2</v>
       </c>
       <c r="P6" t="s">
-        <v>188</v>
+        <v>308</v>
       </c>
       <c r="Q6" t="s">
         <v>56</v>
@@ -1414,7 +1819,7 @@
         <v>3</v>
       </c>
       <c r="P7" t="s">
-        <v>189</v>
+        <v>309</v>
       </c>
       <c r="Q7" t="s">
         <v>57</v>
@@ -1467,7 +1872,7 @@
         <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>166</v>
+        <v>310</v>
       </c>
       <c r="Q8" t="s">
         <v>52</v>
@@ -1520,7 +1925,7 @@
         <v>3</v>
       </c>
       <c r="P9" t="s">
-        <v>167</v>
+        <v>311</v>
       </c>
       <c r="Q9" t="s">
         <v>58</v>
@@ -1573,7 +1978,7 @@
         <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>168</v>
+        <v>312</v>
       </c>
       <c r="Q10" t="s">
         <v>53</v>
@@ -1626,7 +2031,7 @@
         <v>4</v>
       </c>
       <c r="P11" t="s">
-        <v>169</v>
+        <v>313</v>
       </c>
       <c r="Q11" t="s">
         <v>59</v>
@@ -1679,7 +2084,7 @@
         <v>2</v>
       </c>
       <c r="P12" t="s">
-        <v>170</v>
+        <v>314</v>
       </c>
       <c r="Q12" t="s">
         <v>60</v>
@@ -1732,7 +2137,7 @@
         <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>171</v>
+        <v>315</v>
       </c>
       <c r="Q13" t="s">
         <v>61</v>
@@ -1785,7 +2190,7 @@
         <v>2</v>
       </c>
       <c r="P14" t="s">
-        <v>172</v>
+        <v>316</v>
       </c>
       <c r="Q14" t="s">
         <v>62</v>
@@ -1838,7 +2243,7 @@
         <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>173</v>
+        <v>317</v>
       </c>
       <c r="Q15" t="s">
         <v>63</v>
@@ -1891,7 +2296,7 @@
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>174</v>
+        <v>318</v>
       </c>
       <c r="Q16" t="s">
         <v>54</v>
@@ -1944,7 +2349,7 @@
         <v>4</v>
       </c>
       <c r="P17" t="s">
-        <v>175</v>
+        <v>319</v>
       </c>
       <c r="Q17" t="s">
         <v>64</v>
@@ -1997,7 +2402,7 @@
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>176</v>
+        <v>320</v>
       </c>
       <c r="Q18" t="s">
         <v>65</v>
@@ -2050,7 +2455,7 @@
         <v>3</v>
       </c>
       <c r="P19" t="s">
-        <v>177</v>
+        <v>321</v>
       </c>
       <c r="Q19" t="s">
         <v>65</v>
@@ -2103,7 +2508,7 @@
         <v>2</v>
       </c>
       <c r="P20" t="s">
-        <v>178</v>
+        <v>322</v>
       </c>
       <c r="Q20" t="s">
         <v>68</v>
@@ -2156,7 +2561,7 @@
         <v>3</v>
       </c>
       <c r="P21" t="s">
-        <v>179</v>
+        <v>323</v>
       </c>
       <c r="Q21" t="s">
         <v>66</v>
@@ -2209,10 +2614,10 @@
         <v>2</v>
       </c>
       <c r="P22" t="s">
-        <v>180</v>
+        <v>324</v>
       </c>
       <c r="Q22" t="s">
-        <v>90</v>
+        <v>242</v>
       </c>
       <c r="R22" t="s">
         <v>101</v>
@@ -2262,7 +2667,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>181</v>
+        <v>325</v>
       </c>
       <c r="Q23" t="s">
         <v>69</v>
@@ -2315,7 +2720,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>182</v>
+        <v>326</v>
       </c>
       <c r="Q24" t="s">
         <v>67</v>
@@ -2368,7 +2773,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>183</v>
+        <v>327</v>
       </c>
       <c r="Q25" t="s">
         <v>60</v>

--- a/FedExApplication/bin/TestFiles/FedExShipments.xlsx
+++ b/FedExApplication/bin/TestFiles/FedExShipments.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="372">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -998,6 +998,138 @@
   </si>
   <si>
     <t>320018180561</t>
+  </si>
+  <si>
+    <t>320018191411</t>
+  </si>
+  <si>
+    <t>320018191422</t>
+  </si>
+  <si>
+    <t>320018191455</t>
+  </si>
+  <si>
+    <t>320018191477</t>
+  </si>
+  <si>
+    <t>320018191514</t>
+  </si>
+  <si>
+    <t>320018191536</t>
+  </si>
+  <si>
+    <t>320018191569</t>
+  </si>
+  <si>
+    <t>320018191580</t>
+  </si>
+  <si>
+    <t>320018191617</t>
+  </si>
+  <si>
+    <t>320018191639</t>
+  </si>
+  <si>
+    <t>320018191672</t>
+  </si>
+  <si>
+    <t>320018191694</t>
+  </si>
+  <si>
+    <t>320018191720</t>
+  </si>
+  <si>
+    <t>320018191742</t>
+  </si>
+  <si>
+    <t>320018191775</t>
+  </si>
+  <si>
+    <t>320018191797</t>
+  </si>
+  <si>
+    <t>320018191834</t>
+  </si>
+  <si>
+    <t>320018191856</t>
+  </si>
+  <si>
+    <t>320018191889</t>
+  </si>
+  <si>
+    <t>320018191904</t>
+  </si>
+  <si>
+    <t>320018191948</t>
+  </si>
+  <si>
+    <t>320018191959</t>
+  </si>
+  <si>
+    <t>320018191981</t>
+  </si>
+  <si>
+    <t>320018192006</t>
+  </si>
+  <si>
+    <t>320018192040</t>
+  </si>
+  <si>
+    <t>320018192061</t>
+  </si>
+  <si>
+    <t>320018192094</t>
+  </si>
+  <si>
+    <t>320018192131</t>
+  </si>
+  <si>
+    <t>320018192164</t>
+  </si>
+  <si>
+    <t>320018192186</t>
+  </si>
+  <si>
+    <t>320018192223</t>
+  </si>
+  <si>
+    <t>320018192245</t>
+  </si>
+  <si>
+    <t>320018192278</t>
+  </si>
+  <si>
+    <t>320018192290</t>
+  </si>
+  <si>
+    <t>320018192326</t>
+  </si>
+  <si>
+    <t>320018192348</t>
+  </si>
+  <si>
+    <t>320018192381</t>
+  </si>
+  <si>
+    <t>320018192407</t>
+  </si>
+  <si>
+    <t>320018192430</t>
+  </si>
+  <si>
+    <t>320018192451</t>
+  </si>
+  <si>
+    <t>320018192484</t>
+  </si>
+  <si>
+    <t>320018192495</t>
+  </si>
+  <si>
+    <t>320018192500</t>
+  </si>
+  <si>
+    <t>320018192510</t>
   </si>
 </sst>
 </file>
@@ -1554,7 +1686,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>304</v>
+        <v>348</v>
       </c>
       <c r="Q2" t="s">
         <v>52</v>
@@ -1607,7 +1739,7 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>305</v>
+        <v>349</v>
       </c>
       <c r="Q3" t="s">
         <v>53</v>
@@ -1660,7 +1792,7 @@
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>306</v>
+        <v>350</v>
       </c>
       <c r="Q4" t="s">
         <v>54</v>
@@ -1713,7 +1845,7 @@
         <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>307</v>
+        <v>351</v>
       </c>
       <c r="Q5" t="s">
         <v>55</v>
@@ -1766,7 +1898,7 @@
         <v>2</v>
       </c>
       <c r="P6" t="s">
-        <v>308</v>
+        <v>352</v>
       </c>
       <c r="Q6" t="s">
         <v>56</v>
@@ -1819,7 +1951,7 @@
         <v>3</v>
       </c>
       <c r="P7" t="s">
-        <v>309</v>
+        <v>353</v>
       </c>
       <c r="Q7" t="s">
         <v>57</v>
@@ -1872,7 +2004,7 @@
         <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="Q8" t="s">
         <v>52</v>
@@ -1925,7 +2057,7 @@
         <v>3</v>
       </c>
       <c r="P9" t="s">
-        <v>311</v>
+        <v>355</v>
       </c>
       <c r="Q9" t="s">
         <v>58</v>
@@ -1978,7 +2110,7 @@
         <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>312</v>
+        <v>356</v>
       </c>
       <c r="Q10" t="s">
         <v>53</v>
@@ -2031,7 +2163,7 @@
         <v>4</v>
       </c>
       <c r="P11" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="Q11" t="s">
         <v>59</v>
@@ -2084,7 +2216,7 @@
         <v>2</v>
       </c>
       <c r="P12" t="s">
-        <v>314</v>
+        <v>358</v>
       </c>
       <c r="Q12" t="s">
         <v>60</v>
@@ -2137,7 +2269,7 @@
         <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>315</v>
+        <v>359</v>
       </c>
       <c r="Q13" t="s">
         <v>61</v>
@@ -2190,7 +2322,7 @@
         <v>2</v>
       </c>
       <c r="P14" t="s">
-        <v>316</v>
+        <v>360</v>
       </c>
       <c r="Q14" t="s">
         <v>62</v>
@@ -2243,7 +2375,7 @@
         <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>317</v>
+        <v>361</v>
       </c>
       <c r="Q15" t="s">
         <v>63</v>
@@ -2296,7 +2428,7 @@
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>318</v>
+        <v>362</v>
       </c>
       <c r="Q16" t="s">
         <v>54</v>
@@ -2349,7 +2481,7 @@
         <v>4</v>
       </c>
       <c r="P17" t="s">
-        <v>319</v>
+        <v>363</v>
       </c>
       <c r="Q17" t="s">
         <v>64</v>
@@ -2402,7 +2534,7 @@
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>320</v>
+        <v>364</v>
       </c>
       <c r="Q18" t="s">
         <v>65</v>
@@ -2455,7 +2587,7 @@
         <v>3</v>
       </c>
       <c r="P19" t="s">
-        <v>321</v>
+        <v>365</v>
       </c>
       <c r="Q19" t="s">
         <v>65</v>
@@ -2508,7 +2640,7 @@
         <v>2</v>
       </c>
       <c r="P20" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="Q20" t="s">
         <v>68</v>
@@ -2561,7 +2693,7 @@
         <v>3</v>
       </c>
       <c r="P21" t="s">
-        <v>323</v>
+        <v>367</v>
       </c>
       <c r="Q21" t="s">
         <v>66</v>
@@ -2614,7 +2746,7 @@
         <v>2</v>
       </c>
       <c r="P22" t="s">
-        <v>324</v>
+        <v>368</v>
       </c>
       <c r="Q22" t="s">
         <v>242</v>
@@ -2667,7 +2799,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>325</v>
+        <v>369</v>
       </c>
       <c r="Q23" t="s">
         <v>69</v>
@@ -2720,10 +2852,10 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>326</v>
+        <v>370</v>
       </c>
       <c r="Q24" t="s">
-        <v>67</v>
+        <v>214</v>
       </c>
       <c r="R24" t="s">
         <v>101</v>
@@ -2773,7 +2905,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>327</v>
+        <v>371</v>
       </c>
       <c r="Q25" t="s">
         <v>60</v>

--- a/FedExApplication/bin/TestFiles/FedExShipments.xlsx
+++ b/FedExApplication/bin/TestFiles/FedExShipments.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="411">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -1130,6 +1130,123 @@
   </si>
   <si>
     <t>320018192510</t>
+  </si>
+  <si>
+    <t>320018207701</t>
+  </si>
+  <si>
+    <t>320018207712</t>
+  </si>
+  <si>
+    <t>320018207745</t>
+  </si>
+  <si>
+    <t>320018207804</t>
+  </si>
+  <si>
+    <t>320018207815</t>
+  </si>
+  <si>
+    <t>320018207848</t>
+  </si>
+  <si>
+    <t>320018207860</t>
+  </si>
+  <si>
+    <t>320018207907</t>
+  </si>
+  <si>
+    <t>320018207929</t>
+  </si>
+  <si>
+    <t>320018207951</t>
+  </si>
+  <si>
+    <t>320018207973</t>
+  </si>
+  <si>
+    <t>320018208009</t>
+  </si>
+  <si>
+    <t>320018208020</t>
+  </si>
+  <si>
+    <t>320018208064</t>
+  </si>
+  <si>
+    <t>320018208086</t>
+  </si>
+  <si>
+    <t>320018208097</t>
+  </si>
+  <si>
+    <t>320018208101</t>
+  </si>
+  <si>
+    <t>320018208134</t>
+  </si>
+  <si>
+    <t>320018208156</t>
+  </si>
+  <si>
+    <t>320018208190</t>
+  </si>
+  <si>
+    <t>320018208215</t>
+  </si>
+  <si>
+    <t>320018208248</t>
+  </si>
+  <si>
+    <t>320018208260</t>
+  </si>
+  <si>
+    <t>320018208292</t>
+  </si>
+  <si>
+    <t>320018208318</t>
+  </si>
+  <si>
+    <t>320018208351</t>
+  </si>
+  <si>
+    <t>320018208373</t>
+  </si>
+  <si>
+    <t>320018208400</t>
+  </si>
+  <si>
+    <t>320018208421</t>
+  </si>
+  <si>
+    <t>320018208454</t>
+  </si>
+  <si>
+    <t>320018208476</t>
+  </si>
+  <si>
+    <t>320018208513</t>
+  </si>
+  <si>
+    <t>320018208535</t>
+  </si>
+  <si>
+    <t>320018208568</t>
+  </si>
+  <si>
+    <t>320018208580</t>
+  </si>
+  <si>
+    <t>320018208616</t>
+  </si>
+  <si>
+    <t>320018208627</t>
+  </si>
+  <si>
+    <t>320018208638</t>
+  </si>
+  <si>
+    <t>320018208649</t>
   </si>
 </sst>
 </file>
@@ -1686,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="Q2" t="s">
         <v>52</v>
@@ -1739,7 +1856,7 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>349</v>
+        <v>388</v>
       </c>
       <c r="Q3" t="s">
         <v>53</v>
@@ -1792,7 +1909,7 @@
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="Q4" t="s">
         <v>54</v>
@@ -1845,7 +1962,7 @@
         <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="Q5" t="s">
         <v>55</v>
@@ -1898,7 +2015,7 @@
         <v>2</v>
       </c>
       <c r="P6" t="s">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="Q6" t="s">
         <v>56</v>
@@ -1951,7 +2068,7 @@
         <v>3</v>
       </c>
       <c r="P7" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="Q7" t="s">
         <v>57</v>
@@ -2004,7 +2121,7 @@
         <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="Q8" t="s">
         <v>52</v>
@@ -2057,7 +2174,7 @@
         <v>3</v>
       </c>
       <c r="P9" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="Q9" t="s">
         <v>58</v>
@@ -2110,7 +2227,7 @@
         <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="Q10" t="s">
         <v>53</v>
@@ -2163,7 +2280,7 @@
         <v>4</v>
       </c>
       <c r="P11" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="Q11" t="s">
         <v>59</v>
@@ -2216,7 +2333,7 @@
         <v>2</v>
       </c>
       <c r="P12" t="s">
-        <v>358</v>
+        <v>397</v>
       </c>
       <c r="Q12" t="s">
         <v>60</v>
@@ -2269,7 +2386,7 @@
         <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="Q13" t="s">
         <v>61</v>
@@ -2322,7 +2439,7 @@
         <v>2</v>
       </c>
       <c r="P14" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="Q14" t="s">
         <v>62</v>
@@ -2375,7 +2492,7 @@
         <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="Q15" t="s">
         <v>63</v>
@@ -2428,7 +2545,7 @@
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
       <c r="Q16" t="s">
         <v>54</v>
@@ -2481,7 +2598,7 @@
         <v>4</v>
       </c>
       <c r="P17" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="Q17" t="s">
         <v>64</v>
@@ -2534,7 +2651,7 @@
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="Q18" t="s">
         <v>65</v>
@@ -2587,7 +2704,7 @@
         <v>3</v>
       </c>
       <c r="P19" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="Q19" t="s">
         <v>65</v>
@@ -2640,7 +2757,7 @@
         <v>2</v>
       </c>
       <c r="P20" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="Q20" t="s">
         <v>68</v>
@@ -2693,7 +2810,7 @@
         <v>3</v>
       </c>
       <c r="P21" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="Q21" t="s">
         <v>66</v>
@@ -2746,7 +2863,7 @@
         <v>2</v>
       </c>
       <c r="P22" t="s">
-        <v>368</v>
+        <v>407</v>
       </c>
       <c r="Q22" t="s">
         <v>242</v>
@@ -2799,7 +2916,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>369</v>
+        <v>408</v>
       </c>
       <c r="Q23" t="s">
         <v>69</v>
@@ -2852,7 +2969,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>370</v>
+        <v>409</v>
       </c>
       <c r="Q24" t="s">
         <v>214</v>
@@ -2905,7 +3022,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>371</v>
+        <v>410</v>
       </c>
       <c r="Q25" t="s">
         <v>60</v>

--- a/FedExApplication/bin/TestFiles/FedExShipments.xlsx
+++ b/FedExApplication/bin/TestFiles/FedExShipments.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView tabRatio="614" windowHeight="9660" windowWidth="19815" xWindow="390" yWindow="510"/>
+    <workbookView xWindow="390" yWindow="510" windowWidth="19815" windowHeight="9660" tabRatio="614"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="97">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -172,1081 +172,139 @@
     <t>FRG</t>
   </si>
   <si>
+    <t>$231.08</t>
+  </si>
+  <si>
+    <t>$276.24</t>
+  </si>
+  <si>
+    <t>$489.85</t>
+  </si>
+  <si>
+    <t>$354.26</t>
+  </si>
+  <si>
+    <t>$132.19</t>
+  </si>
+  <si>
     <t>$19.04</t>
   </si>
   <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>320018252380</t>
+  </si>
+  <si>
     <t>$27.50</t>
   </si>
   <si>
+    <t>320018252391</t>
+  </si>
+  <si>
     <t>$31.73</t>
   </si>
   <si>
+    <t>320018252428</t>
+  </si>
+  <si>
     <t>$43.36</t>
   </si>
   <si>
+    <t>320018252461</t>
+  </si>
+  <si>
     <t>$56.05</t>
   </si>
   <si>
-    <t>$231.08</t>
+    <t>320018252520</t>
+  </si>
+  <si>
+    <t>320018252564</t>
+  </si>
+  <si>
+    <t>320018252612</t>
   </si>
   <si>
     <t>$23.27</t>
   </si>
   <si>
+    <t>320018252656</t>
+  </si>
+  <si>
+    <t>320018252689</t>
+  </si>
+  <si>
     <t>$40.19</t>
   </si>
   <si>
+    <t>320018252704</t>
+  </si>
+  <si>
     <t>$52.88</t>
   </si>
   <si>
+    <t>320018252748</t>
+  </si>
+  <si>
     <t>$14.81</t>
   </si>
   <si>
+    <t>320018252760</t>
+  </si>
+  <si>
     <t>$17.98</t>
   </si>
   <si>
+    <t>320018252807</t>
+  </si>
+  <si>
     <t>$21.15</t>
   </si>
   <si>
+    <t>320018252829</t>
+  </si>
+  <si>
+    <t>320018252873</t>
+  </si>
+  <si>
     <t>$42.30</t>
   </si>
   <si>
+    <t>320018252910</t>
+  </si>
+  <si>
+    <t>320018252976</t>
+  </si>
+  <si>
     <t>$53.93</t>
   </si>
   <si>
+    <t>320018253012</t>
+  </si>
+  <si>
+    <t>$62.39</t>
+  </si>
+  <si>
+    <t>320018253240</t>
+  </si>
+  <si>
     <t>$111.04</t>
   </si>
   <si>
-    <t>$248.51</t>
-  </si>
-  <si>
-    <t>$85.66</t>
-  </si>
-  <si>
-    <t>$439.28</t>
-  </si>
-  <si>
-    <t>320018154233</t>
-  </si>
-  <si>
-    <t>320018154440</t>
-  </si>
-  <si>
-    <t>320018154472</t>
-  </si>
-  <si>
-    <t>320018154494</t>
-  </si>
-  <si>
-    <t>320018154531</t>
-  </si>
-  <si>
-    <t>320018154553</t>
-  </si>
-  <si>
-    <t>320018154586</t>
-  </si>
-  <si>
-    <t>320018154601</t>
-  </si>
-  <si>
-    <t>320018154634</t>
-  </si>
-  <si>
-    <t>320018154656</t>
-  </si>
-  <si>
-    <t>320018154704</t>
-  </si>
-  <si>
-    <t>320018154726</t>
-  </si>
-  <si>
-    <t>320018154760</t>
-  </si>
-  <si>
-    <t>320018154781</t>
-  </si>
-  <si>
-    <t>320018154818</t>
-  </si>
-  <si>
-    <t>320018154830</t>
-  </si>
-  <si>
-    <t>320018154873</t>
-  </si>
-  <si>
-    <t>320018154895</t>
-  </si>
-  <si>
-    <t>320018154921</t>
-  </si>
-  <si>
-    <t>320018154943</t>
-  </si>
-  <si>
-    <t>$195.48</t>
-  </si>
-  <si>
-    <t>320018154976</t>
-  </si>
-  <si>
-    <t>320018154987</t>
-  </si>
-  <si>
-    <t>320018154998</t>
-  </si>
-  <si>
-    <t>320018155001</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>320018155229</t>
-  </si>
-  <si>
-    <t>320018155230</t>
-  </si>
-  <si>
-    <t>320018155262</t>
-  </si>
-  <si>
-    <t>320018155284</t>
-  </si>
-  <si>
-    <t>320018155321</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>320018155343</t>
-  </si>
-  <si>
-    <t>320018155376</t>
-  </si>
-  <si>
-    <t>320018155398</t>
-  </si>
-  <si>
-    <t>320018155424</t>
-  </si>
-  <si>
-    <t>320018155446</t>
-  </si>
-  <si>
-    <t>320018155480</t>
-  </si>
-  <si>
-    <t>320018155505</t>
-  </si>
-  <si>
-    <t>320018155538</t>
-  </si>
-  <si>
-    <t>320018155550</t>
-  </si>
-  <si>
-    <t>320018155582</t>
-  </si>
-  <si>
-    <t>320018155608</t>
-  </si>
-  <si>
-    <t>320018155641</t>
-  </si>
-  <si>
-    <t>320018155663</t>
-  </si>
-  <si>
-    <t>320018155696</t>
-  </si>
-  <si>
-    <t>320018155711</t>
-  </si>
-  <si>
-    <t>320018155744</t>
-  </si>
-  <si>
-    <t>320018155755</t>
-  </si>
-  <si>
-    <t>320018155766</t>
-  </si>
-  <si>
-    <t>320018157254</t>
-  </si>
-  <si>
-    <t>320018157265</t>
-  </si>
-  <si>
-    <t>320018157298</t>
-  </si>
-  <si>
-    <t>320018157313</t>
-  </si>
-  <si>
-    <t>320018157357</t>
-  </si>
-  <si>
-    <t>320018157379</t>
-  </si>
-  <si>
-    <t>320018157405</t>
-  </si>
-  <si>
-    <t>320018157427</t>
-  </si>
-  <si>
-    <t>320018157450</t>
-  </si>
-  <si>
-    <t>320018157471</t>
-  </si>
-  <si>
-    <t>320018158971</t>
-  </si>
-  <si>
-    <t>320018158993</t>
-  </si>
-  <si>
-    <t>320018159029</t>
-  </si>
-  <si>
-    <t>320018159040</t>
-  </si>
-  <si>
-    <t>320018159073</t>
-  </si>
-  <si>
-    <t>320018160559</t>
-  </si>
-  <si>
-    <t>320018160592</t>
-  </si>
-  <si>
-    <t>320018160618</t>
-  </si>
-  <si>
-    <t>320018160640</t>
-  </si>
-  <si>
-    <t>320018160695</t>
-  </si>
-  <si>
-    <t>320018160700</t>
-  </si>
-  <si>
-    <t>320018160732</t>
-  </si>
-  <si>
-    <t>320018160754</t>
-  </si>
-  <si>
-    <t>320018160813</t>
-  </si>
-  <si>
-    <t>320018160835</t>
-  </si>
-  <si>
-    <t>320018160868</t>
-  </si>
-  <si>
-    <t>320018160880</t>
-  </si>
-  <si>
-    <t>320018160916</t>
-  </si>
-  <si>
-    <t>320018160938</t>
-  </si>
-  <si>
-    <t>320018160971</t>
-  </si>
-  <si>
-    <t>320018160993</t>
-  </si>
-  <si>
-    <t>320018161029</t>
-  </si>
-  <si>
-    <t>320018161040</t>
-  </si>
-  <si>
-    <t>320018161073</t>
-  </si>
-  <si>
-    <t>320018161095</t>
-  </si>
-  <si>
-    <t>320018161132</t>
-  </si>
-  <si>
-    <t>320018161154</t>
-  </si>
-  <si>
-    <t>320018161187</t>
-  </si>
-  <si>
-    <t>320018161202</t>
-  </si>
-  <si>
-    <t>320018161235</t>
-  </si>
-  <si>
-    <t>320018164175</t>
-  </si>
-  <si>
-    <t>320018164186</t>
-  </si>
-  <si>
-    <t>320018164212</t>
-  </si>
-  <si>
-    <t>320018164234</t>
-  </si>
-  <si>
-    <t>320018164278</t>
-  </si>
-  <si>
-    <t>320018164337</t>
-  </si>
-  <si>
-    <t>320018164360</t>
-  </si>
-  <si>
-    <t>320018164381</t>
-  </si>
-  <si>
-    <t>320018164418</t>
-  </si>
-  <si>
-    <t>320018164451</t>
-  </si>
-  <si>
-    <t>320018164495</t>
-  </si>
-  <si>
-    <t>320018164510</t>
-  </si>
-  <si>
-    <t>320018164543</t>
-  </si>
-  <si>
-    <t>320018164565</t>
-  </si>
-  <si>
-    <t>320018164598</t>
-  </si>
-  <si>
-    <t>320018164613</t>
-  </si>
-  <si>
-    <t>320018164657</t>
-  </si>
-  <si>
-    <t>320018164679</t>
-  </si>
-  <si>
-    <t>320018164705</t>
-  </si>
-  <si>
-    <t>320018164727</t>
-  </si>
-  <si>
-    <t>320018164750</t>
-  </si>
-  <si>
-    <t>320018164760</t>
-  </si>
-  <si>
-    <t>320018164771</t>
-  </si>
-  <si>
-    <t>320018164782</t>
-  </si>
-  <si>
-    <t>320018164863</t>
-  </si>
-  <si>
-    <t>320018164874</t>
-  </si>
-  <si>
-    <t>320018164922</t>
-  </si>
-  <si>
-    <t>320018164944</t>
-  </si>
-  <si>
-    <t>320018164988</t>
-  </si>
-  <si>
-    <t>320018165002</t>
-  </si>
-  <si>
-    <t>320018165035</t>
-  </si>
-  <si>
-    <t>320018165046</t>
-  </si>
-  <si>
-    <t>320018165080</t>
-  </si>
-  <si>
-    <t>320018165127</t>
-  </si>
-  <si>
-    <t>320018165138</t>
-  </si>
-  <si>
-    <t>320018165160</t>
-  </si>
-  <si>
-    <t>320018165182</t>
-  </si>
-  <si>
-    <t>320018165220</t>
-  </si>
-  <si>
-    <t>320018165241</t>
-  </si>
-  <si>
-    <t>320018165274</t>
-  </si>
-  <si>
-    <t>320018165296</t>
-  </si>
-  <si>
-    <t>320018165322</t>
-  </si>
-  <si>
-    <t>320018165344</t>
-  </si>
-  <si>
-    <t>320018165388</t>
-  </si>
-  <si>
-    <t>320018165403</t>
-  </si>
-  <si>
-    <t>320018165436</t>
-  </si>
-  <si>
-    <t>320018165458</t>
-  </si>
-  <si>
-    <t>320018165480</t>
-  </si>
-  <si>
-    <t>320018165506</t>
-  </si>
-  <si>
-    <t>320018165540</t>
-  </si>
-  <si>
-    <t>320018165561</t>
-  </si>
-  <si>
-    <t>320018165594</t>
-  </si>
-  <si>
-    <t>320018165610</t>
-  </si>
-  <si>
-    <t>320018165642</t>
-  </si>
-  <si>
-    <t>$278.12</t>
-  </si>
-  <si>
-    <t>320018165653</t>
-  </si>
-  <si>
-    <t>320018165664</t>
-  </si>
-  <si>
-    <t>320018165697</t>
-  </si>
-  <si>
-    <t>320018165712</t>
-  </si>
-  <si>
-    <t>320018165756</t>
-  </si>
-  <si>
-    <t>320018167016</t>
-  </si>
-  <si>
-    <t>320018175850</t>
-  </si>
-  <si>
-    <t>320018175860</t>
-  </si>
-  <si>
-    <t>320018175893</t>
-  </si>
-  <si>
-    <t>320018175919</t>
-  </si>
-  <si>
-    <t>320018175952</t>
-  </si>
-  <si>
-    <t>320018175996</t>
-  </si>
-  <si>
-    <t>320018176010</t>
-  </si>
-  <si>
-    <t>320018176043</t>
-  </si>
-  <si>
-    <t>320018176065</t>
-  </si>
-  <si>
-    <t>320018176113</t>
-  </si>
-  <si>
-    <t>320018176135</t>
-  </si>
-  <si>
-    <t>320018176179</t>
-  </si>
-  <si>
-    <t>320018176190</t>
-  </si>
-  <si>
-    <t>320018176227</t>
-  </si>
-  <si>
-    <t>320018176249</t>
-  </si>
-  <si>
-    <t>320018176271</t>
-  </si>
-  <si>
-    <t>320018176293</t>
-  </si>
-  <si>
-    <t>320018176341</t>
-  </si>
-  <si>
-    <t>320018176374</t>
-  </si>
-  <si>
-    <t>320018176400</t>
-  </si>
-  <si>
-    <t>320018176422</t>
-  </si>
-  <si>
-    <t>$202.67</t>
-  </si>
-  <si>
-    <t>320018176455</t>
-  </si>
-  <si>
-    <t>$61.34</t>
-  </si>
-  <si>
-    <t>320018176499</t>
-  </si>
-  <si>
-    <t>$69.80</t>
-  </si>
-  <si>
-    <t>320018176503</t>
-  </si>
-  <si>
-    <t>$74.03</t>
-  </si>
-  <si>
-    <t>320018176536</t>
-  </si>
-  <si>
-    <t>320018176558</t>
-  </si>
-  <si>
-    <t>$98.35</t>
-  </si>
-  <si>
-    <t>320018176591</t>
-  </si>
-  <si>
-    <t>$273.38</t>
-  </si>
-  <si>
-    <t>320018176617</t>
-  </si>
-  <si>
-    <t>320018176694</t>
-  </si>
-  <si>
-    <t>320018176720</t>
-  </si>
-  <si>
-    <t>320018176742</t>
-  </si>
-  <si>
-    <t>320018176786</t>
-  </si>
-  <si>
-    <t>320018176801</t>
-  </si>
-  <si>
-    <t>320018176834</t>
-  </si>
-  <si>
-    <t>320018177050</t>
-  </si>
-  <si>
-    <t>320018177061</t>
-  </si>
-  <si>
-    <t>320018177094</t>
-  </si>
-  <si>
-    <t>320018177278</t>
-  </si>
-  <si>
-    <t>320018177315</t>
-  </si>
-  <si>
-    <t>320018177337</t>
-  </si>
-  <si>
-    <t>320018177360</t>
-  </si>
-  <si>
-    <t>320018177381</t>
-  </si>
-  <si>
-    <t>320018177418</t>
-  </si>
-  <si>
-    <t>320018177430</t>
-  </si>
-  <si>
-    <t>320018177473</t>
-  </si>
-  <si>
-    <t>320018177500</t>
-  </si>
-  <si>
-    <t>320018177532</t>
-  </si>
-  <si>
-    <t>320018177554</t>
-  </si>
-  <si>
-    <t>320018177587</t>
-  </si>
-  <si>
-    <t>320018177602</t>
-  </si>
-  <si>
-    <t>320018177679</t>
-  </si>
-  <si>
-    <t>320018177690</t>
-  </si>
-  <si>
-    <t>320018179189</t>
-  </si>
-  <si>
-    <t>320018179190</t>
-  </si>
-  <si>
-    <t>320018179226</t>
-  </si>
-  <si>
-    <t>320018179454</t>
-  </si>
-  <si>
-    <t>320018179498</t>
-  </si>
-  <si>
-    <t>320018179513</t>
-  </si>
-  <si>
-    <t>320018179546</t>
-  </si>
-  <si>
-    <t>320018179568</t>
-  </si>
-  <si>
-    <t>320018179590</t>
-  </si>
-  <si>
-    <t>320018179616</t>
-  </si>
-  <si>
-    <t>320018179650</t>
-  </si>
-  <si>
-    <t>320018179671</t>
-  </si>
-  <si>
-    <t>320018179708</t>
-  </si>
-  <si>
-    <t>320018179720</t>
-  </si>
-  <si>
-    <t>320018179752</t>
-  </si>
-  <si>
-    <t>320018179774</t>
-  </si>
-  <si>
-    <t>320018179811</t>
-  </si>
-  <si>
-    <t>320018179833</t>
-  </si>
-  <si>
-    <t>320018179866</t>
-  </si>
-  <si>
-    <t>320018179888</t>
-  </si>
-  <si>
-    <t>320018179914</t>
-  </si>
-  <si>
-    <t>320018179925</t>
-  </si>
-  <si>
-    <t>320018179947</t>
-  </si>
-  <si>
-    <t>320018179958</t>
-  </si>
-  <si>
-    <t>320018179980</t>
-  </si>
-  <si>
-    <t>320018179991</t>
-  </si>
-  <si>
-    <t>320018180002</t>
-  </si>
-  <si>
-    <t>320018180035</t>
-  </si>
-  <si>
-    <t>320018180057</t>
-  </si>
-  <si>
-    <t>320018180090</t>
-  </si>
-  <si>
-    <t>320018180127</t>
-  </si>
-  <si>
-    <t>320018180150</t>
-  </si>
-  <si>
-    <t>320018180171</t>
-  </si>
-  <si>
-    <t>320018180208</t>
-  </si>
-  <si>
-    <t>320018180220</t>
-  </si>
-  <si>
-    <t>320018180263</t>
-  </si>
-  <si>
-    <t>320018180285</t>
-  </si>
-  <si>
-    <t>320018180311</t>
-  </si>
-  <si>
-    <t>320018180333</t>
-  </si>
-  <si>
-    <t>320018180366</t>
-  </si>
-  <si>
-    <t>320018180388</t>
-  </si>
-  <si>
-    <t>320018180425</t>
-  </si>
-  <si>
-    <t>320018180447</t>
-  </si>
-  <si>
-    <t>320018180480</t>
-  </si>
-  <si>
-    <t>320018180506</t>
-  </si>
-  <si>
-    <t>320018180539</t>
-  </si>
-  <si>
-    <t>320018180540</t>
-  </si>
-  <si>
-    <t>320018180550</t>
-  </si>
-  <si>
-    <t>320018180561</t>
-  </si>
-  <si>
-    <t>320018191411</t>
-  </si>
-  <si>
-    <t>320018191422</t>
-  </si>
-  <si>
-    <t>320018191455</t>
-  </si>
-  <si>
-    <t>320018191477</t>
-  </si>
-  <si>
-    <t>320018191514</t>
-  </si>
-  <si>
-    <t>320018191536</t>
-  </si>
-  <si>
-    <t>320018191569</t>
-  </si>
-  <si>
-    <t>320018191580</t>
-  </si>
-  <si>
-    <t>320018191617</t>
-  </si>
-  <si>
-    <t>320018191639</t>
-  </si>
-  <si>
-    <t>320018191672</t>
-  </si>
-  <si>
-    <t>320018191694</t>
-  </si>
-  <si>
-    <t>320018191720</t>
-  </si>
-  <si>
-    <t>320018191742</t>
-  </si>
-  <si>
-    <t>320018191775</t>
-  </si>
-  <si>
-    <t>320018191797</t>
-  </si>
-  <si>
-    <t>320018191834</t>
-  </si>
-  <si>
-    <t>320018191856</t>
-  </si>
-  <si>
-    <t>320018191889</t>
-  </si>
-  <si>
-    <t>320018191904</t>
-  </si>
-  <si>
-    <t>320018191948</t>
-  </si>
-  <si>
-    <t>320018191959</t>
-  </si>
-  <si>
-    <t>320018191981</t>
-  </si>
-  <si>
-    <t>320018192006</t>
-  </si>
-  <si>
-    <t>320018192040</t>
-  </si>
-  <si>
-    <t>320018192061</t>
-  </si>
-  <si>
-    <t>320018192094</t>
-  </si>
-  <si>
-    <t>320018192131</t>
-  </si>
-  <si>
-    <t>320018192164</t>
-  </si>
-  <si>
-    <t>320018192186</t>
-  </si>
-  <si>
-    <t>320018192223</t>
-  </si>
-  <si>
-    <t>320018192245</t>
-  </si>
-  <si>
-    <t>320018192278</t>
-  </si>
-  <si>
-    <t>320018192290</t>
-  </si>
-  <si>
-    <t>320018192326</t>
-  </si>
-  <si>
-    <t>320018192348</t>
-  </si>
-  <si>
-    <t>320018192381</t>
-  </si>
-  <si>
-    <t>320018192407</t>
-  </si>
-  <si>
-    <t>320018192430</t>
-  </si>
-  <si>
-    <t>320018192451</t>
-  </si>
-  <si>
-    <t>320018192484</t>
-  </si>
-  <si>
-    <t>320018192495</t>
-  </si>
-  <si>
-    <t>320018192500</t>
-  </si>
-  <si>
-    <t>320018192510</t>
-  </si>
-  <si>
-    <t>320018207701</t>
-  </si>
-  <si>
-    <t>320018207712</t>
-  </si>
-  <si>
-    <t>320018207745</t>
-  </si>
-  <si>
-    <t>320018207804</t>
-  </si>
-  <si>
-    <t>320018207815</t>
-  </si>
-  <si>
-    <t>320018207848</t>
-  </si>
-  <si>
-    <t>320018207860</t>
-  </si>
-  <si>
-    <t>320018207907</t>
-  </si>
-  <si>
-    <t>320018207929</t>
-  </si>
-  <si>
-    <t>320018207951</t>
-  </si>
-  <si>
-    <t>320018207973</t>
-  </si>
-  <si>
-    <t>320018208009</t>
-  </si>
-  <si>
-    <t>320018208020</t>
-  </si>
-  <si>
-    <t>320018208064</t>
-  </si>
-  <si>
-    <t>320018208086</t>
-  </si>
-  <si>
-    <t>320018208097</t>
-  </si>
-  <si>
-    <t>320018208101</t>
-  </si>
-  <si>
-    <t>320018208134</t>
-  </si>
-  <si>
-    <t>320018208156</t>
-  </si>
-  <si>
-    <t>320018208190</t>
-  </si>
-  <si>
-    <t>320018208215</t>
-  </si>
-  <si>
-    <t>320018208248</t>
-  </si>
-  <si>
-    <t>320018208260</t>
-  </si>
-  <si>
-    <t>320018208292</t>
-  </si>
-  <si>
-    <t>320018208318</t>
-  </si>
-  <si>
-    <t>320018208351</t>
-  </si>
-  <si>
-    <t>320018208373</t>
-  </si>
-  <si>
-    <t>320018208400</t>
-  </si>
-  <si>
-    <t>320018208421</t>
-  </si>
-  <si>
-    <t>320018208454</t>
-  </si>
-  <si>
-    <t>320018208476</t>
-  </si>
-  <si>
-    <t>320018208513</t>
-  </si>
-  <si>
-    <t>320018208535</t>
-  </si>
-  <si>
-    <t>320018208568</t>
-  </si>
-  <si>
-    <t>320018208580</t>
-  </si>
-  <si>
-    <t>320018208616</t>
-  </si>
-  <si>
-    <t>320018208627</t>
-  </si>
-  <si>
-    <t>320018208638</t>
-  </si>
-  <si>
-    <t>320018208649</t>
+    <t>320018253284</t>
+  </si>
+  <si>
+    <t>320018253354</t>
+  </si>
+  <si>
+    <t>320018253387</t>
+  </si>
+  <si>
+    <t>320018253413</t>
+  </si>
+  <si>
+    <t>320018253424</t>
   </si>
 </sst>
 </file>
@@ -1306,29 +364,33 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="8" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="8" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="2" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -1381,7 +443,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1395,10 +457,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1556,7 +618,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1565,13 +627,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1581,7 +643,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1590,7 +652,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1599,7 +661,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1609,12 +671,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1645,7 +707,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1664,7 +726,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1676,87 +738,87 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="7.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="1" width="14.0" collapsed="true"/>
-    <col min="18" max="18" style="2" width="9.140625" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="35.42578125" collapsed="true"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14" style="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="9.140625" style="2" collapsed="1"/>
+    <col min="19" max="19" width="35.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="6" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1793,7 +855,7 @@
       <c r="L2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="9">
         <v>19.04</v>
       </c>
       <c r="N2" s="3" t="s">
@@ -1803,13 +865,13 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>387</v>
+        <v>59</v>
       </c>
       <c r="Q2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="R2" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="S2" s="3"/>
     </row>
@@ -1846,7 +908,7 @@
       <c r="L3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="9">
         <v>27.5</v>
       </c>
       <c r="N3" s="3" t="s">
@@ -1856,13 +918,13 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>388</v>
+        <v>61</v>
       </c>
       <c r="Q3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="R3" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="S3" s="3"/>
     </row>
@@ -1899,7 +961,7 @@
       <c r="L4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="9">
         <v>31.73</v>
       </c>
       <c r="N4" s="3" t="s">
@@ -1909,13 +971,13 @@
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>389</v>
+        <v>63</v>
       </c>
       <c r="Q4" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="R4" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="S4" s="3"/>
     </row>
@@ -1952,7 +1014,7 @@
       <c r="L5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="9">
         <v>43.36</v>
       </c>
       <c r="N5" s="3" t="s">
@@ -1962,13 +1024,13 @@
         <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>390</v>
+        <v>65</v>
       </c>
       <c r="Q5" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="R5" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="S5" s="3"/>
     </row>
@@ -2005,7 +1067,7 @@
       <c r="L6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="9">
         <v>56.05</v>
       </c>
       <c r="N6" s="3" t="s">
@@ -2015,13 +1077,13 @@
         <v>2</v>
       </c>
       <c r="P6" t="s">
-        <v>391</v>
+        <v>67</v>
       </c>
       <c r="Q6" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="R6" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="S6" s="3"/>
     </row>
@@ -2058,8 +1120,8 @@
       <c r="L7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="6">
-        <v>192.08</v>
+      <c r="M7" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>37</v>
@@ -2068,13 +1130,13 @@
         <v>3</v>
       </c>
       <c r="P7" t="s">
-        <v>392</v>
+        <v>68</v>
       </c>
       <c r="Q7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="R7" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="S7" s="3"/>
     </row>
@@ -2111,7 +1173,7 @@
       <c r="L8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="9">
         <v>19.04</v>
       </c>
       <c r="N8" s="3" t="s">
@@ -2121,13 +1183,13 @@
         <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>393</v>
+        <v>69</v>
       </c>
       <c r="Q8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="R8" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="S8" s="3"/>
     </row>
@@ -2164,7 +1226,7 @@
       <c r="L9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="9">
         <v>23.27</v>
       </c>
       <c r="N9" s="3" t="s">
@@ -2174,13 +1236,13 @@
         <v>3</v>
       </c>
       <c r="P9" t="s">
-        <v>394</v>
+        <v>71</v>
       </c>
       <c r="Q9" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="R9" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="S9" s="3"/>
     </row>
@@ -2217,7 +1279,7 @@
       <c r="L10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="9">
         <v>27.5</v>
       </c>
       <c r="N10" s="3" t="s">
@@ -2227,13 +1289,13 @@
         <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>395</v>
+        <v>72</v>
       </c>
       <c r="Q10" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="R10" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="S10" s="3"/>
     </row>
@@ -2270,7 +1332,7 @@
       <c r="L11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="9">
         <v>40.19</v>
       </c>
       <c r="N11" s="3" t="s">
@@ -2280,13 +1342,13 @@
         <v>4</v>
       </c>
       <c r="P11" t="s">
-        <v>396</v>
+        <v>74</v>
       </c>
       <c r="Q11" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="R11" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="S11" s="3"/>
     </row>
@@ -2323,7 +1385,7 @@
       <c r="L12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="9">
         <v>52.88</v>
       </c>
       <c r="N12" s="3" t="s">
@@ -2333,13 +1395,13 @@
         <v>2</v>
       </c>
       <c r="P12" t="s">
-        <v>397</v>
+        <v>76</v>
       </c>
       <c r="Q12" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="R12" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="S12" s="3"/>
     </row>
@@ -2376,7 +1438,7 @@
       <c r="L13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="9">
         <v>14.81</v>
       </c>
       <c r="N13" s="3" t="s">
@@ -2386,13 +1448,13 @@
         <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>398</v>
+        <v>78</v>
       </c>
       <c r="Q13" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="R13" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="S13" s="3"/>
     </row>
@@ -2429,7 +1491,7 @@
       <c r="L14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="9">
         <v>17.98</v>
       </c>
       <c r="N14" s="3" t="s">
@@ -2439,13 +1501,13 @@
         <v>2</v>
       </c>
       <c r="P14" t="s">
-        <v>399</v>
+        <v>80</v>
       </c>
       <c r="Q14" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="R14" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="S14" s="3"/>
     </row>
@@ -2482,7 +1544,7 @@
       <c r="L15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="9">
         <v>21.15</v>
       </c>
       <c r="N15" s="3" t="s">
@@ -2492,13 +1554,13 @@
         <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>400</v>
+        <v>82</v>
       </c>
       <c r="Q15" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="R15" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="S15" s="3"/>
     </row>
@@ -2535,7 +1597,7 @@
       <c r="L16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="9">
         <v>31.73</v>
       </c>
       <c r="N16" s="3" t="s">
@@ -2545,13 +1607,13 @@
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>401</v>
+        <v>83</v>
       </c>
       <c r="Q16" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="R16" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="S16" s="3"/>
     </row>
@@ -2588,7 +1650,7 @@
       <c r="L17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="9">
         <v>42.3</v>
       </c>
       <c r="N17" s="3" t="s">
@@ -2598,13 +1660,13 @@
         <v>4</v>
       </c>
       <c r="P17" t="s">
-        <v>402</v>
+        <v>85</v>
       </c>
       <c r="Q17" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="R17" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="S17" s="3"/>
     </row>
@@ -2641,7 +1703,7 @@
       <c r="L18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="9">
         <v>43.36</v>
       </c>
       <c r="N18" s="5" t="s">
@@ -2651,13 +1713,13 @@
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>403</v>
+        <v>86</v>
       </c>
       <c r="Q18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R18" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="S18" s="3"/>
     </row>
@@ -2694,7 +1756,7 @@
       <c r="L19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="9">
         <v>53.93</v>
       </c>
       <c r="N19" s="5" t="s">
@@ -2704,13 +1766,13 @@
         <v>3</v>
       </c>
       <c r="P19" t="s">
-        <v>404</v>
+        <v>88</v>
       </c>
       <c r="Q19" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="R19" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="S19" s="3"/>
     </row>
@@ -2747,7 +1809,7 @@
       <c r="L20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="9">
         <v>62.39</v>
       </c>
       <c r="N20" s="5" t="s">
@@ -2757,13 +1819,13 @@
         <v>2</v>
       </c>
       <c r="P20" t="s">
-        <v>405</v>
+        <v>90</v>
       </c>
       <c r="Q20" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="R20" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="S20" s="3"/>
     </row>
@@ -2800,7 +1862,7 @@
       <c r="L21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="9">
         <v>111.04</v>
       </c>
       <c r="N21" s="5" t="s">
@@ -2810,13 +1872,13 @@
         <v>3</v>
       </c>
       <c r="P21" t="s">
-        <v>406</v>
+        <v>92</v>
       </c>
       <c r="Q21" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="R21" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="S21" s="3"/>
     </row>
@@ -2853,8 +1915,8 @@
       <c r="L22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M22" s="7">
-        <v>136.41999999999999</v>
+      <c r="M22" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>42</v>
@@ -2863,13 +1925,13 @@
         <v>2</v>
       </c>
       <c r="P22" t="s">
-        <v>407</v>
+        <v>93</v>
       </c>
       <c r="Q22" t="s">
-        <v>242</v>
+        <v>53</v>
       </c>
       <c r="R22" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="S22" s="3"/>
     </row>
@@ -2906,8 +1968,8 @@
       <c r="L23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M23" s="6">
-        <v>439.28</v>
+      <c r="M23" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>42</v>
@@ -2916,13 +1978,13 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>408</v>
+        <v>94</v>
       </c>
       <c r="Q23" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="R23" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="S23" s="3"/>
     </row>
@@ -2959,8 +2021,8 @@
       <c r="L24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M24" s="6">
-        <v>282.88</v>
+      <c r="M24" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>43</v>
@@ -2969,13 +2031,13 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>409</v>
+        <v>95</v>
       </c>
       <c r="Q24" t="s">
-        <v>214</v>
+        <v>55</v>
       </c>
       <c r="R24" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="S24" s="3"/>
     </row>
@@ -3012,8 +2074,8 @@
       <c r="L25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M25" s="6">
-        <v>52.88</v>
+      <c r="M25" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="N25" s="3" t="s">
         <v>50</v>
@@ -3022,13 +2084,13 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>410</v>
+        <v>96</v>
       </c>
       <c r="Q25" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="R25" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="S25" s="3"/>
     </row>
@@ -3065,8 +2127,8 @@
       <c r="L26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M26" s="6">
-        <v>253.27</v>
+      <c r="M26" s="9">
+        <v>130657.61</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>51</v>
@@ -3081,35 +2143,35 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="R2:R7">
-    <cfRule dxfId="6" operator="equal" priority="7" type="cellIs">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R24 R27:R1048576">
-    <cfRule dxfId="5" operator="equal" priority="5" type="cellIs">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule dxfId="4" operator="equal" priority="6" type="cellIs">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R25">
-    <cfRule dxfId="3" operator="equal" priority="3" type="cellIs">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule dxfId="2" operator="equal" priority="4" type="cellIs">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R26">
-    <cfRule dxfId="1" operator="equal" priority="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule dxfId="0" operator="equal" priority="2" type="cellIs">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/FedExApplication/bin/TestFiles/FedExShipments.xlsx
+++ b/FedExApplication/bin/TestFiles/FedExShipments.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="282">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -175,136 +175,691 @@
     <t>$231.08</t>
   </si>
   <si>
+    <t>320018261878</t>
+  </si>
+  <si>
+    <t>320018261889</t>
+  </si>
+  <si>
+    <t>320018261915</t>
+  </si>
+  <si>
+    <t>320018261937</t>
+  </si>
+  <si>
+    <t>320018261970</t>
+  </si>
+  <si>
+    <t>320018261992</t>
+  </si>
+  <si>
+    <t>320018262028</t>
+  </si>
+  <si>
+    <t>320018262040</t>
+  </si>
+  <si>
+    <t>320018262072</t>
+  </si>
+  <si>
+    <t>320018262094</t>
+  </si>
+  <si>
+    <t>320018262131</t>
+  </si>
+  <si>
+    <t>320018262153</t>
+  </si>
+  <si>
+    <t>320018262186</t>
+  </si>
+  <si>
+    <t>320018262201</t>
+  </si>
+  <si>
+    <t>320018262234</t>
+  </si>
+  <si>
+    <t>320018262256</t>
+  </si>
+  <si>
+    <t>320018262290</t>
+  </si>
+  <si>
+    <t>320018262315</t>
+  </si>
+  <si>
+    <t>320018262348</t>
+  </si>
+  <si>
+    <t>320018262360</t>
+  </si>
+  <si>
+    <t>320018262392</t>
+  </si>
+  <si>
+    <t>320018262407</t>
+  </si>
+  <si>
+    <t>320018262418</t>
+  </si>
+  <si>
+    <t>320018262429</t>
+  </si>
+  <si>
+    <t>$19.04</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>320018274889</t>
+  </si>
+  <si>
+    <t>$27.50</t>
+  </si>
+  <si>
+    <t>320018274890</t>
+  </si>
+  <si>
+    <t>$31.73</t>
+  </si>
+  <si>
+    <t>320018274926</t>
+  </si>
+  <si>
+    <t>$43.36</t>
+  </si>
+  <si>
+    <t>320018274959</t>
+  </si>
+  <si>
+    <t>$56.05</t>
+  </si>
+  <si>
+    <t>320018275197</t>
+  </si>
+  <si>
+    <t>320018275212</t>
+  </si>
+  <si>
+    <t>320018275245</t>
+  </si>
+  <si>
+    <t>$23.27</t>
+  </si>
+  <si>
+    <t>320018275267</t>
+  </si>
+  <si>
+    <t>320018275290</t>
+  </si>
+  <si>
+    <t>$40.19</t>
+  </si>
+  <si>
+    <t>320018275315</t>
+  </si>
+  <si>
+    <t>$52.88</t>
+  </si>
+  <si>
+    <t>320018275360</t>
+  </si>
+  <si>
+    <t>$14.81</t>
+  </si>
+  <si>
+    <t>320018275381</t>
+  </si>
+  <si>
+    <t>$17.98</t>
+  </si>
+  <si>
+    <t>320018275418</t>
+  </si>
+  <si>
+    <t>$21.15</t>
+  </si>
+  <si>
+    <t>320018275430</t>
+  </si>
+  <si>
+    <t>320018275473</t>
+  </si>
+  <si>
+    <t>$42.30</t>
+  </si>
+  <si>
+    <t>320018275495</t>
+  </si>
+  <si>
+    <t>320018275543</t>
+  </si>
+  <si>
+    <t>$53.93</t>
+  </si>
+  <si>
+    <t>320018275565</t>
+  </si>
+  <si>
+    <t>$62.39</t>
+  </si>
+  <si>
+    <t>320018275598</t>
+  </si>
+  <si>
+    <t>$111.04</t>
+  </si>
+  <si>
+    <t>320018275613</t>
+  </si>
+  <si>
+    <t>$223.37</t>
+  </si>
+  <si>
+    <t>320018275657</t>
+  </si>
+  <si>
+    <t>$436.98</t>
+  </si>
+  <si>
+    <t>320018275668</t>
+  </si>
+  <si>
+    <t>$278.12</t>
+  </si>
+  <si>
+    <t>320018275679</t>
+  </si>
+  <si>
+    <t>320018275680</t>
+  </si>
+  <si>
+    <t>320018278840</t>
+  </si>
+  <si>
+    <t>320018278851</t>
+  </si>
+  <si>
+    <t>320018278884</t>
+  </si>
+  <si>
+    <t>320018278900</t>
+  </si>
+  <si>
+    <t>320018278954</t>
+  </si>
+  <si>
+    <t>320018278976</t>
+  </si>
+  <si>
+    <t>320018279001</t>
+  </si>
+  <si>
+    <t>320018279023</t>
+  </si>
+  <si>
+    <t>320018279056</t>
+  </si>
+  <si>
+    <t>320018279078</t>
+  </si>
+  <si>
+    <t>320018279115</t>
+  </si>
+  <si>
+    <t>320018279137</t>
+  </si>
+  <si>
+    <t>320018279160</t>
+  </si>
+  <si>
+    <t>320018279192</t>
+  </si>
+  <si>
+    <t>320018279229</t>
+  </si>
+  <si>
+    <t>320018279240</t>
+  </si>
+  <si>
+    <t>320018279284</t>
+  </si>
+  <si>
+    <t>320018279300</t>
+  </si>
+  <si>
+    <t>320018279332</t>
+  </si>
+  <si>
+    <t>320018279354</t>
+  </si>
+  <si>
+    <t>320018279387</t>
+  </si>
+  <si>
+    <t>320018279398</t>
+  </si>
+  <si>
+    <t>$248.51</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>320018279402</t>
+  </si>
+  <si>
+    <t>320018279413</t>
+  </si>
+  <si>
+    <t>320018289344</t>
+  </si>
+  <si>
+    <t>320018289355</t>
+  </si>
+  <si>
+    <t>320018289388</t>
+  </si>
+  <si>
+    <t>320018289403</t>
+  </si>
+  <si>
+    <t>320018289447</t>
+  </si>
+  <si>
+    <t>320018289469</t>
+  </si>
+  <si>
+    <t>320018289491</t>
+  </si>
+  <si>
+    <t>320018289517</t>
+  </si>
+  <si>
+    <t>320018289540</t>
+  </si>
+  <si>
+    <t>320018289561</t>
+  </si>
+  <si>
+    <t>320018289609</t>
+  </si>
+  <si>
+    <t>320018289620</t>
+  </si>
+  <si>
+    <t>320018289653</t>
+  </si>
+  <si>
+    <t>320018289675</t>
+  </si>
+  <si>
+    <t>320018289701</t>
+  </si>
+  <si>
+    <t>320018289723</t>
+  </si>
+  <si>
+    <t>320018289767</t>
+  </si>
+  <si>
+    <t>320018289789</t>
+  </si>
+  <si>
+    <t>320018289815</t>
+  </si>
+  <si>
+    <t>320018289837</t>
+  </si>
+  <si>
+    <t>320018289860</t>
+  </si>
+  <si>
+    <t>320018289870</t>
+  </si>
+  <si>
+    <t>320018289881</t>
+  </si>
+  <si>
+    <t>320018289892</t>
+  </si>
+  <si>
+    <t>320018309442</t>
+  </si>
+  <si>
+    <t>320018309453</t>
+  </si>
+  <si>
+    <t>320018309486</t>
+  </si>
+  <si>
+    <t>320018309501</t>
+  </si>
+  <si>
+    <t>320018309545</t>
+  </si>
+  <si>
+    <t>320018309567</t>
+  </si>
+  <si>
+    <t>320018309590</t>
+  </si>
+  <si>
+    <t>320018309615</t>
+  </si>
+  <si>
+    <t>320018309648</t>
+  </si>
+  <si>
+    <t>320018309660</t>
+  </si>
+  <si>
+    <t>320018309707</t>
+  </si>
+  <si>
+    <t>320018309729</t>
+  </si>
+  <si>
+    <t>320018309751</t>
+  </si>
+  <si>
+    <t>320018309773</t>
+  </si>
+  <si>
+    <t>320018309800</t>
+  </si>
+  <si>
+    <t>320018309821</t>
+  </si>
+  <si>
+    <t>320018321535</t>
+  </si>
+  <si>
+    <t>320018321546</t>
+  </si>
+  <si>
+    <t>320018321579</t>
+  </si>
+  <si>
+    <t>320018321590</t>
+  </si>
+  <si>
+    <t>320018321638</t>
+  </si>
+  <si>
+    <t>320018321650</t>
+  </si>
+  <si>
+    <t>320018321682</t>
+  </si>
+  <si>
+    <t>320018321708</t>
+  </si>
+  <si>
+    <t>320018321730</t>
+  </si>
+  <si>
+    <t>320018321752</t>
+  </si>
+  <si>
+    <t>320018321796</t>
+  </si>
+  <si>
+    <t>320018321811</t>
+  </si>
+  <si>
+    <t>320018321844</t>
+  </si>
+  <si>
+    <t>320018321866</t>
+  </si>
+  <si>
+    <t>320018321899</t>
+  </si>
+  <si>
+    <t>320018321914</t>
+  </si>
+  <si>
+    <t>320018321958</t>
+  </si>
+  <si>
+    <t>320018321970</t>
+  </si>
+  <si>
+    <t>320018322005</t>
+  </si>
+  <si>
+    <t>320018322027</t>
+  </si>
+  <si>
     <t>$276.24</t>
   </si>
   <si>
+    <t>320018322050</t>
+  </si>
+  <si>
     <t>$489.85</t>
   </si>
   <si>
+    <t>320018322060</t>
+  </si>
+  <si>
     <t>$354.26</t>
   </si>
   <si>
+    <t>320018322071</t>
+  </si>
+  <si>
     <t>$132.19</t>
   </si>
   <si>
-    <t>$19.04</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>320018252380</t>
-  </si>
-  <si>
-    <t>$27.50</t>
-  </si>
-  <si>
-    <t>320018252391</t>
-  </si>
-  <si>
-    <t>$31.73</t>
-  </si>
-  <si>
-    <t>320018252428</t>
-  </si>
-  <si>
-    <t>$43.36</t>
-  </si>
-  <si>
-    <t>320018252461</t>
-  </si>
-  <si>
-    <t>$56.05</t>
-  </si>
-  <si>
-    <t>320018252520</t>
-  </si>
-  <si>
-    <t>320018252564</t>
-  </si>
-  <si>
-    <t>320018252612</t>
-  </si>
-  <si>
-    <t>$23.27</t>
-  </si>
-  <si>
-    <t>320018252656</t>
-  </si>
-  <si>
-    <t>320018252689</t>
-  </si>
-  <si>
-    <t>$40.19</t>
-  </si>
-  <si>
-    <t>320018252704</t>
-  </si>
-  <si>
-    <t>$52.88</t>
-  </si>
-  <si>
-    <t>320018252748</t>
-  </si>
-  <si>
-    <t>$14.81</t>
-  </si>
-  <si>
-    <t>320018252760</t>
-  </si>
-  <si>
-    <t>$17.98</t>
-  </si>
-  <si>
-    <t>320018252807</t>
-  </si>
-  <si>
-    <t>$21.15</t>
-  </si>
-  <si>
-    <t>320018252829</t>
-  </si>
-  <si>
-    <t>320018252873</t>
-  </si>
-  <si>
-    <t>$42.30</t>
-  </si>
-  <si>
-    <t>320018252910</t>
-  </si>
-  <si>
-    <t>320018252976</t>
-  </si>
-  <si>
-    <t>$53.93</t>
-  </si>
-  <si>
-    <t>320018253012</t>
-  </si>
-  <si>
-    <t>$62.39</t>
-  </si>
-  <si>
-    <t>320018253240</t>
-  </si>
-  <si>
-    <t>$111.04</t>
-  </si>
-  <si>
-    <t>320018253284</t>
-  </si>
-  <si>
-    <t>320018253354</t>
-  </si>
-  <si>
-    <t>320018253387</t>
-  </si>
-  <si>
-    <t>320018253413</t>
-  </si>
-  <si>
-    <t>320018253424</t>
+    <t>320018322082</t>
+  </si>
+  <si>
+    <t>320018330996</t>
+  </si>
+  <si>
+    <t>320018331000</t>
+  </si>
+  <si>
+    <t>320018331032</t>
+  </si>
+  <si>
+    <t>320018331054</t>
+  </si>
+  <si>
+    <t>320018331098</t>
+  </si>
+  <si>
+    <t>320018331113</t>
+  </si>
+  <si>
+    <t>320018331146</t>
+  </si>
+  <si>
+    <t>320018331168</t>
+  </si>
+  <si>
+    <t>320018331190</t>
+  </si>
+  <si>
+    <t>320018331216</t>
+  </si>
+  <si>
+    <t>320018331250</t>
+  </si>
+  <si>
+    <t>320018331271</t>
+  </si>
+  <si>
+    <t>320018331308</t>
+  </si>
+  <si>
+    <t>320018331320</t>
+  </si>
+  <si>
+    <t>320018331352</t>
+  </si>
+  <si>
+    <t>320018331374</t>
+  </si>
+  <si>
+    <t>320018331411</t>
+  </si>
+  <si>
+    <t>320018331433</t>
+  </si>
+  <si>
+    <t>320018331466</t>
+  </si>
+  <si>
+    <t>320018331488</t>
+  </si>
+  <si>
+    <t>320018331514</t>
+  </si>
+  <si>
+    <t>320018331525</t>
+  </si>
+  <si>
+    <t>320018331536</t>
+  </si>
+  <si>
+    <t>320018331547</t>
+  </si>
+  <si>
+    <t>320018363678</t>
+  </si>
+  <si>
+    <t>320018363689</t>
+  </si>
+  <si>
+    <t>320018363715</t>
+  </si>
+  <si>
+    <t>320018363737</t>
+  </si>
+  <si>
+    <t>320018363770</t>
+  </si>
+  <si>
+    <t>320018363792</t>
+  </si>
+  <si>
+    <t>320018363829</t>
+  </si>
+  <si>
+    <t>320018363840</t>
+  </si>
+  <si>
+    <t>320018363873</t>
+  </si>
+  <si>
+    <t>320018363895</t>
+  </si>
+  <si>
+    <t>320018363932</t>
+  </si>
+  <si>
+    <t>320018363954</t>
+  </si>
+  <si>
+    <t>320018363987</t>
+  </si>
+  <si>
+    <t>320018364001</t>
+  </si>
+  <si>
+    <t>320018364034</t>
+  </si>
+  <si>
+    <t>320018364056</t>
+  </si>
+  <si>
+    <t>320018364090</t>
+  </si>
+  <si>
+    <t>320018364115</t>
+  </si>
+  <si>
+    <t>320018364148</t>
+  </si>
+  <si>
+    <t>320018364160</t>
+  </si>
+  <si>
+    <t>320018364192</t>
+  </si>
+  <si>
+    <t>320018364207</t>
+  </si>
+  <si>
+    <t>320018364218</t>
+  </si>
+  <si>
+    <t>320018364229</t>
+  </si>
+  <si>
+    <t>320018387090</t>
+  </si>
+  <si>
+    <t>320018387105</t>
+  </si>
+  <si>
+    <t>320018387138</t>
+  </si>
+  <si>
+    <t>320018387150</t>
+  </si>
+  <si>
+    <t>320018387193</t>
+  </si>
+  <si>
+    <t>320018387219</t>
+  </si>
+  <si>
+    <t>320018387241</t>
+  </si>
+  <si>
+    <t>320018387263</t>
+  </si>
+  <si>
+    <t>320018387296</t>
+  </si>
+  <si>
+    <t>320018387311</t>
+  </si>
+  <si>
+    <t>320018387355</t>
+  </si>
+  <si>
+    <t>320018387377</t>
+  </si>
+  <si>
+    <t>320018387403</t>
+  </si>
+  <si>
+    <t>320018387425</t>
+  </si>
+  <si>
+    <t>320018387458</t>
+  </si>
+  <si>
+    <t>320018387470</t>
+  </si>
+  <si>
+    <t>320018387517</t>
+  </si>
+  <si>
+    <t>320018387539</t>
+  </si>
+  <si>
+    <t>320018387561</t>
+  </si>
+  <si>
+    <t>320018387583</t>
   </si>
 </sst>
 </file>
@@ -741,26 +1296,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="7.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14" style="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="9.140625" style="2" collapsed="1"/>
-    <col min="19" max="19" width="35.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="1" width="14.0" collapsed="true"/>
+    <col min="18" max="18" style="2" width="9.140625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="35.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -865,13 +1420,13 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>59</v>
+        <v>262</v>
       </c>
       <c r="Q2" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="R2" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="S2" s="3"/>
     </row>
@@ -918,13 +1473,13 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>61</v>
+        <v>263</v>
       </c>
       <c r="Q3" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="R3" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="S3" s="3"/>
     </row>
@@ -971,13 +1526,13 @@
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>63</v>
+        <v>264</v>
       </c>
       <c r="Q4" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="R4" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="S4" s="3"/>
     </row>
@@ -1024,13 +1579,13 @@
         <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>65</v>
+        <v>265</v>
       </c>
       <c r="Q5" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="R5" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="S5" s="3"/>
     </row>
@@ -1077,13 +1632,13 @@
         <v>2</v>
       </c>
       <c r="P6" t="s">
-        <v>67</v>
+        <v>266</v>
       </c>
       <c r="Q6" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="R6" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="S6" s="3"/>
     </row>
@@ -1130,13 +1685,13 @@
         <v>3</v>
       </c>
       <c r="P7" t="s">
-        <v>68</v>
+        <v>267</v>
       </c>
       <c r="Q7" t="s">
         <v>52</v>
       </c>
       <c r="R7" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="S7" s="3"/>
     </row>
@@ -1183,13 +1738,13 @@
         <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>69</v>
+        <v>268</v>
       </c>
       <c r="Q8" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="R8" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="S8" s="3"/>
     </row>
@@ -1236,13 +1791,13 @@
         <v>3</v>
       </c>
       <c r="P9" t="s">
-        <v>71</v>
+        <v>269</v>
       </c>
       <c r="Q9" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="R9" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="S9" s="3"/>
     </row>
@@ -1289,13 +1844,13 @@
         <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>72</v>
+        <v>270</v>
       </c>
       <c r="Q10" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="R10" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="S10" s="3"/>
     </row>
@@ -1342,13 +1897,13 @@
         <v>4</v>
       </c>
       <c r="P11" t="s">
-        <v>74</v>
+        <v>271</v>
       </c>
       <c r="Q11" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="R11" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="S11" s="3"/>
     </row>
@@ -1395,13 +1950,13 @@
         <v>2</v>
       </c>
       <c r="P12" t="s">
-        <v>76</v>
+        <v>272</v>
       </c>
       <c r="Q12" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="R12" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="S12" s="3"/>
     </row>
@@ -1448,13 +2003,13 @@
         <v>3</v>
       </c>
       <c r="P13" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>97</v>
+      </c>
+      <c r="R13" t="s">
         <v>78</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>77</v>
-      </c>
-      <c r="R13" t="s">
-        <v>58</v>
       </c>
       <c r="S13" s="3"/>
     </row>
@@ -1501,13 +2056,13 @@
         <v>2</v>
       </c>
       <c r="P14" t="s">
-        <v>80</v>
+        <v>274</v>
       </c>
       <c r="Q14" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="R14" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="S14" s="3"/>
     </row>
@@ -1554,13 +2109,13 @@
         <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>82</v>
+        <v>275</v>
       </c>
       <c r="Q15" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="R15" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="S15" s="3"/>
     </row>
@@ -1607,13 +2162,13 @@
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>83</v>
+        <v>276</v>
       </c>
       <c r="Q16" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="R16" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="S16" s="3"/>
     </row>
@@ -1660,13 +2215,13 @@
         <v>4</v>
       </c>
       <c r="P17" t="s">
-        <v>85</v>
+        <v>277</v>
       </c>
       <c r="Q17" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="R17" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="S17" s="3"/>
     </row>
@@ -1713,13 +2268,13 @@
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>86</v>
+        <v>278</v>
       </c>
       <c r="Q18" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="R18" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="S18" s="3"/>
     </row>
@@ -1766,13 +2321,13 @@
         <v>3</v>
       </c>
       <c r="P19" t="s">
-        <v>88</v>
+        <v>279</v>
       </c>
       <c r="Q19" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="R19" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="S19" s="3"/>
     </row>
@@ -1819,13 +2374,13 @@
         <v>2</v>
       </c>
       <c r="P20" t="s">
-        <v>90</v>
+        <v>280</v>
       </c>
       <c r="Q20" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="R20" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="S20" s="3"/>
     </row>
@@ -1872,13 +2427,13 @@
         <v>3</v>
       </c>
       <c r="P21" t="s">
-        <v>92</v>
+        <v>281</v>
       </c>
       <c r="Q21" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="R21" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="S21" s="3"/>
     </row>
@@ -1915,8 +2470,8 @@
       <c r="L22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M22" s="10" t="s">
-        <v>53</v>
+      <c r="M22" s="9">
+        <v>223.37</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>42</v>
@@ -1925,13 +2480,13 @@
         <v>2</v>
       </c>
       <c r="P22" t="s">
-        <v>93</v>
+        <v>258</v>
       </c>
       <c r="Q22" t="s">
-        <v>53</v>
+        <v>206</v>
       </c>
       <c r="R22" t="s">
-        <v>58</v>
+        <v>143</v>
       </c>
       <c r="S22" s="3"/>
     </row>
@@ -1968,8 +2523,8 @@
       <c r="L23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M23" s="10" t="s">
-        <v>54</v>
+      <c r="M23" s="9">
+        <v>436.98</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>42</v>
@@ -1978,13 +2533,13 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>94</v>
+        <v>259</v>
       </c>
       <c r="Q23" t="s">
-        <v>54</v>
+        <v>208</v>
       </c>
       <c r="R23" t="s">
-        <v>58</v>
+        <v>143</v>
       </c>
       <c r="S23" s="3"/>
     </row>
@@ -2021,8 +2576,8 @@
       <c r="L24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M24" s="10" t="s">
-        <v>55</v>
+      <c r="M24" s="9">
+        <v>278.12</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>43</v>
@@ -2031,13 +2586,13 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>95</v>
+        <v>260</v>
       </c>
       <c r="Q24" t="s">
-        <v>55</v>
+        <v>210</v>
       </c>
       <c r="R24" t="s">
-        <v>58</v>
+        <v>143</v>
       </c>
       <c r="S24" s="3"/>
     </row>
@@ -2074,8 +2629,8 @@
       <c r="L25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M25" s="10" t="s">
-        <v>56</v>
+      <c r="M25" s="9">
+        <v>52.88</v>
       </c>
       <c r="N25" s="3" t="s">
         <v>50</v>
@@ -2084,13 +2639,13 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>96</v>
+        <v>261</v>
       </c>
       <c r="Q25" t="s">
-        <v>56</v>
+        <v>212</v>
       </c>
       <c r="R25" t="s">
-        <v>58</v>
+        <v>143</v>
       </c>
       <c r="S25" s="3"/>
     </row>
@@ -2128,7 +2683,7 @@
         <v>6</v>
       </c>
       <c r="M26" s="9">
-        <v>130657.61</v>
+        <v>78045.899999999994</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>51</v>

--- a/FedExApplication/bin/TestFiles/FedExShipments.xlsx
+++ b/FedExApplication/bin/TestFiles/FedExShipments.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="510" windowWidth="19815" windowHeight="9660" tabRatio="614"/>
+    <workbookView tabRatio="614" windowHeight="9660" windowWidth="19815" xWindow="390" yWindow="510"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="135">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -175,691 +175,250 @@
     <t>$231.08</t>
   </si>
   <si>
-    <t>320018261878</t>
-  </si>
-  <si>
-    <t>320018261889</t>
-  </si>
-  <si>
-    <t>320018261915</t>
-  </si>
-  <si>
-    <t>320018261937</t>
-  </si>
-  <si>
-    <t>320018261970</t>
-  </si>
-  <si>
-    <t>320018261992</t>
-  </si>
-  <si>
-    <t>320018262028</t>
-  </si>
-  <si>
-    <t>320018262040</t>
-  </si>
-  <si>
-    <t>320018262072</t>
-  </si>
-  <si>
-    <t>320018262094</t>
-  </si>
-  <si>
-    <t>320018262131</t>
-  </si>
-  <si>
-    <t>320018262153</t>
-  </si>
-  <si>
-    <t>320018262186</t>
-  </si>
-  <si>
-    <t>320018262201</t>
-  </si>
-  <si>
-    <t>320018262234</t>
-  </si>
-  <si>
-    <t>320018262256</t>
-  </si>
-  <si>
-    <t>320018262290</t>
-  </si>
-  <si>
-    <t>320018262315</t>
-  </si>
-  <si>
-    <t>320018262348</t>
-  </si>
-  <si>
-    <t>320018262360</t>
-  </si>
-  <si>
-    <t>320018262392</t>
-  </si>
-  <si>
-    <t>320018262407</t>
-  </si>
-  <si>
-    <t>320018262418</t>
-  </si>
-  <si>
-    <t>320018262429</t>
-  </si>
-  <si>
     <t>$19.04</t>
   </si>
   <si>
     <t>PASS</t>
   </si>
   <si>
-    <t>320018274889</t>
-  </si>
-  <si>
     <t>$27.50</t>
   </si>
   <si>
-    <t>320018274890</t>
-  </si>
-  <si>
     <t>$31.73</t>
   </si>
   <si>
-    <t>320018274926</t>
-  </si>
-  <si>
     <t>$43.36</t>
   </si>
   <si>
-    <t>320018274959</t>
-  </si>
-  <si>
     <t>$56.05</t>
   </si>
   <si>
-    <t>320018275197</t>
-  </si>
-  <si>
-    <t>320018275212</t>
-  </si>
-  <si>
-    <t>320018275245</t>
-  </si>
-  <si>
     <t>$23.27</t>
   </si>
   <si>
-    <t>320018275267</t>
-  </si>
-  <si>
-    <t>320018275290</t>
-  </si>
-  <si>
     <t>$40.19</t>
   </si>
   <si>
-    <t>320018275315</t>
-  </si>
-  <si>
     <t>$52.88</t>
   </si>
   <si>
-    <t>320018275360</t>
-  </si>
-  <si>
     <t>$14.81</t>
   </si>
   <si>
-    <t>320018275381</t>
-  </si>
-  <si>
     <t>$17.98</t>
   </si>
   <si>
-    <t>320018275418</t>
-  </si>
-  <si>
     <t>$21.15</t>
   </si>
   <si>
-    <t>320018275430</t>
-  </si>
-  <si>
-    <t>320018275473</t>
-  </si>
-  <si>
     <t>$42.30</t>
   </si>
   <si>
-    <t>320018275495</t>
-  </si>
-  <si>
-    <t>320018275543</t>
-  </si>
-  <si>
     <t>$53.93</t>
   </si>
   <si>
-    <t>320018275565</t>
-  </si>
-  <si>
     <t>$62.39</t>
   </si>
   <si>
-    <t>320018275598</t>
-  </si>
-  <si>
     <t>$111.04</t>
   </si>
   <si>
-    <t>320018275613</t>
+    <t>320018364192</t>
+  </si>
+  <si>
+    <t>320018364207</t>
+  </si>
+  <si>
+    <t>320018364218</t>
+  </si>
+  <si>
+    <t>320018364229</t>
+  </si>
+  <si>
+    <t>320018387090</t>
+  </si>
+  <si>
+    <t>320018387105</t>
+  </si>
+  <si>
+    <t>320018387138</t>
+  </si>
+  <si>
+    <t>320018387150</t>
+  </si>
+  <si>
+    <t>320018387193</t>
+  </si>
+  <si>
+    <t>320018387219</t>
+  </si>
+  <si>
+    <t>320018387241</t>
+  </si>
+  <si>
+    <t>320018387263</t>
+  </si>
+  <si>
+    <t>320018387296</t>
+  </si>
+  <si>
+    <t>320018387311</t>
+  </si>
+  <si>
+    <t>320018387355</t>
+  </si>
+  <si>
+    <t>320018387377</t>
+  </si>
+  <si>
+    <t>320018387403</t>
+  </si>
+  <si>
+    <t>320018387425</t>
+  </si>
+  <si>
+    <t>320018387458</t>
+  </si>
+  <si>
+    <t>320018387470</t>
+  </si>
+  <si>
+    <t>320018387517</t>
+  </si>
+  <si>
+    <t>320018387539</t>
+  </si>
+  <si>
+    <t>320018387561</t>
+  </si>
+  <si>
+    <t>320018387583</t>
   </si>
   <si>
     <t>$223.37</t>
   </si>
   <si>
-    <t>320018275657</t>
+    <t>320018398352</t>
   </si>
   <si>
     <t>$436.98</t>
   </si>
   <si>
-    <t>320018275668</t>
+    <t>320018398363</t>
+  </si>
+  <si>
+    <t>$248.51</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>320018398374</t>
+  </si>
+  <si>
+    <t>320018398385</t>
+  </si>
+  <si>
+    <t>320018404671</t>
+  </si>
+  <si>
+    <t>$468.70</t>
+  </si>
+  <si>
+    <t>320018404682</t>
   </si>
   <si>
     <t>$278.12</t>
   </si>
   <si>
-    <t>320018275679</t>
-  </si>
-  <si>
-    <t>320018275680</t>
-  </si>
-  <si>
-    <t>320018278840</t>
-  </si>
-  <si>
-    <t>320018278851</t>
-  </si>
-  <si>
-    <t>320018278884</t>
-  </si>
-  <si>
-    <t>320018278900</t>
-  </si>
-  <si>
-    <t>320018278954</t>
-  </si>
-  <si>
-    <t>320018278976</t>
-  </si>
-  <si>
-    <t>320018279001</t>
-  </si>
-  <si>
-    <t>320018279023</t>
-  </si>
-  <si>
-    <t>320018279056</t>
-  </si>
-  <si>
-    <t>320018279078</t>
-  </si>
-  <si>
-    <t>320018279115</t>
-  </si>
-  <si>
-    <t>320018279137</t>
-  </si>
-  <si>
-    <t>320018279160</t>
-  </si>
-  <si>
-    <t>320018279192</t>
-  </si>
-  <si>
-    <t>320018279229</t>
-  </si>
-  <si>
-    <t>320018279240</t>
-  </si>
-  <si>
-    <t>320018279284</t>
-  </si>
-  <si>
-    <t>320018279300</t>
-  </si>
-  <si>
-    <t>320018279332</t>
-  </si>
-  <si>
-    <t>320018279354</t>
-  </si>
-  <si>
-    <t>320018279387</t>
-  </si>
-  <si>
-    <t>320018279398</t>
-  </si>
-  <si>
-    <t>$248.51</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>320018279402</t>
-  </si>
-  <si>
-    <t>320018279413</t>
-  </si>
-  <si>
-    <t>320018289344</t>
-  </si>
-  <si>
-    <t>320018289355</t>
-  </si>
-  <si>
-    <t>320018289388</t>
-  </si>
-  <si>
-    <t>320018289403</t>
-  </si>
-  <si>
-    <t>320018289447</t>
-  </si>
-  <si>
-    <t>320018289469</t>
-  </si>
-  <si>
-    <t>320018289491</t>
-  </si>
-  <si>
-    <t>320018289517</t>
-  </si>
-  <si>
-    <t>320018289540</t>
-  </si>
-  <si>
-    <t>320018289561</t>
-  </si>
-  <si>
-    <t>320018289609</t>
-  </si>
-  <si>
-    <t>320018289620</t>
-  </si>
-  <si>
-    <t>320018289653</t>
-  </si>
-  <si>
-    <t>320018289675</t>
-  </si>
-  <si>
-    <t>320018289701</t>
-  </si>
-  <si>
-    <t>320018289723</t>
-  </si>
-  <si>
-    <t>320018289767</t>
-  </si>
-  <si>
-    <t>320018289789</t>
-  </si>
-  <si>
-    <t>320018289815</t>
-  </si>
-  <si>
-    <t>320018289837</t>
-  </si>
-  <si>
-    <t>320018289860</t>
-  </si>
-  <si>
-    <t>320018289870</t>
-  </si>
-  <si>
-    <t>320018289881</t>
-  </si>
-  <si>
-    <t>320018289892</t>
-  </si>
-  <si>
-    <t>320018309442</t>
-  </si>
-  <si>
-    <t>320018309453</t>
-  </si>
-  <si>
-    <t>320018309486</t>
-  </si>
-  <si>
-    <t>320018309501</t>
-  </si>
-  <si>
-    <t>320018309545</t>
-  </si>
-  <si>
-    <t>320018309567</t>
-  </si>
-  <si>
-    <t>320018309590</t>
-  </si>
-  <si>
-    <t>320018309615</t>
-  </si>
-  <si>
-    <t>320018309648</t>
-  </si>
-  <si>
-    <t>320018309660</t>
-  </si>
-  <si>
-    <t>320018309707</t>
-  </si>
-  <si>
-    <t>320018309729</t>
-  </si>
-  <si>
-    <t>320018309751</t>
-  </si>
-  <si>
-    <t>320018309773</t>
-  </si>
-  <si>
-    <t>320018309800</t>
-  </si>
-  <si>
-    <t>320018309821</t>
-  </si>
-  <si>
-    <t>320018321535</t>
-  </si>
-  <si>
-    <t>320018321546</t>
-  </si>
-  <si>
-    <t>320018321579</t>
-  </si>
-  <si>
-    <t>320018321590</t>
-  </si>
-  <si>
-    <t>320018321638</t>
-  </si>
-  <si>
-    <t>320018321650</t>
-  </si>
-  <si>
-    <t>320018321682</t>
-  </si>
-  <si>
-    <t>320018321708</t>
-  </si>
-  <si>
-    <t>320018321730</t>
-  </si>
-  <si>
-    <t>320018321752</t>
-  </si>
-  <si>
-    <t>320018321796</t>
-  </si>
-  <si>
-    <t>320018321811</t>
-  </si>
-  <si>
-    <t>320018321844</t>
-  </si>
-  <si>
-    <t>320018321866</t>
-  </si>
-  <si>
-    <t>320018321899</t>
-  </si>
-  <si>
-    <t>320018321914</t>
-  </si>
-  <si>
-    <t>320018321958</t>
-  </si>
-  <si>
-    <t>320018321970</t>
-  </si>
-  <si>
-    <t>320018322005</t>
-  </si>
-  <si>
-    <t>320018322027</t>
-  </si>
-  <si>
-    <t>$276.24</t>
-  </si>
-  <si>
-    <t>320018322050</t>
-  </si>
-  <si>
-    <t>$489.85</t>
-  </si>
-  <si>
-    <t>320018322060</t>
-  </si>
-  <si>
-    <t>$354.26</t>
-  </si>
-  <si>
-    <t>320018322071</t>
-  </si>
-  <si>
-    <t>$132.19</t>
-  </si>
-  <si>
-    <t>320018322082</t>
-  </si>
-  <si>
-    <t>320018330996</t>
-  </si>
-  <si>
-    <t>320018331000</t>
-  </si>
-  <si>
-    <t>320018331032</t>
-  </si>
-  <si>
-    <t>320018331054</t>
-  </si>
-  <si>
-    <t>320018331098</t>
-  </si>
-  <si>
-    <t>320018331113</t>
-  </si>
-  <si>
-    <t>320018331146</t>
-  </si>
-  <si>
-    <t>320018331168</t>
-  </si>
-  <si>
-    <t>320018331190</t>
-  </si>
-  <si>
-    <t>320018331216</t>
-  </si>
-  <si>
-    <t>320018331250</t>
-  </si>
-  <si>
-    <t>320018331271</t>
-  </si>
-  <si>
-    <t>320018331308</t>
-  </si>
-  <si>
-    <t>320018331320</t>
-  </si>
-  <si>
-    <t>320018331352</t>
-  </si>
-  <si>
-    <t>320018331374</t>
-  </si>
-  <si>
-    <t>320018331411</t>
-  </si>
-  <si>
-    <t>320018331433</t>
-  </si>
-  <si>
-    <t>320018331466</t>
-  </si>
-  <si>
-    <t>320018331488</t>
-  </si>
-  <si>
-    <t>320018331514</t>
-  </si>
-  <si>
-    <t>320018331525</t>
-  </si>
-  <si>
-    <t>320018331536</t>
-  </si>
-  <si>
-    <t>320018331547</t>
-  </si>
-  <si>
-    <t>320018363678</t>
-  </si>
-  <si>
-    <t>320018363689</t>
-  </si>
-  <si>
-    <t>320018363715</t>
-  </si>
-  <si>
-    <t>320018363737</t>
-  </si>
-  <si>
-    <t>320018363770</t>
-  </si>
-  <si>
-    <t>320018363792</t>
-  </si>
-  <si>
-    <t>320018363829</t>
-  </si>
-  <si>
-    <t>320018363840</t>
-  </si>
-  <si>
-    <t>320018363873</t>
-  </si>
-  <si>
-    <t>320018363895</t>
-  </si>
-  <si>
-    <t>320018363932</t>
-  </si>
-  <si>
-    <t>320018363954</t>
-  </si>
-  <si>
-    <t>320018363987</t>
-  </si>
-  <si>
-    <t>320018364001</t>
-  </si>
-  <si>
-    <t>320018364034</t>
-  </si>
-  <si>
-    <t>320018364056</t>
-  </si>
-  <si>
-    <t>320018364090</t>
-  </si>
-  <si>
-    <t>320018364115</t>
-  </si>
-  <si>
-    <t>320018364148</t>
-  </si>
-  <si>
-    <t>320018364160</t>
-  </si>
-  <si>
-    <t>320018364192</t>
-  </si>
-  <si>
-    <t>320018364207</t>
-  </si>
-  <si>
-    <t>320018364218</t>
-  </si>
-  <si>
-    <t>320018364229</t>
-  </si>
-  <si>
-    <t>320018387090</t>
-  </si>
-  <si>
-    <t>320018387105</t>
-  </si>
-  <si>
-    <t>320018387138</t>
-  </si>
-  <si>
-    <t>320018387150</t>
-  </si>
-  <si>
-    <t>320018387193</t>
-  </si>
-  <si>
-    <t>320018387219</t>
-  </si>
-  <si>
-    <t>320018387241</t>
-  </si>
-  <si>
-    <t>320018387263</t>
-  </si>
-  <si>
-    <t>320018387296</t>
-  </si>
-  <si>
-    <t>320018387311</t>
-  </si>
-  <si>
-    <t>320018387355</t>
-  </si>
-  <si>
-    <t>320018387377</t>
-  </si>
-  <si>
-    <t>320018387403</t>
-  </si>
-  <si>
-    <t>320018387425</t>
-  </si>
-  <si>
-    <t>320018387458</t>
-  </si>
-  <si>
-    <t>320018387470</t>
-  </si>
-  <si>
-    <t>320018387517</t>
-  </si>
-  <si>
-    <t>320018387539</t>
-  </si>
-  <si>
-    <t>320018387561</t>
-  </si>
-  <si>
-    <t>320018387583</t>
+    <t>320018404693</t>
+  </si>
+  <si>
+    <t>320018404708</t>
+  </si>
+  <si>
+    <t>320018407085</t>
+  </si>
+  <si>
+    <t>320018407096</t>
+  </si>
+  <si>
+    <t>320018407100</t>
+  </si>
+  <si>
+    <t>320018407111</t>
+  </si>
+  <si>
+    <t>320018407199</t>
+  </si>
+  <si>
+    <t>320018407203</t>
+  </si>
+  <si>
+    <t>320018407236</t>
+  </si>
+  <si>
+    <t>320018407269</t>
+  </si>
+  <si>
+    <t>320018407306</t>
+  </si>
+  <si>
+    <t>320018407328</t>
+  </si>
+  <si>
+    <t>320018407361</t>
+  </si>
+  <si>
+    <t>320018407394</t>
+  </si>
+  <si>
+    <t>320018407420</t>
+  </si>
+  <si>
+    <t>320018407442</t>
+  </si>
+  <si>
+    <t>320018407486</t>
+  </si>
+  <si>
+    <t>320018407501</t>
+  </si>
+  <si>
+    <t>320018407740</t>
+  </si>
+  <si>
+    <t>320018407773</t>
+  </si>
+  <si>
+    <t>320018407810</t>
+  </si>
+  <si>
+    <t>320018407832</t>
+  </si>
+  <si>
+    <t>320018407876</t>
+  </si>
+  <si>
+    <t>320018407898</t>
+  </si>
+  <si>
+    <t>320018407924</t>
+  </si>
+  <si>
+    <t>320018407946</t>
+  </si>
+  <si>
+    <t>320018407979</t>
+  </si>
+  <si>
+    <t>320018407990</t>
+  </si>
+  <si>
+    <t>320018408015</t>
+  </si>
+  <si>
+    <t>320018408026</t>
   </si>
 </sst>
 </file>
@@ -919,33 +478,33 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="2" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="8" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -998,7 +557,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1012,10 +571,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1173,7 +732,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1182,13 +741,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1198,7 +757,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1207,7 +766,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1216,7 +775,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1226,12 +785,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1262,7 +821,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1281,7 +840,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1293,11 +852,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:R26"/>
+    <sheetView tabSelected="1" topLeftCell="J13" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22:R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1420,13 +979,13 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>262</v>
+        <v>111</v>
       </c>
       <c r="Q2" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="R2" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="S2" s="3"/>
     </row>
@@ -1473,13 +1032,13 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>263</v>
+        <v>112</v>
       </c>
       <c r="Q3" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="R3" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="S3" s="3"/>
     </row>
@@ -1526,13 +1085,13 @@
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>264</v>
+        <v>113</v>
       </c>
       <c r="Q4" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="R4" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="S4" s="3"/>
     </row>
@@ -1579,13 +1138,13 @@
         <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>265</v>
+        <v>114</v>
       </c>
       <c r="Q5" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="R5" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="S5" s="3"/>
     </row>
@@ -1632,13 +1191,13 @@
         <v>2</v>
       </c>
       <c r="P6" t="s">
-        <v>266</v>
+        <v>115</v>
       </c>
       <c r="Q6" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="R6" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="S6" s="3"/>
     </row>
@@ -1685,13 +1244,13 @@
         <v>3</v>
       </c>
       <c r="P7" t="s">
-        <v>267</v>
+        <v>116</v>
       </c>
       <c r="Q7" t="s">
         <v>52</v>
       </c>
       <c r="R7" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="S7" s="3"/>
     </row>
@@ -1738,13 +1297,13 @@
         <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>268</v>
+        <v>117</v>
       </c>
       <c r="Q8" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="R8" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="S8" s="3"/>
     </row>
@@ -1791,13 +1350,13 @@
         <v>3</v>
       </c>
       <c r="P9" t="s">
-        <v>269</v>
+        <v>118</v>
       </c>
       <c r="Q9" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="R9" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="S9" s="3"/>
     </row>
@@ -1844,13 +1403,13 @@
         <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>270</v>
+        <v>119</v>
       </c>
       <c r="Q10" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="R10" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="S10" s="3"/>
     </row>
@@ -1897,13 +1456,13 @@
         <v>4</v>
       </c>
       <c r="P11" t="s">
-        <v>271</v>
+        <v>120</v>
       </c>
       <c r="Q11" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="R11" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="S11" s="3"/>
     </row>
@@ -1950,13 +1509,13 @@
         <v>2</v>
       </c>
       <c r="P12" t="s">
-        <v>272</v>
+        <v>121</v>
       </c>
       <c r="Q12" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="R12" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="S12" s="3"/>
     </row>
@@ -2003,13 +1562,13 @@
         <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>273</v>
+        <v>122</v>
       </c>
       <c r="Q13" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="R13" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="S13" s="3"/>
     </row>
@@ -2056,13 +1615,13 @@
         <v>2</v>
       </c>
       <c r="P14" t="s">
-        <v>274</v>
+        <v>123</v>
       </c>
       <c r="Q14" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="R14" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="S14" s="3"/>
     </row>
@@ -2109,13 +1668,13 @@
         <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>275</v>
+        <v>124</v>
       </c>
       <c r="Q15" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="R15" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="S15" s="3"/>
     </row>
@@ -2162,13 +1721,13 @@
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>276</v>
+        <v>125</v>
       </c>
       <c r="Q16" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="R16" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="S16" s="3"/>
     </row>
@@ -2215,13 +1774,13 @@
         <v>4</v>
       </c>
       <c r="P17" t="s">
-        <v>277</v>
+        <v>126</v>
       </c>
       <c r="Q17" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="R17" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="S17" s="3"/>
     </row>
@@ -2268,13 +1827,13 @@
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>278</v>
+        <v>127</v>
       </c>
       <c r="Q18" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="R18" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="S18" s="3"/>
     </row>
@@ -2321,13 +1880,13 @@
         <v>3</v>
       </c>
       <c r="P19" t="s">
-        <v>279</v>
+        <v>128</v>
       </c>
       <c r="Q19" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="R19" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="S19" s="3"/>
     </row>
@@ -2374,13 +1933,13 @@
         <v>2</v>
       </c>
       <c r="P20" t="s">
-        <v>280</v>
+        <v>129</v>
       </c>
       <c r="Q20" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="R20" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="S20" s="3"/>
     </row>
@@ -2427,13 +1986,13 @@
         <v>3</v>
       </c>
       <c r="P21" t="s">
-        <v>281</v>
+        <v>130</v>
       </c>
       <c r="Q21" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="R21" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="S21" s="3"/>
     </row>
@@ -2480,13 +2039,13 @@
         <v>2</v>
       </c>
       <c r="P22" t="s">
-        <v>258</v>
+        <v>131</v>
       </c>
       <c r="Q22" t="s">
-        <v>206</v>
+        <v>93</v>
       </c>
       <c r="R22" t="s">
-        <v>143</v>
+        <v>54</v>
       </c>
       <c r="S22" s="3"/>
     </row>
@@ -2533,13 +2092,13 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>259</v>
+        <v>132</v>
       </c>
       <c r="Q23" t="s">
-        <v>208</v>
+        <v>95</v>
       </c>
       <c r="R23" t="s">
-        <v>143</v>
+        <v>54</v>
       </c>
       <c r="S23" s="3"/>
     </row>
@@ -2586,13 +2145,13 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>260</v>
+        <v>133</v>
       </c>
       <c r="Q24" t="s">
-        <v>210</v>
+        <v>97</v>
       </c>
       <c r="R24" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="S24" s="3"/>
     </row>
@@ -2639,13 +2198,13 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>261</v>
+        <v>134</v>
       </c>
       <c r="Q25" t="s">
-        <v>212</v>
+        <v>61</v>
       </c>
       <c r="R25" t="s">
-        <v>143</v>
+        <v>54</v>
       </c>
       <c r="S25" s="3"/>
     </row>
@@ -2698,35 +2257,35 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="R2:R7">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule dxfId="6" operator="equal" priority="7" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R24 R27:R1048576">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule dxfId="5" operator="equal" priority="5" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule dxfId="4" operator="equal" priority="6" type="cellIs">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R25">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule dxfId="3" operator="equal" priority="3" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule dxfId="2" operator="equal" priority="4" type="cellIs">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R26">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule dxfId="1" operator="equal" priority="1" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule dxfId="0" operator="equal" priority="2" type="cellIs">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/FedExApplication/bin/TestFiles/FedExShipments.xlsx
+++ b/FedExApplication/bin/TestFiles/FedExShipments.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="106">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -175,133 +175,163 @@
     <t>$231.08</t>
   </si>
   <si>
+    <t>$1,171.41</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>320018427000</t>
+  </si>
+  <si>
+    <t>320018427499</t>
+  </si>
+  <si>
     <t>$19.04</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>320018417432</t>
+    <t>320018427514</t>
   </si>
   <si>
     <t>$27.50</t>
   </si>
   <si>
-    <t>320018417443</t>
+    <t>320018427525</t>
   </si>
   <si>
     <t>$31.73</t>
   </si>
   <si>
-    <t>320018417476</t>
+    <t>320018427558</t>
   </si>
   <si>
     <t>$43.36</t>
   </si>
   <si>
-    <t>320018417498</t>
+    <t>320018427570</t>
   </si>
   <si>
     <t>$56.05</t>
   </si>
   <si>
-    <t>320018417535</t>
-  </si>
-  <si>
-    <t>320018417557</t>
-  </si>
-  <si>
-    <t>320018417580</t>
+    <t>320018427617</t>
+  </si>
+  <si>
+    <t>320018427639</t>
+  </si>
+  <si>
+    <t>320018427661</t>
   </si>
   <si>
     <t>$23.27</t>
   </si>
   <si>
-    <t>320018417605</t>
-  </si>
-  <si>
-    <t>320018417649</t>
+    <t>320018427683</t>
+  </si>
+  <si>
+    <t>320018427710</t>
   </si>
   <si>
     <t>$40.19</t>
   </si>
   <si>
-    <t>320018417660</t>
+    <t>320018427731</t>
   </si>
   <si>
     <t>$52.88</t>
   </si>
   <si>
-    <t>320018417708</t>
+    <t>320018427775</t>
   </si>
   <si>
     <t>$14.81</t>
   </si>
   <si>
-    <t>320018417720</t>
+    <t>320018427797</t>
   </si>
   <si>
     <t>$17.98</t>
   </si>
   <si>
-    <t>320018417752</t>
+    <t>320018427823</t>
   </si>
   <si>
     <t>$21.15</t>
   </si>
   <si>
-    <t>320018417774</t>
-  </si>
-  <si>
-    <t>320018417800</t>
+    <t>320018427845</t>
+  </si>
+  <si>
+    <t>320018427878</t>
   </si>
   <si>
     <t>$42.30</t>
   </si>
   <si>
-    <t>320018417822</t>
-  </si>
-  <si>
-    <t>320018417866</t>
+    <t>320018427890</t>
+  </si>
+  <si>
+    <t>320018427937</t>
   </si>
   <si>
     <t>$53.93</t>
   </si>
   <si>
-    <t>320018417888</t>
+    <t>320018427959</t>
   </si>
   <si>
     <t>$62.39</t>
   </si>
   <si>
-    <t>320018417914</t>
+    <t>320018427981</t>
   </si>
   <si>
     <t>$111.04</t>
   </si>
   <si>
-    <t>320018417936</t>
+    <t>320018428006</t>
   </si>
   <si>
     <t>$223.37</t>
   </si>
   <si>
-    <t>320018417969</t>
+    <t>320018428039</t>
   </si>
   <si>
     <t>$436.98</t>
   </si>
   <si>
-    <t>320018417970</t>
+    <t>320018428040</t>
   </si>
   <si>
     <t>$278.12</t>
   </si>
   <si>
-    <t>320018417980</t>
-  </si>
-  <si>
-    <t>320018417991</t>
+    <t>320018428050</t>
+  </si>
+  <si>
+    <t>320018428061</t>
+  </si>
+  <si>
+    <t>320018428072</t>
+  </si>
+  <si>
+    <t>320018428083</t>
+  </si>
+  <si>
+    <t>320018428131</t>
+  </si>
+  <si>
+    <t>320018428186</t>
+  </si>
+  <si>
+    <t>320018428197</t>
+  </si>
+  <si>
+    <t>320018428201</t>
+  </si>
+  <si>
+    <t>320018428212</t>
   </si>
 </sst>
 </file>
@@ -311,7 +341,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -326,10 +356,6 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -367,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -390,9 +416,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="3" numFmtId="1" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -748,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="J13" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -870,10 +893,10 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="R2" t="s">
         <v>54</v>
@@ -920,10 +943,10 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="R3" t="s">
         <v>54</v>
@@ -970,10 +993,10 @@
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="R4" t="s">
         <v>54</v>
@@ -1020,10 +1043,10 @@
         <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="R5" t="s">
         <v>54</v>
@@ -1070,10 +1093,10 @@
         <v>2</v>
       </c>
       <c r="P6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="R6" t="s">
         <v>54</v>
@@ -1120,7 +1143,7 @@
         <v>3</v>
       </c>
       <c r="P7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="Q7" t="s">
         <v>52</v>
@@ -1170,10 +1193,10 @@
         <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Q8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="R8" t="s">
         <v>54</v>
@@ -1220,10 +1243,10 @@
         <v>3</v>
       </c>
       <c r="P9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="Q9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="R9" t="s">
         <v>54</v>
@@ -1270,10 +1293,10 @@
         <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Q10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="R10" t="s">
         <v>54</v>
@@ -1320,10 +1343,10 @@
         <v>4</v>
       </c>
       <c r="P11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Q11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="R11" t="s">
         <v>54</v>
@@ -1370,10 +1393,10 @@
         <v>2</v>
       </c>
       <c r="P12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R12" t="s">
         <v>54</v>
@@ -1420,10 +1443,10 @@
         <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q13" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R13" t="s">
         <v>54</v>
@@ -1470,10 +1493,10 @@
         <v>2</v>
       </c>
       <c r="P14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q14" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="R14" t="s">
         <v>54</v>
@@ -1520,10 +1543,10 @@
         <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="Q15" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="R15" t="s">
         <v>54</v>
@@ -1570,10 +1593,10 @@
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Q16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="R16" t="s">
         <v>54</v>
@@ -1620,10 +1643,10 @@
         <v>4</v>
       </c>
       <c r="P17" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="Q17" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="R17" t="s">
         <v>54</v>
@@ -1670,10 +1693,10 @@
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Q18" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="R18" t="s">
         <v>54</v>
@@ -1720,10 +1743,10 @@
         <v>3</v>
       </c>
       <c r="P19" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Q19" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="R19" t="s">
         <v>54</v>
@@ -1770,10 +1793,10 @@
         <v>2</v>
       </c>
       <c r="P20" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Q20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="R20" t="s">
         <v>54</v>
@@ -1820,10 +1843,10 @@
         <v>3</v>
       </c>
       <c r="P21" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="Q21" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="R21" t="s">
         <v>54</v>
@@ -1870,10 +1893,10 @@
         <v>2</v>
       </c>
       <c r="P22" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="Q22" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="R22" t="s">
         <v>54</v>
@@ -1920,10 +1943,10 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="Q23" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="R23" t="s">
         <v>54</v>
@@ -1970,10 +1993,10 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="Q24" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="R24" t="s">
         <v>54</v>
@@ -2020,10 +2043,10 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="Q25" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R25" t="s">
         <v>54</v>
@@ -2069,9 +2092,15 @@
       <c r="O26" s="8">
         <v>1</v>
       </c>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="9"/>
+      <c r="P26" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>53</v>
+      </c>
+      <c r="R26" t="s">
+        <v>54</v>
+      </c>
       <c r="S26" s="9"/>
     </row>
   </sheetData>

--- a/FedExApplication/bin/TestFiles/FedExShipments.xlsx
+++ b/FedExApplication/bin/TestFiles/FedExShipments.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="55">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -179,138 +179,6 @@
   </si>
   <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t>320018464460</t>
-  </si>
-  <si>
-    <t>$27.50</t>
-  </si>
-  <si>
-    <t>320018464471</t>
-  </si>
-  <si>
-    <t>$31.73</t>
-  </si>
-  <si>
-    <t>320018464508</t>
-  </si>
-  <si>
-    <t>$43.36</t>
-  </si>
-  <si>
-    <t>320018464520</t>
-  </si>
-  <si>
-    <t>$56.05</t>
-  </si>
-  <si>
-    <t>320018464563</t>
-  </si>
-  <si>
-    <t>320018464585</t>
-  </si>
-  <si>
-    <t>320018464611</t>
-  </si>
-  <si>
-    <t>$23.27</t>
-  </si>
-  <si>
-    <t>320018464633</t>
-  </si>
-  <si>
-    <t>320018464666</t>
-  </si>
-  <si>
-    <t>$40.19</t>
-  </si>
-  <si>
-    <t>320018464688</t>
-  </si>
-  <si>
-    <t>$52.88</t>
-  </si>
-  <si>
-    <t>320018464725</t>
-  </si>
-  <si>
-    <t>$14.81</t>
-  </si>
-  <si>
-    <t>320018464747</t>
-  </si>
-  <si>
-    <t>$17.98</t>
-  </si>
-  <si>
-    <t>320018464770</t>
-  </si>
-  <si>
-    <t>$21.15</t>
-  </si>
-  <si>
-    <t>320018464791</t>
-  </si>
-  <si>
-    <t>320018464828</t>
-  </si>
-  <si>
-    <t>$42.30</t>
-  </si>
-  <si>
-    <t>320018464840</t>
-  </si>
-  <si>
-    <t>320018464883</t>
-  </si>
-  <si>
-    <t>$53.93</t>
-  </si>
-  <si>
-    <t>320018464909</t>
-  </si>
-  <si>
-    <t>$104.69</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>320018464931</t>
-  </si>
-  <si>
-    <t>$111.04</t>
-  </si>
-  <si>
-    <t>320018464953</t>
-  </si>
-  <si>
-    <t>$223.37</t>
-  </si>
-  <si>
-    <t>320018464986</t>
-  </si>
-  <si>
-    <t>$436.98</t>
-  </si>
-  <si>
-    <t>320018464997</t>
-  </si>
-  <si>
-    <t>$248.51</t>
-  </si>
-  <si>
-    <t>320018465000</t>
-  </si>
-  <si>
-    <t>320018465011</t>
-  </si>
-  <si>
-    <t>$1,171.41</t>
-  </si>
-  <si>
-    <t>320018465022</t>
   </si>
 </sst>
 </file>
@@ -877,9 +745,6 @@
       <c r="O2" s="3">
         <v>1</v>
       </c>
-      <c r="P2" t="s">
-        <v>55</v>
-      </c>
       <c r="Q2" t="s">
         <v>53</v>
       </c>
@@ -930,15 +795,8 @@
       <c r="O3" s="3">
         <v>3</v>
       </c>
-      <c r="P3" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R3" t="s">
-        <v>54</v>
-      </c>
+      <c r="Q3"/>
+      <c r="R3"/>
       <c r="S3" s="3"/>
     </row>
     <row r="4" spans="1:19">
@@ -983,15 +841,8 @@
       <c r="O4" s="3">
         <v>2</v>
       </c>
-      <c r="P4" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>58</v>
-      </c>
-      <c r="R4" t="s">
-        <v>54</v>
-      </c>
+      <c r="Q4"/>
+      <c r="R4"/>
       <c r="S4" s="3"/>
     </row>
     <row r="5" spans="1:19">
@@ -1036,15 +887,8 @@
       <c r="O5" s="3">
         <v>4</v>
       </c>
-      <c r="P5" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>60</v>
-      </c>
-      <c r="R5" t="s">
-        <v>54</v>
-      </c>
+      <c r="Q5"/>
+      <c r="R5"/>
       <c r="S5" s="3"/>
     </row>
     <row r="6" spans="1:19">
@@ -1089,15 +933,8 @@
       <c r="O6" s="3">
         <v>2</v>
       </c>
-      <c r="P6" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>62</v>
-      </c>
-      <c r="R6" t="s">
-        <v>54</v>
-      </c>
+      <c r="Q6"/>
+      <c r="R6"/>
       <c r="S6" s="3"/>
     </row>
     <row r="7" spans="1:19">
@@ -1142,15 +979,8 @@
       <c r="O7" s="3">
         <v>3</v>
       </c>
-      <c r="P7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>52</v>
-      </c>
-      <c r="R7" t="s">
-        <v>54</v>
-      </c>
+      <c r="Q7"/>
+      <c r="R7"/>
       <c r="S7" s="3"/>
     </row>
     <row r="8" spans="1:19">
@@ -1195,15 +1025,8 @@
       <c r="O8" s="3">
         <v>2</v>
       </c>
-      <c r="P8" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>53</v>
-      </c>
-      <c r="R8" t="s">
-        <v>54</v>
-      </c>
+      <c r="Q8"/>
+      <c r="R8"/>
       <c r="S8" s="3"/>
     </row>
     <row r="9" spans="1:19">
@@ -1248,15 +1071,8 @@
       <c r="O9" s="3">
         <v>3</v>
       </c>
-      <c r="P9" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>66</v>
-      </c>
-      <c r="R9" t="s">
-        <v>54</v>
-      </c>
+      <c r="Q9"/>
+      <c r="R9"/>
       <c r="S9" s="3"/>
     </row>
     <row r="10" spans="1:19">
@@ -1301,15 +1117,8 @@
       <c r="O10" s="3">
         <v>2</v>
       </c>
-      <c r="P10" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>56</v>
-      </c>
-      <c r="R10" t="s">
-        <v>54</v>
-      </c>
+      <c r="Q10"/>
+      <c r="R10"/>
       <c r="S10" s="3"/>
     </row>
     <row r="11" spans="1:19">
@@ -1354,15 +1163,8 @@
       <c r="O11" s="3">
         <v>4</v>
       </c>
-      <c r="P11" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>69</v>
-      </c>
-      <c r="R11" t="s">
-        <v>54</v>
-      </c>
+      <c r="Q11"/>
+      <c r="R11"/>
       <c r="S11" s="3"/>
     </row>
     <row r="12" spans="1:19">
@@ -1407,15 +1209,8 @@
       <c r="O12" s="3">
         <v>2</v>
       </c>
-      <c r="P12" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>71</v>
-      </c>
-      <c r="R12" t="s">
-        <v>54</v>
-      </c>
+      <c r="Q12"/>
+      <c r="R12"/>
       <c r="S12" s="3"/>
     </row>
     <row r="13" spans="1:19">
@@ -1460,15 +1255,8 @@
       <c r="O13" s="3">
         <v>3</v>
       </c>
-      <c r="P13" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>73</v>
-      </c>
-      <c r="R13" t="s">
-        <v>54</v>
-      </c>
+      <c r="Q13"/>
+      <c r="R13"/>
       <c r="S13" s="3"/>
     </row>
     <row r="14" spans="1:19">
@@ -1513,15 +1301,8 @@
       <c r="O14" s="3">
         <v>2</v>
       </c>
-      <c r="P14" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>75</v>
-      </c>
-      <c r="R14" t="s">
-        <v>54</v>
-      </c>
+      <c r="Q14"/>
+      <c r="R14"/>
       <c r="S14" s="3"/>
     </row>
     <row r="15" spans="1:19">
@@ -1566,15 +1347,8 @@
       <c r="O15" s="3">
         <v>3</v>
       </c>
-      <c r="P15" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>77</v>
-      </c>
-      <c r="R15" t="s">
-        <v>54</v>
-      </c>
+      <c r="Q15"/>
+      <c r="R15"/>
       <c r="S15" s="3"/>
     </row>
     <row r="16" spans="1:19">
@@ -1619,15 +1393,8 @@
       <c r="O16" s="3">
         <v>2</v>
       </c>
-      <c r="P16" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>58</v>
-      </c>
-      <c r="R16" t="s">
-        <v>54</v>
-      </c>
+      <c r="Q16"/>
+      <c r="R16"/>
       <c r="S16" s="3"/>
     </row>
     <row r="17" spans="1:19">
@@ -1672,15 +1439,8 @@
       <c r="O17" s="3">
         <v>4</v>
       </c>
-      <c r="P17" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>80</v>
-      </c>
-      <c r="R17" t="s">
-        <v>54</v>
-      </c>
+      <c r="Q17"/>
+      <c r="R17"/>
       <c r="S17" s="3"/>
     </row>
     <row r="18" spans="1:19">
@@ -1725,15 +1485,8 @@
       <c r="O18" s="3">
         <v>2</v>
       </c>
-      <c r="P18" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>60</v>
-      </c>
-      <c r="R18" t="s">
-        <v>54</v>
-      </c>
+      <c r="Q18"/>
+      <c r="R18"/>
       <c r="S18" s="3"/>
     </row>
     <row r="19" spans="1:19">
@@ -1778,15 +1531,8 @@
       <c r="O19" s="3">
         <v>3</v>
       </c>
-      <c r="P19" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>83</v>
-      </c>
-      <c r="R19" t="s">
-        <v>54</v>
-      </c>
+      <c r="Q19"/>
+      <c r="R19"/>
       <c r="S19" s="3"/>
     </row>
     <row r="20" spans="1:19">
@@ -1831,15 +1577,8 @@
       <c r="O20" s="3">
         <v>2</v>
       </c>
-      <c r="P20" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>85</v>
-      </c>
-      <c r="R20" t="s">
-        <v>86</v>
-      </c>
+      <c r="Q20"/>
+      <c r="R20"/>
       <c r="S20" s="3"/>
     </row>
     <row r="21" spans="1:19">
@@ -1884,15 +1623,8 @@
       <c r="O21" s="3">
         <v>3</v>
       </c>
-      <c r="P21" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>88</v>
-      </c>
-      <c r="R21" t="s">
-        <v>54</v>
-      </c>
+      <c r="Q21"/>
+      <c r="R21"/>
       <c r="S21" s="3"/>
     </row>
     <row r="22" spans="1:19">
@@ -1937,15 +1669,8 @@
       <c r="O22" s="3">
         <v>2</v>
       </c>
-      <c r="P22" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>90</v>
-      </c>
-      <c r="R22" t="s">
-        <v>54</v>
-      </c>
+      <c r="Q22"/>
+      <c r="R22"/>
       <c r="S22" s="3"/>
     </row>
     <row r="23" spans="1:19">
@@ -1990,15 +1715,8 @@
       <c r="O23" s="3">
         <v>1</v>
       </c>
-      <c r="P23" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>92</v>
-      </c>
-      <c r="R23" t="s">
-        <v>54</v>
-      </c>
+      <c r="Q23"/>
+      <c r="R23"/>
       <c r="S23" s="3"/>
     </row>
     <row r="24" spans="1:19">
@@ -2043,15 +1761,8 @@
       <c r="O24" s="3">
         <v>1</v>
       </c>
-      <c r="P24" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>94</v>
-      </c>
-      <c r="R24" t="s">
-        <v>86</v>
-      </c>
+      <c r="Q24"/>
+      <c r="R24"/>
       <c r="S24" s="3"/>
     </row>
     <row r="25" spans="1:19">
@@ -2096,15 +1807,8 @@
       <c r="O25" s="3">
         <v>1</v>
       </c>
-      <c r="P25" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>71</v>
-      </c>
-      <c r="R25" t="s">
-        <v>54</v>
-      </c>
+      <c r="Q25"/>
+      <c r="R25"/>
       <c r="S25" s="3"/>
     </row>
     <row r="26" spans="1:19">
@@ -2149,15 +1853,9 @@
       <c r="O26" s="3">
         <v>1</v>
       </c>
-      <c r="P26" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>97</v>
-      </c>
-      <c r="R26" t="s">
-        <v>54</v>
-      </c>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="4"/>
       <c r="S26" s="3"/>
     </row>
   </sheetData>

--- a/FedExApplication/bin/TestFiles/FedExShipments.xlsx
+++ b/FedExApplication/bin/TestFiles/FedExShipments.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="224">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -179,6 +179,513 @@
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>320018475181</t>
+  </si>
+  <si>
+    <t>$27.50</t>
+  </si>
+  <si>
+    <t>320018475207</t>
+  </si>
+  <si>
+    <t>$31.73</t>
+  </si>
+  <si>
+    <t>320018475230</t>
+  </si>
+  <si>
+    <t>$43.36</t>
+  </si>
+  <si>
+    <t>320018475251</t>
+  </si>
+  <si>
+    <t>$56.05</t>
+  </si>
+  <si>
+    <t>320018475295</t>
+  </si>
+  <si>
+    <t>320018475310</t>
+  </si>
+  <si>
+    <t>320018475343</t>
+  </si>
+  <si>
+    <t>$23.27</t>
+  </si>
+  <si>
+    <t>320018475365</t>
+  </si>
+  <si>
+    <t>320018475402</t>
+  </si>
+  <si>
+    <t>$40.19</t>
+  </si>
+  <si>
+    <t>320018475435</t>
+  </si>
+  <si>
+    <t>$52.88</t>
+  </si>
+  <si>
+    <t>320018475479</t>
+  </si>
+  <si>
+    <t>$14.81</t>
+  </si>
+  <si>
+    <t>320018475505</t>
+  </si>
+  <si>
+    <t>$17.98</t>
+  </si>
+  <si>
+    <t>320018475538</t>
+  </si>
+  <si>
+    <t>$21.15</t>
+  </si>
+  <si>
+    <t>320018475550</t>
+  </si>
+  <si>
+    <t>320018475582</t>
+  </si>
+  <si>
+    <t>$42.30</t>
+  </si>
+  <si>
+    <t>320018475696</t>
+  </si>
+  <si>
+    <t>320018475733</t>
+  </si>
+  <si>
+    <t>$53.93</t>
+  </si>
+  <si>
+    <t>320018475766</t>
+  </si>
+  <si>
+    <t>$62.39</t>
+  </si>
+  <si>
+    <t>320018475799</t>
+  </si>
+  <si>
+    <t>$111.04</t>
+  </si>
+  <si>
+    <t>320018475836</t>
+  </si>
+  <si>
+    <t>$223.37</t>
+  </si>
+  <si>
+    <t>320018475869</t>
+  </si>
+  <si>
+    <t>$436.98</t>
+  </si>
+  <si>
+    <t>320018475870</t>
+  </si>
+  <si>
+    <t>$278.12</t>
+  </si>
+  <si>
+    <t>320018475880</t>
+  </si>
+  <si>
+    <t>320018475891</t>
+  </si>
+  <si>
+    <t>$1,171.41</t>
+  </si>
+  <si>
+    <t>320018475906</t>
+  </si>
+  <si>
+    <t>320018482919</t>
+  </si>
+  <si>
+    <t>320018483205</t>
+  </si>
+  <si>
+    <t>320018483238</t>
+  </si>
+  <si>
+    <t>320018483260</t>
+  </si>
+  <si>
+    <t>320018483282</t>
+  </si>
+  <si>
+    <t>320018483330</t>
+  </si>
+  <si>
+    <t>320018483352</t>
+  </si>
+  <si>
+    <t>320018483385</t>
+  </si>
+  <si>
+    <t>320018483411</t>
+  </si>
+  <si>
+    <t>320018483444</t>
+  </si>
+  <si>
+    <t>320018483466</t>
+  </si>
+  <si>
+    <t>320018483503</t>
+  </si>
+  <si>
+    <t>320018483536</t>
+  </si>
+  <si>
+    <t>320018483547</t>
+  </si>
+  <si>
+    <t>320018483570</t>
+  </si>
+  <si>
+    <t>320018483591</t>
+  </si>
+  <si>
+    <t>320018483639</t>
+  </si>
+  <si>
+    <t>320018483650</t>
+  </si>
+  <si>
+    <t>320018483683</t>
+  </si>
+  <si>
+    <t>320018483709</t>
+  </si>
+  <si>
+    <t>320018483731</t>
+  </si>
+  <si>
+    <t>320018483753</t>
+  </si>
+  <si>
+    <t>320018483797</t>
+  </si>
+  <si>
+    <t>320018483812</t>
+  </si>
+  <si>
+    <t>320018483845</t>
+  </si>
+  <si>
+    <t>320018483867</t>
+  </si>
+  <si>
+    <t>320018483890</t>
+  </si>
+  <si>
+    <t>320018483915</t>
+  </si>
+  <si>
+    <t>320018483959</t>
+  </si>
+  <si>
+    <t>320018483970</t>
+  </si>
+  <si>
+    <t>320018484006</t>
+  </si>
+  <si>
+    <t>320018484028</t>
+  </si>
+  <si>
+    <t>320018484050</t>
+  </si>
+  <si>
+    <t>320018484061</t>
+  </si>
+  <si>
+    <t>320018484072</t>
+  </si>
+  <si>
+    <t>320018484083</t>
+  </si>
+  <si>
+    <t>320018484094</t>
+  </si>
+  <si>
+    <t>320018514697</t>
+  </si>
+  <si>
+    <t>$248.51</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>320018529987</t>
+  </si>
+  <si>
+    <t>320018529998</t>
+  </si>
+  <si>
+    <t>320018530020</t>
+  </si>
+  <si>
+    <t>320018530042</t>
+  </si>
+  <si>
+    <t>320018530086</t>
+  </si>
+  <si>
+    <t>320018530101</t>
+  </si>
+  <si>
+    <t>320018530145</t>
+  </si>
+  <si>
+    <t>320018530167</t>
+  </si>
+  <si>
+    <t>320018530190</t>
+  </si>
+  <si>
+    <t>320018530215</t>
+  </si>
+  <si>
+    <t>320018530259</t>
+  </si>
+  <si>
+    <t>320018530270</t>
+  </si>
+  <si>
+    <t>320018530318</t>
+  </si>
+  <si>
+    <t>320018530340</t>
+  </si>
+  <si>
+    <t>320018530384</t>
+  </si>
+  <si>
+    <t>320018530410</t>
+  </si>
+  <si>
+    <t>320018530454</t>
+  </si>
+  <si>
+    <t>320018530487</t>
+  </si>
+  <si>
+    <t>320018530513</t>
+  </si>
+  <si>
+    <t>320018530535</t>
+  </si>
+  <si>
+    <t>320018530568</t>
+  </si>
+  <si>
+    <t>320018530579</t>
+  </si>
+  <si>
+    <t>320018530590</t>
+  </si>
+  <si>
+    <t>320018530605</t>
+  </si>
+  <si>
+    <t>320018530616</t>
+  </si>
+  <si>
+    <t>320018542517</t>
+  </si>
+  <si>
+    <t>320018542528</t>
+  </si>
+  <si>
+    <t>320018542550</t>
+  </si>
+  <si>
+    <t>320018542572</t>
+  </si>
+  <si>
+    <t>320018542610</t>
+  </si>
+  <si>
+    <t>320018542631</t>
+  </si>
+  <si>
+    <t>320018542664</t>
+  </si>
+  <si>
+    <t>320018542686</t>
+  </si>
+  <si>
+    <t>320018542712</t>
+  </si>
+  <si>
+    <t>320018542734</t>
+  </si>
+  <si>
+    <t>320018542778</t>
+  </si>
+  <si>
+    <t>320018542790</t>
+  </si>
+  <si>
+    <t>320018542826</t>
+  </si>
+  <si>
+    <t>320018542848</t>
+  </si>
+  <si>
+    <t>320018542870</t>
+  </si>
+  <si>
+    <t>320018542892</t>
+  </si>
+  <si>
+    <t>320018542930</t>
+  </si>
+  <si>
+    <t>320018542951</t>
+  </si>
+  <si>
+    <t>320018542984</t>
+  </si>
+  <si>
+    <t>320018543009</t>
+  </si>
+  <si>
+    <t>320018543031</t>
+  </si>
+  <si>
+    <t>320018543042</t>
+  </si>
+  <si>
+    <t>320018543053</t>
+  </si>
+  <si>
+    <t>320018543064</t>
+  </si>
+  <si>
+    <t>320018543075</t>
+  </si>
+  <si>
+    <t>320018543086</t>
+  </si>
+  <si>
+    <t>320018543097</t>
+  </si>
+  <si>
+    <t>320018543123</t>
+  </si>
+  <si>
+    <t>320018543145</t>
+  </si>
+  <si>
+    <t>320018543189</t>
+  </si>
+  <si>
+    <t>320018543204</t>
+  </si>
+  <si>
+    <t>320018543237</t>
+  </si>
+  <si>
+    <t>320017958830</t>
+  </si>
+  <si>
+    <t>320017958841</t>
+  </si>
+  <si>
+    <t>320017958874</t>
+  </si>
+  <si>
+    <t>320017958896</t>
+  </si>
+  <si>
+    <t>320017958933</t>
+  </si>
+  <si>
+    <t>320017958955</t>
+  </si>
+  <si>
+    <t>320017958988</t>
+  </si>
+  <si>
+    <t>320017959002</t>
+  </si>
+  <si>
+    <t>320017959035</t>
+  </si>
+  <si>
+    <t>320017959057</t>
+  </si>
+  <si>
+    <t>320017959090</t>
+  </si>
+  <si>
+    <t>320017959116</t>
+  </si>
+  <si>
+    <t>320017959149</t>
+  </si>
+  <si>
+    <t>320017959160</t>
+  </si>
+  <si>
+    <t>320017959208</t>
+  </si>
+  <si>
+    <t>320017959220</t>
+  </si>
+  <si>
+    <t>$85.66</t>
+  </si>
+  <si>
+    <t>320017959263</t>
+  </si>
+  <si>
+    <t>320017959285</t>
+  </si>
+  <si>
+    <t>320017959311</t>
+  </si>
+  <si>
+    <t>320017959333</t>
+  </si>
+  <si>
+    <t>$233.07</t>
+  </si>
+  <si>
+    <t>320017959366</t>
+  </si>
+  <si>
+    <t>$476.72</t>
+  </si>
+  <si>
+    <t>320017959377</t>
+  </si>
+  <si>
+    <t>$306.68</t>
+  </si>
+  <si>
+    <t>320017959388</t>
+  </si>
+  <si>
+    <t>320017959403</t>
+  </si>
+  <si>
+    <t>320017959414</t>
   </si>
 </sst>
 </file>
@@ -745,6 +1252,9 @@
       <c r="O2" s="3">
         <v>1</v>
       </c>
+      <c r="P2" t="s">
+        <v>195</v>
+      </c>
       <c r="Q2" t="s">
         <v>53</v>
       </c>
@@ -795,8 +1305,15 @@
       <c r="O3" s="3">
         <v>3</v>
       </c>
-      <c r="Q3"/>
-      <c r="R3"/>
+      <c r="P3" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R3" t="s">
+        <v>54</v>
+      </c>
       <c r="S3" s="3"/>
     </row>
     <row r="4" spans="1:19">
@@ -841,8 +1358,15 @@
       <c r="O4" s="3">
         <v>2</v>
       </c>
-      <c r="Q4"/>
-      <c r="R4"/>
+      <c r="P4" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>58</v>
+      </c>
+      <c r="R4" t="s">
+        <v>54</v>
+      </c>
       <c r="S4" s="3"/>
     </row>
     <row r="5" spans="1:19">
@@ -887,8 +1411,15 @@
       <c r="O5" s="3">
         <v>4</v>
       </c>
-      <c r="Q5"/>
-      <c r="R5"/>
+      <c r="P5" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R5" t="s">
+        <v>54</v>
+      </c>
       <c r="S5" s="3"/>
     </row>
     <row r="6" spans="1:19">
@@ -933,8 +1464,15 @@
       <c r="O6" s="3">
         <v>2</v>
       </c>
-      <c r="Q6"/>
-      <c r="R6"/>
+      <c r="P6" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>62</v>
+      </c>
+      <c r="R6" t="s">
+        <v>54</v>
+      </c>
       <c r="S6" s="3"/>
     </row>
     <row r="7" spans="1:19">
@@ -979,8 +1517,15 @@
       <c r="O7" s="3">
         <v>3</v>
       </c>
-      <c r="Q7"/>
-      <c r="R7"/>
+      <c r="P7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>52</v>
+      </c>
+      <c r="R7" t="s">
+        <v>54</v>
+      </c>
       <c r="S7" s="3"/>
     </row>
     <row r="8" spans="1:19">
@@ -1025,8 +1570,15 @@
       <c r="O8" s="3">
         <v>2</v>
       </c>
-      <c r="Q8"/>
-      <c r="R8"/>
+      <c r="P8" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>53</v>
+      </c>
+      <c r="R8" t="s">
+        <v>54</v>
+      </c>
       <c r="S8" s="3"/>
     </row>
     <row r="9" spans="1:19">
@@ -1071,8 +1623,15 @@
       <c r="O9" s="3">
         <v>3</v>
       </c>
-      <c r="Q9"/>
-      <c r="R9"/>
+      <c r="P9" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>66</v>
+      </c>
+      <c r="R9" t="s">
+        <v>54</v>
+      </c>
       <c r="S9" s="3"/>
     </row>
     <row r="10" spans="1:19">
@@ -1117,8 +1676,15 @@
       <c r="O10" s="3">
         <v>2</v>
       </c>
-      <c r="Q10"/>
-      <c r="R10"/>
+      <c r="P10" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>56</v>
+      </c>
+      <c r="R10" t="s">
+        <v>54</v>
+      </c>
       <c r="S10" s="3"/>
     </row>
     <row r="11" spans="1:19">
@@ -1163,8 +1729,15 @@
       <c r="O11" s="3">
         <v>4</v>
       </c>
-      <c r="Q11"/>
-      <c r="R11"/>
+      <c r="P11" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>69</v>
+      </c>
+      <c r="R11" t="s">
+        <v>54</v>
+      </c>
       <c r="S11" s="3"/>
     </row>
     <row r="12" spans="1:19">
@@ -1209,8 +1782,15 @@
       <c r="O12" s="3">
         <v>2</v>
       </c>
-      <c r="Q12"/>
-      <c r="R12"/>
+      <c r="P12" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>71</v>
+      </c>
+      <c r="R12" t="s">
+        <v>54</v>
+      </c>
       <c r="S12" s="3"/>
     </row>
     <row r="13" spans="1:19">
@@ -1255,8 +1835,15 @@
       <c r="O13" s="3">
         <v>3</v>
       </c>
-      <c r="Q13"/>
-      <c r="R13"/>
+      <c r="P13" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>73</v>
+      </c>
+      <c r="R13" t="s">
+        <v>54</v>
+      </c>
       <c r="S13" s="3"/>
     </row>
     <row r="14" spans="1:19">
@@ -1301,8 +1888,15 @@
       <c r="O14" s="3">
         <v>2</v>
       </c>
-      <c r="Q14"/>
-      <c r="R14"/>
+      <c r="P14" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>75</v>
+      </c>
+      <c r="R14" t="s">
+        <v>54</v>
+      </c>
       <c r="S14" s="3"/>
     </row>
     <row r="15" spans="1:19">
@@ -1347,8 +1941,15 @@
       <c r="O15" s="3">
         <v>3</v>
       </c>
-      <c r="Q15"/>
-      <c r="R15"/>
+      <c r="P15" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>77</v>
+      </c>
+      <c r="R15" t="s">
+        <v>54</v>
+      </c>
       <c r="S15" s="3"/>
     </row>
     <row r="16" spans="1:19">
@@ -1393,8 +1994,15 @@
       <c r="O16" s="3">
         <v>2</v>
       </c>
-      <c r="Q16"/>
-      <c r="R16"/>
+      <c r="P16" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>58</v>
+      </c>
+      <c r="R16" t="s">
+        <v>54</v>
+      </c>
       <c r="S16" s="3"/>
     </row>
     <row r="17" spans="1:19">
@@ -1439,8 +2047,15 @@
       <c r="O17" s="3">
         <v>4</v>
       </c>
-      <c r="Q17"/>
-      <c r="R17"/>
+      <c r="P17" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>80</v>
+      </c>
+      <c r="R17" t="s">
+        <v>54</v>
+      </c>
       <c r="S17" s="3"/>
     </row>
     <row r="18" spans="1:19">
@@ -1485,8 +2100,15 @@
       <c r="O18" s="3">
         <v>2</v>
       </c>
-      <c r="Q18"/>
-      <c r="R18"/>
+      <c r="P18" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>211</v>
+      </c>
+      <c r="R18" t="s">
+        <v>137</v>
+      </c>
       <c r="S18" s="3"/>
     </row>
     <row r="19" spans="1:19">
@@ -1531,8 +2153,15 @@
       <c r="O19" s="3">
         <v>3</v>
       </c>
-      <c r="Q19"/>
-      <c r="R19"/>
+      <c r="P19" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>83</v>
+      </c>
+      <c r="R19" t="s">
+        <v>54</v>
+      </c>
       <c r="S19" s="3"/>
     </row>
     <row r="20" spans="1:19">
@@ -1577,8 +2206,15 @@
       <c r="O20" s="3">
         <v>2</v>
       </c>
-      <c r="Q20"/>
-      <c r="R20"/>
+      <c r="P20" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>211</v>
+      </c>
+      <c r="R20" t="s">
+        <v>137</v>
+      </c>
       <c r="S20" s="3"/>
     </row>
     <row r="21" spans="1:19">
@@ -1623,8 +2259,15 @@
       <c r="O21" s="3">
         <v>3</v>
       </c>
-      <c r="Q21"/>
-      <c r="R21"/>
+      <c r="P21" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>87</v>
+      </c>
+      <c r="R21" t="s">
+        <v>54</v>
+      </c>
       <c r="S21" s="3"/>
     </row>
     <row r="22" spans="1:19">
@@ -1669,8 +2312,15 @@
       <c r="O22" s="3">
         <v>2</v>
       </c>
-      <c r="Q22"/>
-      <c r="R22"/>
+      <c r="P22" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>216</v>
+      </c>
+      <c r="R22" t="s">
+        <v>137</v>
+      </c>
       <c r="S22" s="3"/>
     </row>
     <row r="23" spans="1:19">
@@ -1715,8 +2365,15 @@
       <c r="O23" s="3">
         <v>1</v>
       </c>
-      <c r="Q23"/>
-      <c r="R23"/>
+      <c r="P23" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>218</v>
+      </c>
+      <c r="R23" t="s">
+        <v>137</v>
+      </c>
       <c r="S23" s="3"/>
     </row>
     <row r="24" spans="1:19">
@@ -1761,8 +2418,15 @@
       <c r="O24" s="3">
         <v>1</v>
       </c>
-      <c r="Q24"/>
-      <c r="R24"/>
+      <c r="P24" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>220</v>
+      </c>
+      <c r="R24" t="s">
+        <v>137</v>
+      </c>
       <c r="S24" s="3"/>
     </row>
     <row r="25" spans="1:19">
@@ -1807,8 +2471,15 @@
       <c r="O25" s="3">
         <v>1</v>
       </c>
-      <c r="Q25"/>
-      <c r="R25"/>
+      <c r="P25" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>71</v>
+      </c>
+      <c r="R25" t="s">
+        <v>54</v>
+      </c>
       <c r="S25" s="3"/>
     </row>
     <row r="26" spans="1:19">
@@ -1853,9 +2524,15 @@
       <c r="O26" s="3">
         <v>1</v>
       </c>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="4"/>
+      <c r="P26" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>96</v>
+      </c>
+      <c r="R26" t="s">
+        <v>54</v>
+      </c>
       <c r="S26" s="3"/>
     </row>
   </sheetData>

--- a/FedExApplication/bin/TestFiles/FedExShipments.xlsx
+++ b/FedExApplication/bin/TestFiles/FedExShipments.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="332">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -686,6 +686,330 @@
   </si>
   <si>
     <t>320017959414</t>
+  </si>
+  <si>
+    <t>320018573159</t>
+  </si>
+  <si>
+    <t>320018573170</t>
+  </si>
+  <si>
+    <t>320018573207</t>
+  </si>
+  <si>
+    <t>320018573229</t>
+  </si>
+  <si>
+    <t>320018573262</t>
+  </si>
+  <si>
+    <t>320018573284</t>
+  </si>
+  <si>
+    <t>320018573310</t>
+  </si>
+  <si>
+    <t>320018575140</t>
+  </si>
+  <si>
+    <t>320018575151</t>
+  </si>
+  <si>
+    <t>320018575184</t>
+  </si>
+  <si>
+    <t>320018575200</t>
+  </si>
+  <si>
+    <t>320018575243</t>
+  </si>
+  <si>
+    <t>320018575265</t>
+  </si>
+  <si>
+    <t>320018575298</t>
+  </si>
+  <si>
+    <t>320018575313</t>
+  </si>
+  <si>
+    <t>320018575346</t>
+  </si>
+  <si>
+    <t>320018575368</t>
+  </si>
+  <si>
+    <t>320018575405</t>
+  </si>
+  <si>
+    <t>320018575427</t>
+  </si>
+  <si>
+    <t>320018575450</t>
+  </si>
+  <si>
+    <t>320018575519</t>
+  </si>
+  <si>
+    <t>320018575520</t>
+  </si>
+  <si>
+    <t>320018575552</t>
+  </si>
+  <si>
+    <t>320018575574</t>
+  </si>
+  <si>
+    <t>320018575611</t>
+  </si>
+  <si>
+    <t>320018575633</t>
+  </si>
+  <si>
+    <t>320018575666</t>
+  </si>
+  <si>
+    <t>320018575688</t>
+  </si>
+  <si>
+    <t>320018575714</t>
+  </si>
+  <si>
+    <t>320018575736</t>
+  </si>
+  <si>
+    <t>320018575770</t>
+  </si>
+  <si>
+    <t>320018575791</t>
+  </si>
+  <si>
+    <t>320018575828</t>
+  </si>
+  <si>
+    <t>320018579146</t>
+  </si>
+  <si>
+    <t>320018579157</t>
+  </si>
+  <si>
+    <t>320018579180</t>
+  </si>
+  <si>
+    <t>320018579190</t>
+  </si>
+  <si>
+    <t>320018579216</t>
+  </si>
+  <si>
+    <t>320018579249</t>
+  </si>
+  <si>
+    <t>320018579282</t>
+  </si>
+  <si>
+    <t>320018579308</t>
+  </si>
+  <si>
+    <t>320018579341</t>
+  </si>
+  <si>
+    <t>320018579363</t>
+  </si>
+  <si>
+    <t>320018579385</t>
+  </si>
+  <si>
+    <t>320018579411</t>
+  </si>
+  <si>
+    <t>320018579444</t>
+  </si>
+  <si>
+    <t>320018579477</t>
+  </si>
+  <si>
+    <t>320018579499</t>
+  </si>
+  <si>
+    <t>320018579525</t>
+  </si>
+  <si>
+    <t>320018579558</t>
+  </si>
+  <si>
+    <t>320018579570</t>
+  </si>
+  <si>
+    <t>320018579591</t>
+  </si>
+  <si>
+    <t>320018579639</t>
+  </si>
+  <si>
+    <t>320018579672</t>
+  </si>
+  <si>
+    <t>320018579694</t>
+  </si>
+  <si>
+    <t>320018579710</t>
+  </si>
+  <si>
+    <t>320018579742</t>
+  </si>
+  <si>
+    <t>320018579775</t>
+  </si>
+  <si>
+    <t>320018579797</t>
+  </si>
+  <si>
+    <t>320018579812</t>
+  </si>
+  <si>
+    <t>320018579845</t>
+  </si>
+  <si>
+    <t>320018579889</t>
+  </si>
+  <si>
+    <t>320018579904</t>
+  </si>
+  <si>
+    <t>320018579926</t>
+  </si>
+  <si>
+    <t>320018579981</t>
+  </si>
+  <si>
+    <t>320018580025</t>
+  </si>
+  <si>
+    <t>320018580047</t>
+  </si>
+  <si>
+    <t>320018580070</t>
+  </si>
+  <si>
+    <t>320018580106</t>
+  </si>
+  <si>
+    <t>320018580139</t>
+  </si>
+  <si>
+    <t>320018580150</t>
+  </si>
+  <si>
+    <t>320018580172</t>
+  </si>
+  <si>
+    <t>320018580209</t>
+  </si>
+  <si>
+    <t>320018580231</t>
+  </si>
+  <si>
+    <t>320018580242</t>
+  </si>
+  <si>
+    <t>320018580253</t>
+  </si>
+  <si>
+    <t>320018580264</t>
+  </si>
+  <si>
+    <t>320018580275</t>
+  </si>
+  <si>
+    <t>320018580286</t>
+  </si>
+  <si>
+    <t>320018580297</t>
+  </si>
+  <si>
+    <t>320018580301</t>
+  </si>
+  <si>
+    <t>320018580312</t>
+  </si>
+  <si>
+    <t>320018580323</t>
+  </si>
+  <si>
+    <t>320018582988</t>
+  </si>
+  <si>
+    <t>320018583002</t>
+  </si>
+  <si>
+    <t>320018583035</t>
+  </si>
+  <si>
+    <t>320018583057</t>
+  </si>
+  <si>
+    <t>320018583090</t>
+  </si>
+  <si>
+    <t>320018583116</t>
+  </si>
+  <si>
+    <t>320018583149</t>
+  </si>
+  <si>
+    <t>320018583160</t>
+  </si>
+  <si>
+    <t>320018583193</t>
+  </si>
+  <si>
+    <t>320018583219</t>
+  </si>
+  <si>
+    <t>320018583285</t>
+  </si>
+  <si>
+    <t>320018583300</t>
+  </si>
+  <si>
+    <t>320018583333</t>
+  </si>
+  <si>
+    <t>320018583355</t>
+  </si>
+  <si>
+    <t>320018583388</t>
+  </si>
+  <si>
+    <t>320018583403</t>
+  </si>
+  <si>
+    <t>320018583470</t>
+  </si>
+  <si>
+    <t>320018583701</t>
+  </si>
+  <si>
+    <t>320018583734</t>
+  </si>
+  <si>
+    <t>320018583756</t>
+  </si>
+  <si>
+    <t>320018583789</t>
+  </si>
+  <si>
+    <t>320018583790</t>
+  </si>
+  <si>
+    <t>320018583804</t>
+  </si>
+  <si>
+    <t>320018583815</t>
+  </si>
+  <si>
+    <t>320018583826</t>
   </si>
 </sst>
 </file>
@@ -1253,7 +1577,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>195</v>
+        <v>307</v>
       </c>
       <c r="Q2" t="s">
         <v>53</v>
@@ -1306,7 +1630,7 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>196</v>
+        <v>308</v>
       </c>
       <c r="Q3" t="s">
         <v>56</v>
@@ -1359,7 +1683,7 @@
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>197</v>
+        <v>309</v>
       </c>
       <c r="Q4" t="s">
         <v>58</v>
@@ -1412,7 +1736,7 @@
         <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>198</v>
+        <v>310</v>
       </c>
       <c r="Q5" t="s">
         <v>60</v>
@@ -1465,7 +1789,7 @@
         <v>2</v>
       </c>
       <c r="P6" t="s">
-        <v>199</v>
+        <v>311</v>
       </c>
       <c r="Q6" t="s">
         <v>62</v>
@@ -1518,7 +1842,7 @@
         <v>3</v>
       </c>
       <c r="P7" t="s">
-        <v>200</v>
+        <v>312</v>
       </c>
       <c r="Q7" t="s">
         <v>52</v>
@@ -1571,7 +1895,7 @@
         <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>201</v>
+        <v>313</v>
       </c>
       <c r="Q8" t="s">
         <v>53</v>
@@ -1624,7 +1948,7 @@
         <v>3</v>
       </c>
       <c r="P9" t="s">
-        <v>202</v>
+        <v>314</v>
       </c>
       <c r="Q9" t="s">
         <v>66</v>
@@ -1677,7 +2001,7 @@
         <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>203</v>
+        <v>315</v>
       </c>
       <c r="Q10" t="s">
         <v>56</v>
@@ -1730,7 +2054,7 @@
         <v>4</v>
       </c>
       <c r="P11" t="s">
-        <v>204</v>
+        <v>316</v>
       </c>
       <c r="Q11" t="s">
         <v>69</v>
@@ -1783,7 +2107,7 @@
         <v>2</v>
       </c>
       <c r="P12" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="Q12" t="s">
         <v>71</v>
@@ -1836,7 +2160,7 @@
         <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>206</v>
+        <v>318</v>
       </c>
       <c r="Q13" t="s">
         <v>73</v>
@@ -1889,7 +2213,7 @@
         <v>2</v>
       </c>
       <c r="P14" t="s">
-        <v>207</v>
+        <v>319</v>
       </c>
       <c r="Q14" t="s">
         <v>75</v>
@@ -1942,7 +2266,7 @@
         <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>208</v>
+        <v>320</v>
       </c>
       <c r="Q15" t="s">
         <v>77</v>
@@ -1995,7 +2319,7 @@
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>209</v>
+        <v>321</v>
       </c>
       <c r="Q16" t="s">
         <v>58</v>
@@ -2048,7 +2372,7 @@
         <v>4</v>
       </c>
       <c r="P17" t="s">
-        <v>210</v>
+        <v>322</v>
       </c>
       <c r="Q17" t="s">
         <v>80</v>
@@ -2101,13 +2425,13 @@
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>212</v>
+        <v>323</v>
       </c>
       <c r="Q18" t="s">
-        <v>211</v>
+        <v>60</v>
       </c>
       <c r="R18" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="S18" s="3"/>
     </row>
@@ -2154,7 +2478,7 @@
         <v>3</v>
       </c>
       <c r="P19" t="s">
-        <v>213</v>
+        <v>324</v>
       </c>
       <c r="Q19" t="s">
         <v>83</v>
@@ -2207,13 +2531,13 @@
         <v>2</v>
       </c>
       <c r="P20" t="s">
-        <v>214</v>
+        <v>325</v>
       </c>
       <c r="Q20" t="s">
-        <v>211</v>
+        <v>85</v>
       </c>
       <c r="R20" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="S20" s="3"/>
     </row>
@@ -2260,7 +2584,7 @@
         <v>3</v>
       </c>
       <c r="P21" t="s">
-        <v>215</v>
+        <v>326</v>
       </c>
       <c r="Q21" t="s">
         <v>87</v>
@@ -2313,13 +2637,13 @@
         <v>2</v>
       </c>
       <c r="P22" t="s">
-        <v>217</v>
+        <v>327</v>
       </c>
       <c r="Q22" t="s">
-        <v>216</v>
+        <v>89</v>
       </c>
       <c r="R22" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="S22" s="3"/>
     </row>
@@ -2366,13 +2690,13 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>219</v>
+        <v>328</v>
       </c>
       <c r="Q23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="R23" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="S23" s="3"/>
     </row>
@@ -2419,13 +2743,13 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>221</v>
+        <v>329</v>
       </c>
       <c r="Q24" t="s">
-        <v>220</v>
+        <v>93</v>
       </c>
       <c r="R24" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="S24" s="3"/>
     </row>
@@ -2472,7 +2796,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>222</v>
+        <v>330</v>
       </c>
       <c r="Q25" t="s">
         <v>71</v>
@@ -2525,7 +2849,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>223</v>
+        <v>331</v>
       </c>
       <c r="Q26" t="s">
         <v>96</v>

--- a/FedExApplication/bin/TestFiles/FedExShipments.xlsx
+++ b/FedExApplication/bin/TestFiles/FedExShipments.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="358">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -1010,6 +1010,84 @@
   </si>
   <si>
     <t>320018583826</t>
+  </si>
+  <si>
+    <t>320018586090</t>
+  </si>
+  <si>
+    <t>320018586104</t>
+  </si>
+  <si>
+    <t>320018586137</t>
+  </si>
+  <si>
+    <t>320018586159</t>
+  </si>
+  <si>
+    <t>320018586192</t>
+  </si>
+  <si>
+    <t>320018586218</t>
+  </si>
+  <si>
+    <t>320018586240</t>
+  </si>
+  <si>
+    <t>320018586262</t>
+  </si>
+  <si>
+    <t>320018586295</t>
+  </si>
+  <si>
+    <t>320018586310</t>
+  </si>
+  <si>
+    <t>320018586354</t>
+  </si>
+  <si>
+    <t>320018586376</t>
+  </si>
+  <si>
+    <t>320018586402</t>
+  </si>
+  <si>
+    <t>320018586424</t>
+  </si>
+  <si>
+    <t>320018586457</t>
+  </si>
+  <si>
+    <t>320018586479</t>
+  </si>
+  <si>
+    <t>320018586516</t>
+  </si>
+  <si>
+    <t>320018586538</t>
+  </si>
+  <si>
+    <t>$104.69</t>
+  </si>
+  <si>
+    <t>320018586560</t>
+  </si>
+  <si>
+    <t>320018586582</t>
+  </si>
+  <si>
+    <t>320018586619</t>
+  </si>
+  <si>
+    <t>320018586620</t>
+  </si>
+  <si>
+    <t>320018586630</t>
+  </si>
+  <si>
+    <t>320018586641</t>
+  </si>
+  <si>
+    <t>320018586652</t>
   </si>
 </sst>
 </file>
@@ -1451,7 +1529,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="R2" sqref="R2:R26"/>
@@ -1577,7 +1655,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="Q2" t="s">
         <v>53</v>
@@ -1630,7 +1708,7 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="Q3" t="s">
         <v>56</v>
@@ -1683,7 +1761,7 @@
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="Q4" t="s">
         <v>58</v>
@@ -1736,7 +1814,7 @@
         <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="Q5" t="s">
         <v>60</v>
@@ -1789,7 +1867,7 @@
         <v>2</v>
       </c>
       <c r="P6" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="Q6" t="s">
         <v>62</v>
@@ -1842,7 +1920,7 @@
         <v>3</v>
       </c>
       <c r="P7" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="Q7" t="s">
         <v>52</v>
@@ -1895,7 +1973,7 @@
         <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>313</v>
+        <v>338</v>
       </c>
       <c r="Q8" t="s">
         <v>53</v>
@@ -1948,7 +2026,7 @@
         <v>3</v>
       </c>
       <c r="P9" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="Q9" t="s">
         <v>66</v>
@@ -2001,7 +2079,7 @@
         <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="Q10" t="s">
         <v>56</v>
@@ -2054,7 +2132,7 @@
         <v>4</v>
       </c>
       <c r="P11" t="s">
-        <v>316</v>
+        <v>341</v>
       </c>
       <c r="Q11" t="s">
         <v>69</v>
@@ -2107,7 +2185,7 @@
         <v>2</v>
       </c>
       <c r="P12" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="Q12" t="s">
         <v>71</v>
@@ -2160,7 +2238,7 @@
         <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="Q13" t="s">
         <v>73</v>
@@ -2213,7 +2291,7 @@
         <v>2</v>
       </c>
       <c r="P14" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="Q14" t="s">
         <v>75</v>
@@ -2266,7 +2344,7 @@
         <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
       <c r="Q15" t="s">
         <v>77</v>
@@ -2319,7 +2397,7 @@
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="Q16" t="s">
         <v>58</v>
@@ -2372,7 +2450,7 @@
         <v>4</v>
       </c>
       <c r="P17" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="Q17" t="s">
         <v>80</v>
@@ -2425,7 +2503,7 @@
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>323</v>
+        <v>348</v>
       </c>
       <c r="Q18" t="s">
         <v>60</v>
@@ -2478,7 +2556,7 @@
         <v>3</v>
       </c>
       <c r="P19" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="Q19" t="s">
         <v>83</v>
@@ -2531,13 +2609,13 @@
         <v>2</v>
       </c>
       <c r="P20" t="s">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="Q20" t="s">
-        <v>85</v>
+        <v>350</v>
       </c>
       <c r="R20" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="S20" s="3"/>
     </row>
@@ -2584,7 +2662,7 @@
         <v>3</v>
       </c>
       <c r="P21" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="Q21" t="s">
         <v>87</v>
@@ -2637,7 +2715,7 @@
         <v>2</v>
       </c>
       <c r="P22" t="s">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="Q22" t="s">
         <v>89</v>
@@ -2690,7 +2768,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c r="Q23" t="s">
         <v>91</v>
@@ -2743,7 +2821,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="Q24" t="s">
         <v>93</v>
@@ -2796,7 +2874,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>330</v>
+        <v>356</v>
       </c>
       <c r="Q25" t="s">
         <v>71</v>
@@ -2849,7 +2927,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="Q26" t="s">
         <v>96</v>

--- a/FedExApplication/bin/TestFiles/FedExShipments.xlsx
+++ b/FedExApplication/bin/TestFiles/FedExShipments.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2972" uniqueCount="848">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -1088,6 +1088,1476 @@
   </si>
   <si>
     <t>320018586652</t>
+  </si>
+  <si>
+    <t>320018606316</t>
+  </si>
+  <si>
+    <t>320018606327</t>
+  </si>
+  <si>
+    <t>320018606350</t>
+  </si>
+  <si>
+    <t>320018606371</t>
+  </si>
+  <si>
+    <t>320018606419</t>
+  </si>
+  <si>
+    <t>320018606430</t>
+  </si>
+  <si>
+    <t>320018606463</t>
+  </si>
+  <si>
+    <t>320018606485</t>
+  </si>
+  <si>
+    <t>320018606511</t>
+  </si>
+  <si>
+    <t>320018606533</t>
+  </si>
+  <si>
+    <t>320018606577</t>
+  </si>
+  <si>
+    <t>320018606599</t>
+  </si>
+  <si>
+    <t>320018606625</t>
+  </si>
+  <si>
+    <t>320018606647</t>
+  </si>
+  <si>
+    <t>320018606670</t>
+  </si>
+  <si>
+    <t>320018606691</t>
+  </si>
+  <si>
+    <t>320018606739</t>
+  </si>
+  <si>
+    <t>320018606750</t>
+  </si>
+  <si>
+    <t>320018606783</t>
+  </si>
+  <si>
+    <t>320018606809</t>
+  </si>
+  <si>
+    <t>320018606831</t>
+  </si>
+  <si>
+    <t>320018621062</t>
+  </si>
+  <si>
+    <t>320018621073</t>
+  </si>
+  <si>
+    <t>320018621100</t>
+  </si>
+  <si>
+    <t>320018621121</t>
+  </si>
+  <si>
+    <t>320018621165</t>
+  </si>
+  <si>
+    <t>320018621187</t>
+  </si>
+  <si>
+    <t>320018621213</t>
+  </si>
+  <si>
+    <t>320018621235</t>
+  </si>
+  <si>
+    <t>320018621268</t>
+  </si>
+  <si>
+    <t>320018621280</t>
+  </si>
+  <si>
+    <t>320018621327</t>
+  </si>
+  <si>
+    <t>320018621349</t>
+  </si>
+  <si>
+    <t>320018621371</t>
+  </si>
+  <si>
+    <t>320018621393</t>
+  </si>
+  <si>
+    <t>320018621420</t>
+  </si>
+  <si>
+    <t>320018621441</t>
+  </si>
+  <si>
+    <t>320018621485</t>
+  </si>
+  <si>
+    <t>320018621500</t>
+  </si>
+  <si>
+    <t>320018621533</t>
+  </si>
+  <si>
+    <t>320018621555</t>
+  </si>
+  <si>
+    <t>320018621588</t>
+  </si>
+  <si>
+    <t>320018621599</t>
+  </si>
+  <si>
+    <t>320018621603</t>
+  </si>
+  <si>
+    <t>320018621614</t>
+  </si>
+  <si>
+    <t>320018621625</t>
+  </si>
+  <si>
+    <t>320018624006</t>
+  </si>
+  <si>
+    <t>320018624657</t>
+  </si>
+  <si>
+    <t>320018624922</t>
+  </si>
+  <si>
+    <t>320018624933</t>
+  </si>
+  <si>
+    <t>320018624966</t>
+  </si>
+  <si>
+    <t>320018624988</t>
+  </si>
+  <si>
+    <t>320018625024</t>
+  </si>
+  <si>
+    <t>320018625046</t>
+  </si>
+  <si>
+    <t>320018625079</t>
+  </si>
+  <si>
+    <t>320018625090</t>
+  </si>
+  <si>
+    <t>320018625127</t>
+  </si>
+  <si>
+    <t>320018625149</t>
+  </si>
+  <si>
+    <t>320018625182</t>
+  </si>
+  <si>
+    <t>320018625220</t>
+  </si>
+  <si>
+    <t>320018625252</t>
+  </si>
+  <si>
+    <t>320018625274</t>
+  </si>
+  <si>
+    <t>320018625300</t>
+  </si>
+  <si>
+    <t>320018625322</t>
+  </si>
+  <si>
+    <t>320018625366</t>
+  </si>
+  <si>
+    <t>320018625388</t>
+  </si>
+  <si>
+    <t>320018625414</t>
+  </si>
+  <si>
+    <t>320018625436</t>
+  </si>
+  <si>
+    <t>320018625469</t>
+  </si>
+  <si>
+    <t>320018625470</t>
+  </si>
+  <si>
+    <t>320018625480</t>
+  </si>
+  <si>
+    <t>320018625491</t>
+  </si>
+  <si>
+    <t>320018625506</t>
+  </si>
+  <si>
+    <t>320018628560</t>
+  </si>
+  <si>
+    <t>320018628571</t>
+  </si>
+  <si>
+    <t>320018628608</t>
+  </si>
+  <si>
+    <t>320018628620</t>
+  </si>
+  <si>
+    <t>320018628663</t>
+  </si>
+  <si>
+    <t>320018628685</t>
+  </si>
+  <si>
+    <t>320018628711</t>
+  </si>
+  <si>
+    <t>320018628733</t>
+  </si>
+  <si>
+    <t>320018628766</t>
+  </si>
+  <si>
+    <t>320018628788</t>
+  </si>
+  <si>
+    <t>320018628825</t>
+  </si>
+  <si>
+    <t>320018628847</t>
+  </si>
+  <si>
+    <t>320018628870</t>
+  </si>
+  <si>
+    <t>320018630457</t>
+  </si>
+  <si>
+    <t>320018630468</t>
+  </si>
+  <si>
+    <t>320018630490</t>
+  </si>
+  <si>
+    <t>320018630733</t>
+  </si>
+  <si>
+    <t>320018630777</t>
+  </si>
+  <si>
+    <t>320018630799</t>
+  </si>
+  <si>
+    <t>320018630825</t>
+  </si>
+  <si>
+    <t>320018630847</t>
+  </si>
+  <si>
+    <t>320018630870</t>
+  </si>
+  <si>
+    <t>320018630891</t>
+  </si>
+  <si>
+    <t>320018630939</t>
+  </si>
+  <si>
+    <t>320018630950</t>
+  </si>
+  <si>
+    <t>320018630983</t>
+  </si>
+  <si>
+    <t>320018631008</t>
+  </si>
+  <si>
+    <t>320018631030</t>
+  </si>
+  <si>
+    <t>320018631063</t>
+  </si>
+  <si>
+    <t>320018631100</t>
+  </si>
+  <si>
+    <t>320018631133</t>
+  </si>
+  <si>
+    <t>320018631177</t>
+  </si>
+  <si>
+    <t>320018631199</t>
+  </si>
+  <si>
+    <t>320018631225</t>
+  </si>
+  <si>
+    <t>320018631236</t>
+  </si>
+  <si>
+    <t>320018631247</t>
+  </si>
+  <si>
+    <t>320018631269</t>
+  </si>
+  <si>
+    <t>320018631270</t>
+  </si>
+  <si>
+    <t>320018638745</t>
+  </si>
+  <si>
+    <t>320018638756</t>
+  </si>
+  <si>
+    <t>320018638789</t>
+  </si>
+  <si>
+    <t>320018638804</t>
+  </si>
+  <si>
+    <t>320018638848</t>
+  </si>
+  <si>
+    <t>320018638860</t>
+  </si>
+  <si>
+    <t>320018638892</t>
+  </si>
+  <si>
+    <t>320018638918</t>
+  </si>
+  <si>
+    <t>320018638940</t>
+  </si>
+  <si>
+    <t>320018638962</t>
+  </si>
+  <si>
+    <t>320018639009</t>
+  </si>
+  <si>
+    <t>320018639020</t>
+  </si>
+  <si>
+    <t>320018639053</t>
+  </si>
+  <si>
+    <t>320018639075</t>
+  </si>
+  <si>
+    <t>320018639101</t>
+  </si>
+  <si>
+    <t>320018639123</t>
+  </si>
+  <si>
+    <t>320018639167</t>
+  </si>
+  <si>
+    <t>320018639189</t>
+  </si>
+  <si>
+    <t>320018639215</t>
+  </si>
+  <si>
+    <t>320018639237</t>
+  </si>
+  <si>
+    <t>320018639260</t>
+  </si>
+  <si>
+    <t>320018639270</t>
+  </si>
+  <si>
+    <t>320018639281</t>
+  </si>
+  <si>
+    <t>320018639292</t>
+  </si>
+  <si>
+    <t>320018639307</t>
+  </si>
+  <si>
+    <t>320018648963</t>
+  </si>
+  <si>
+    <t>320018648996</t>
+  </si>
+  <si>
+    <t>320018649021</t>
+  </si>
+  <si>
+    <t>320018649065</t>
+  </si>
+  <si>
+    <t>320018649098</t>
+  </si>
+  <si>
+    <t>320018649135</t>
+  </si>
+  <si>
+    <t>320018649157</t>
+  </si>
+  <si>
+    <t>320018649190</t>
+  </si>
+  <si>
+    <t>320018649216</t>
+  </si>
+  <si>
+    <t>320018649250</t>
+  </si>
+  <si>
+    <t>320018649271</t>
+  </si>
+  <si>
+    <t>320018649319</t>
+  </si>
+  <si>
+    <t>320018649330</t>
+  </si>
+  <si>
+    <t>320018649363</t>
+  </si>
+  <si>
+    <t>320018649385</t>
+  </si>
+  <si>
+    <t>320018649411</t>
+  </si>
+  <si>
+    <t>320018649422</t>
+  </si>
+  <si>
+    <t>320018649433</t>
+  </si>
+  <si>
+    <t>320018649444</t>
+  </si>
+  <si>
+    <t>320018649455</t>
+  </si>
+  <si>
+    <t>320018679826</t>
+  </si>
+  <si>
+    <t>320018679837</t>
+  </si>
+  <si>
+    <t>320018679860</t>
+  </si>
+  <si>
+    <t>320018679881</t>
+  </si>
+  <si>
+    <t>320018679929</t>
+  </si>
+  <si>
+    <t>320018679940</t>
+  </si>
+  <si>
+    <t>320018679973</t>
+  </si>
+  <si>
+    <t>320018679995</t>
+  </si>
+  <si>
+    <t>320018680028</t>
+  </si>
+  <si>
+    <t>320018680040</t>
+  </si>
+  <si>
+    <t>320018680083</t>
+  </si>
+  <si>
+    <t>320018680109</t>
+  </si>
+  <si>
+    <t>320018680131</t>
+  </si>
+  <si>
+    <t>320018680153</t>
+  </si>
+  <si>
+    <t>320018680186</t>
+  </si>
+  <si>
+    <t>320018680201</t>
+  </si>
+  <si>
+    <t>320018680245</t>
+  </si>
+  <si>
+    <t>320018680278</t>
+  </si>
+  <si>
+    <t>320018680304</t>
+  </si>
+  <si>
+    <t>320018680326</t>
+  </si>
+  <si>
+    <t>320018680359</t>
+  </si>
+  <si>
+    <t>320018680360</t>
+  </si>
+  <si>
+    <t>320018680370</t>
+  </si>
+  <si>
+    <t>320018680381</t>
+  </si>
+  <si>
+    <t>320018680392</t>
+  </si>
+  <si>
+    <t>320018686585</t>
+  </si>
+  <si>
+    <t>320018686596</t>
+  </si>
+  <si>
+    <t>320018686622</t>
+  </si>
+  <si>
+    <t>320018686644</t>
+  </si>
+  <si>
+    <t>320018686688</t>
+  </si>
+  <si>
+    <t>320018686703</t>
+  </si>
+  <si>
+    <t>320018686736</t>
+  </si>
+  <si>
+    <t>320018686758</t>
+  </si>
+  <si>
+    <t>320018686780</t>
+  </si>
+  <si>
+    <t>320018686806</t>
+  </si>
+  <si>
+    <t>320018686840</t>
+  </si>
+  <si>
+    <t>320018686861</t>
+  </si>
+  <si>
+    <t>320018686894</t>
+  </si>
+  <si>
+    <t>320018686910</t>
+  </si>
+  <si>
+    <t>320018686942</t>
+  </si>
+  <si>
+    <t>320018686964</t>
+  </si>
+  <si>
+    <t>320018687000</t>
+  </si>
+  <si>
+    <t>320018687022</t>
+  </si>
+  <si>
+    <t>320018687055</t>
+  </si>
+  <si>
+    <t>320018687077</t>
+  </si>
+  <si>
+    <t>320018687103</t>
+  </si>
+  <si>
+    <t>320018687114</t>
+  </si>
+  <si>
+    <t>320018687125</t>
+  </si>
+  <si>
+    <t>320018687136</t>
+  </si>
+  <si>
+    <t>320018687147</t>
+  </si>
+  <si>
+    <t>320018690202</t>
+  </si>
+  <si>
+    <t>320018690213</t>
+  </si>
+  <si>
+    <t>320018690246</t>
+  </si>
+  <si>
+    <t>320018690268</t>
+  </si>
+  <si>
+    <t>320018690305</t>
+  </si>
+  <si>
+    <t>320018690327</t>
+  </si>
+  <si>
+    <t>320018690350</t>
+  </si>
+  <si>
+    <t>320018690371</t>
+  </si>
+  <si>
+    <t>320018690408</t>
+  </si>
+  <si>
+    <t>320018690420</t>
+  </si>
+  <si>
+    <t>320018690463</t>
+  </si>
+  <si>
+    <t>320018690485</t>
+  </si>
+  <si>
+    <t>320018690511</t>
+  </si>
+  <si>
+    <t>320018690533</t>
+  </si>
+  <si>
+    <t>320018690566</t>
+  </si>
+  <si>
+    <t>320018690588</t>
+  </si>
+  <si>
+    <t>320018690625</t>
+  </si>
+  <si>
+    <t>320018690647</t>
+  </si>
+  <si>
+    <t>320018690670</t>
+  </si>
+  <si>
+    <t>320018690691</t>
+  </si>
+  <si>
+    <t>320018690728</t>
+  </si>
+  <si>
+    <t>320018690739</t>
+  </si>
+  <si>
+    <t>320018690740</t>
+  </si>
+  <si>
+    <t>320018690750</t>
+  </si>
+  <si>
+    <t>320018690761</t>
+  </si>
+  <si>
+    <t>320018703526</t>
+  </si>
+  <si>
+    <t>320018703537</t>
+  </si>
+  <si>
+    <t>320018703560</t>
+  </si>
+  <si>
+    <t>320018703581</t>
+  </si>
+  <si>
+    <t>320018703629</t>
+  </si>
+  <si>
+    <t>320018703640</t>
+  </si>
+  <si>
+    <t>320018703673</t>
+  </si>
+  <si>
+    <t>320018703695</t>
+  </si>
+  <si>
+    <t>320018703721</t>
+  </si>
+  <si>
+    <t>320018703743</t>
+  </si>
+  <si>
+    <t>320018703787</t>
+  </si>
+  <si>
+    <t>320018703802</t>
+  </si>
+  <si>
+    <t>320018703835</t>
+  </si>
+  <si>
+    <t>320018703857</t>
+  </si>
+  <si>
+    <t>320018703880</t>
+  </si>
+  <si>
+    <t>320018703905</t>
+  </si>
+  <si>
+    <t>320018703949</t>
+  </si>
+  <si>
+    <t>320018703960</t>
+  </si>
+  <si>
+    <t>320018703993</t>
+  </si>
+  <si>
+    <t>320018704018</t>
+  </si>
+  <si>
+    <t>320018704040</t>
+  </si>
+  <si>
+    <t>320018704051</t>
+  </si>
+  <si>
+    <t>320018704062</t>
+  </si>
+  <si>
+    <t>320018704073</t>
+  </si>
+  <si>
+    <t>320018704084</t>
+  </si>
+  <si>
+    <t>320018727924</t>
+  </si>
+  <si>
+    <t>320018727935</t>
+  </si>
+  <si>
+    <t>320018727968</t>
+  </si>
+  <si>
+    <t>320018727980</t>
+  </si>
+  <si>
+    <t>320018728026</t>
+  </si>
+  <si>
+    <t>320018728048</t>
+  </si>
+  <si>
+    <t>320018728070</t>
+  </si>
+  <si>
+    <t>320018728092</t>
+  </si>
+  <si>
+    <t>320018728129</t>
+  </si>
+  <si>
+    <t>320018728140</t>
+  </si>
+  <si>
+    <t>320018728184</t>
+  </si>
+  <si>
+    <t>320018728200</t>
+  </si>
+  <si>
+    <t>320018728232</t>
+  </si>
+  <si>
+    <t>320018728254</t>
+  </si>
+  <si>
+    <t>320018728287</t>
+  </si>
+  <si>
+    <t>320018728302</t>
+  </si>
+  <si>
+    <t>320018728346</t>
+  </si>
+  <si>
+    <t>320018728368</t>
+  </si>
+  <si>
+    <t>320018728390</t>
+  </si>
+  <si>
+    <t>320018728427</t>
+  </si>
+  <si>
+    <t>320018728450</t>
+  </si>
+  <si>
+    <t>320018728460</t>
+  </si>
+  <si>
+    <t>320018728471</t>
+  </si>
+  <si>
+    <t>320018728482</t>
+  </si>
+  <si>
+    <t>320018728493</t>
+  </si>
+  <si>
+    <t>320018735874</t>
+  </si>
+  <si>
+    <t>320018735885</t>
+  </si>
+  <si>
+    <t>320018735911</t>
+  </si>
+  <si>
+    <t>320018735933</t>
+  </si>
+  <si>
+    <t>320018735977</t>
+  </si>
+  <si>
+    <t>320018735999</t>
+  </si>
+  <si>
+    <t>320018736024</t>
+  </si>
+  <si>
+    <t>320018736046</t>
+  </si>
+  <si>
+    <t>320018736079</t>
+  </si>
+  <si>
+    <t>320018736090</t>
+  </si>
+  <si>
+    <t>320018736138</t>
+  </si>
+  <si>
+    <t>320018736150</t>
+  </si>
+  <si>
+    <t>320018736182</t>
+  </si>
+  <si>
+    <t>320018736208</t>
+  </si>
+  <si>
+    <t>320018736230</t>
+  </si>
+  <si>
+    <t>320018736252</t>
+  </si>
+  <si>
+    <t>320018736296</t>
+  </si>
+  <si>
+    <t>320018736311</t>
+  </si>
+  <si>
+    <t>320018736344</t>
+  </si>
+  <si>
+    <t>320018736366</t>
+  </si>
+  <si>
+    <t>320018736399</t>
+  </si>
+  <si>
+    <t>320018736403</t>
+  </si>
+  <si>
+    <t>320018736414</t>
+  </si>
+  <si>
+    <t>320018736425</t>
+  </si>
+  <si>
+    <t>320018736436</t>
+  </si>
+  <si>
+    <t>320018736470</t>
+  </si>
+  <si>
+    <t>320018736480</t>
+  </si>
+  <si>
+    <t>320018736517</t>
+  </si>
+  <si>
+    <t>320018736539</t>
+  </si>
+  <si>
+    <t>320018736572</t>
+  </si>
+  <si>
+    <t>320018736594</t>
+  </si>
+  <si>
+    <t>320018738910</t>
+  </si>
+  <si>
+    <t>320018738921</t>
+  </si>
+  <si>
+    <t>320018738954</t>
+  </si>
+  <si>
+    <t>320018738976</t>
+  </si>
+  <si>
+    <t>320018739012</t>
+  </si>
+  <si>
+    <t>320018739034</t>
+  </si>
+  <si>
+    <t>320018739067</t>
+  </si>
+  <si>
+    <t>320018739089</t>
+  </si>
+  <si>
+    <t>320018739310</t>
+  </si>
+  <si>
+    <t>320018739332</t>
+  </si>
+  <si>
+    <t>320018739376</t>
+  </si>
+  <si>
+    <t>320018739398</t>
+  </si>
+  <si>
+    <t>320018739424</t>
+  </si>
+  <si>
+    <t>320018739446</t>
+  </si>
+  <si>
+    <t>320018739479</t>
+  </si>
+  <si>
+    <t>320018739490</t>
+  </si>
+  <si>
+    <t>320018739538</t>
+  </si>
+  <si>
+    <t>320018739560</t>
+  </si>
+  <si>
+    <t>320018739593</t>
+  </si>
+  <si>
+    <t>320018739619</t>
+  </si>
+  <si>
+    <t>320018739641</t>
+  </si>
+  <si>
+    <t>320018739652</t>
+  </si>
+  <si>
+    <t>320018739663</t>
+  </si>
+  <si>
+    <t>320018739674</t>
+  </si>
+  <si>
+    <t>320018739685</t>
+  </si>
+  <si>
+    <t>320018744077</t>
+  </si>
+  <si>
+    <t>320018744088</t>
+  </si>
+  <si>
+    <t>320018744114</t>
+  </si>
+  <si>
+    <t>320018744136</t>
+  </si>
+  <si>
+    <t>320018744170</t>
+  </si>
+  <si>
+    <t>320018744191</t>
+  </si>
+  <si>
+    <t>320018744228</t>
+  </si>
+  <si>
+    <t>320018744240</t>
+  </si>
+  <si>
+    <t>320018744272</t>
+  </si>
+  <si>
+    <t>320018744294</t>
+  </si>
+  <si>
+    <t>320018744331</t>
+  </si>
+  <si>
+    <t>320018744353</t>
+  </si>
+  <si>
+    <t>320018744386</t>
+  </si>
+  <si>
+    <t>320018744401</t>
+  </si>
+  <si>
+    <t>320018744434</t>
+  </si>
+  <si>
+    <t>320018744456</t>
+  </si>
+  <si>
+    <t>320018744490</t>
+  </si>
+  <si>
+    <t>320018744515</t>
+  </si>
+  <si>
+    <t>320018744548</t>
+  </si>
+  <si>
+    <t>320018744560</t>
+  </si>
+  <si>
+    <t>320018744592</t>
+  </si>
+  <si>
+    <t>320018744607</t>
+  </si>
+  <si>
+    <t>320018744618</t>
+  </si>
+  <si>
+    <t>320018744629</t>
+  </si>
+  <si>
+    <t>320018744630</t>
+  </si>
+  <si>
+    <t>320018753715</t>
+  </si>
+  <si>
+    <t>320018753726</t>
+  </si>
+  <si>
+    <t>320018753759</t>
+  </si>
+  <si>
+    <t>320018753770</t>
+  </si>
+  <si>
+    <t>320018753818</t>
+  </si>
+  <si>
+    <t>$273.38</t>
+  </si>
+  <si>
+    <t>320018753840</t>
+  </si>
+  <si>
+    <t>320018753884</t>
+  </si>
+  <si>
+    <t>320018753900</t>
+  </si>
+  <si>
+    <t>320018753932</t>
+  </si>
+  <si>
+    <t>320018753954</t>
+  </si>
+  <si>
+    <t>320018753998</t>
+  </si>
+  <si>
+    <t>320018754012</t>
+  </si>
+  <si>
+    <t>320018754045</t>
+  </si>
+  <si>
+    <t>320018754067</t>
+  </si>
+  <si>
+    <t>320018754090</t>
+  </si>
+  <si>
+    <t>320018754115</t>
+  </si>
+  <si>
+    <t>320018754159</t>
+  </si>
+  <si>
+    <t>320018754170</t>
+  </si>
+  <si>
+    <t>320018754207</t>
+  </si>
+  <si>
+    <t>320018754230</t>
+  </si>
+  <si>
+    <t>320018754262</t>
+  </si>
+  <si>
+    <t>320018754273</t>
+  </si>
+  <si>
+    <t>320018754284</t>
+  </si>
+  <si>
+    <t>320018754295</t>
+  </si>
+  <si>
+    <t>320018754300</t>
+  </si>
+  <si>
+    <t>320018763304</t>
+  </si>
+  <si>
+    <t>320018763315</t>
+  </si>
+  <si>
+    <t>320018763348</t>
+  </si>
+  <si>
+    <t>320018763360</t>
+  </si>
+  <si>
+    <t>320018763407</t>
+  </si>
+  <si>
+    <t>320018763429</t>
+  </si>
+  <si>
+    <t>320018763451</t>
+  </si>
+  <si>
+    <t>320018763473</t>
+  </si>
+  <si>
+    <t>320018763500</t>
+  </si>
+  <si>
+    <t>320018763521</t>
+  </si>
+  <si>
+    <t>320018763565</t>
+  </si>
+  <si>
+    <t>320018763587</t>
+  </si>
+  <si>
+    <t>320018763613</t>
+  </si>
+  <si>
+    <t>320018763635</t>
+  </si>
+  <si>
+    <t>320018763668</t>
+  </si>
+  <si>
+    <t>320018763680</t>
+  </si>
+  <si>
+    <t>320018763727</t>
+  </si>
+  <si>
+    <t>320018763749</t>
+  </si>
+  <si>
+    <t>320018763771</t>
+  </si>
+  <si>
+    <t>320018763793</t>
+  </si>
+  <si>
+    <t>320018763820</t>
+  </si>
+  <si>
+    <t>320018763830</t>
+  </si>
+  <si>
+    <t>320018763841</t>
+  </si>
+  <si>
+    <t>320018763852</t>
+  </si>
+  <si>
+    <t>320018763863</t>
+  </si>
+  <si>
+    <t>320018763874</t>
+  </si>
+  <si>
+    <t>320018763885</t>
+  </si>
+  <si>
+    <t>320018763911</t>
+  </si>
+  <si>
+    <t>320018763933</t>
+  </si>
+  <si>
+    <t>320018763977</t>
+  </si>
+  <si>
+    <t>320018763999</t>
+  </si>
+  <si>
+    <t>320018764024</t>
+  </si>
+  <si>
+    <t>320018764046</t>
+  </si>
+  <si>
+    <t>320018764079</t>
+  </si>
+  <si>
+    <t>320018764090</t>
+  </si>
+  <si>
+    <t>320018764138</t>
+  </si>
+  <si>
+    <t>320018764150</t>
+  </si>
+  <si>
+    <t>320018764182</t>
+  </si>
+  <si>
+    <t>320018764208</t>
+  </si>
+  <si>
+    <t>320018764230</t>
+  </si>
+  <si>
+    <t>320018764252</t>
+  </si>
+  <si>
+    <t>320018764296</t>
+  </si>
+  <si>
+    <t>320018764311</t>
+  </si>
+  <si>
+    <t>320018764344</t>
+  </si>
+  <si>
+    <t>320018764366</t>
+  </si>
+  <si>
+    <t>320018764399</t>
+  </si>
+  <si>
+    <t>320018764403</t>
+  </si>
+  <si>
+    <t>320018764414</t>
+  </si>
+  <si>
+    <t>320018764425</t>
+  </si>
+  <si>
+    <t>320018764436</t>
+  </si>
+  <si>
+    <t>320018787735</t>
+  </si>
+  <si>
+    <t>320018787746</t>
+  </si>
+  <si>
+    <t>320018787779</t>
+  </si>
+  <si>
+    <t>320018787790</t>
+  </si>
+  <si>
+    <t>320018787838</t>
+  </si>
+  <si>
+    <t>320018787893</t>
+  </si>
+  <si>
+    <t>320018787908</t>
+  </si>
+  <si>
+    <t>320018787930</t>
+  </si>
+  <si>
+    <t>320018787952</t>
+  </si>
+  <si>
+    <t>320018787996</t>
+  </si>
+  <si>
+    <t>320018788514</t>
+  </si>
+  <si>
+    <t>320018792274</t>
+  </si>
+  <si>
+    <t>320018792300</t>
+  </si>
+  <si>
+    <t>320018792322</t>
+  </si>
+  <si>
+    <t>320018792366</t>
+  </si>
+  <si>
+    <t>320018792388</t>
+  </si>
+  <si>
+    <t>320018792414</t>
+  </si>
+  <si>
+    <t>320018792436</t>
+  </si>
+  <si>
+    <t>320018792469</t>
+  </si>
+  <si>
+    <t>320018792480</t>
+  </si>
+  <si>
+    <t>320018792528</t>
+  </si>
+  <si>
+    <t>320018792540</t>
+  </si>
+  <si>
+    <t>320018792572</t>
+  </si>
+  <si>
+    <t>320018792594</t>
+  </si>
+  <si>
+    <t>320018792620</t>
+  </si>
+  <si>
+    <t>320018792642</t>
+  </si>
+  <si>
+    <t>320018792686</t>
+  </si>
+  <si>
+    <t>320018792701</t>
+  </si>
+  <si>
+    <t>320018792734</t>
+  </si>
+  <si>
+    <t>320018792756</t>
+  </si>
+  <si>
+    <t>320018792789</t>
+  </si>
+  <si>
+    <t>320018792790</t>
+  </si>
+  <si>
+    <t>320018792804</t>
+  </si>
+  <si>
+    <t>320018792815</t>
+  </si>
+  <si>
+    <t>320018792826</t>
+  </si>
+  <si>
+    <t>320018799382</t>
+  </si>
+  <si>
+    <t>320018799393</t>
+  </si>
+  <si>
+    <t>320018799420</t>
+  </si>
+  <si>
+    <t>320018799441</t>
+  </si>
+  <si>
+    <t>320018799485</t>
+  </si>
+  <si>
+    <t>320018799500</t>
+  </si>
+  <si>
+    <t>320018799533</t>
+  </si>
+  <si>
+    <t>320018799625</t>
+  </si>
+  <si>
+    <t>320018799658</t>
+  </si>
+  <si>
+    <t>320018799670</t>
+  </si>
+  <si>
+    <t>320018799717</t>
+  </si>
+  <si>
+    <t>320018799739</t>
+  </si>
+  <si>
+    <t>320018799761</t>
+  </si>
+  <si>
+    <t>320018799783</t>
+  </si>
+  <si>
+    <t>320018799810</t>
+  </si>
+  <si>
+    <t>320018799831</t>
+  </si>
+  <si>
+    <t>320018799875</t>
   </si>
 </sst>
 </file>
@@ -1655,7 +3125,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>332</v>
+        <v>831</v>
       </c>
       <c r="Q2" t="s">
         <v>53</v>
@@ -1708,7 +3178,7 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>333</v>
+        <v>832</v>
       </c>
       <c r="Q3" t="s">
         <v>56</v>
@@ -1761,7 +3231,7 @@
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>334</v>
+        <v>833</v>
       </c>
       <c r="Q4" t="s">
         <v>58</v>
@@ -1814,7 +3284,7 @@
         <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>335</v>
+        <v>834</v>
       </c>
       <c r="Q5" t="s">
         <v>60</v>
@@ -1867,7 +3337,7 @@
         <v>2</v>
       </c>
       <c r="P6" t="s">
-        <v>336</v>
+        <v>835</v>
       </c>
       <c r="Q6" t="s">
         <v>62</v>
@@ -1920,7 +3390,7 @@
         <v>3</v>
       </c>
       <c r="P7" t="s">
-        <v>337</v>
+        <v>836</v>
       </c>
       <c r="Q7" t="s">
         <v>52</v>
@@ -1973,7 +3443,7 @@
         <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>338</v>
+        <v>837</v>
       </c>
       <c r="Q8" t="s">
         <v>53</v>
@@ -2026,7 +3496,7 @@
         <v>3</v>
       </c>
       <c r="P9" t="s">
-        <v>339</v>
+        <v>838</v>
       </c>
       <c r="Q9" t="s">
         <v>66</v>
@@ -2079,7 +3549,7 @@
         <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>340</v>
+        <v>839</v>
       </c>
       <c r="Q10" t="s">
         <v>56</v>
@@ -2132,7 +3602,7 @@
         <v>4</v>
       </c>
       <c r="P11" t="s">
-        <v>341</v>
+        <v>840</v>
       </c>
       <c r="Q11" t="s">
         <v>69</v>
@@ -2185,7 +3655,7 @@
         <v>2</v>
       </c>
       <c r="P12" t="s">
-        <v>342</v>
+        <v>841</v>
       </c>
       <c r="Q12" t="s">
         <v>71</v>
@@ -2238,7 +3708,7 @@
         <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>343</v>
+        <v>842</v>
       </c>
       <c r="Q13" t="s">
         <v>73</v>
@@ -2291,7 +3761,7 @@
         <v>2</v>
       </c>
       <c r="P14" t="s">
-        <v>344</v>
+        <v>843</v>
       </c>
       <c r="Q14" t="s">
         <v>75</v>
@@ -2344,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>345</v>
+        <v>844</v>
       </c>
       <c r="Q15" t="s">
         <v>77</v>
@@ -2397,7 +3867,7 @@
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>346</v>
+        <v>845</v>
       </c>
       <c r="Q16" t="s">
         <v>58</v>
@@ -2450,7 +3920,7 @@
         <v>4</v>
       </c>
       <c r="P17" t="s">
-        <v>347</v>
+        <v>846</v>
       </c>
       <c r="Q17" t="s">
         <v>80</v>
@@ -2503,7 +3973,7 @@
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>348</v>
+        <v>847</v>
       </c>
       <c r="Q18" t="s">
         <v>60</v>
@@ -2556,7 +4026,7 @@
         <v>3</v>
       </c>
       <c r="P19" t="s">
-        <v>349</v>
+        <v>823</v>
       </c>
       <c r="Q19" t="s">
         <v>83</v>
@@ -2609,13 +4079,13 @@
         <v>2</v>
       </c>
       <c r="P20" t="s">
-        <v>351</v>
+        <v>824</v>
       </c>
       <c r="Q20" t="s">
-        <v>350</v>
+        <v>85</v>
       </c>
       <c r="R20" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="S20" s="3"/>
     </row>
@@ -2662,7 +4132,7 @@
         <v>3</v>
       </c>
       <c r="P21" t="s">
-        <v>352</v>
+        <v>825</v>
       </c>
       <c r="Q21" t="s">
         <v>87</v>
@@ -2715,7 +4185,7 @@
         <v>2</v>
       </c>
       <c r="P22" t="s">
-        <v>353</v>
+        <v>826</v>
       </c>
       <c r="Q22" t="s">
         <v>89</v>
@@ -2768,7 +4238,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>354</v>
+        <v>827</v>
       </c>
       <c r="Q23" t="s">
         <v>91</v>
@@ -2821,7 +4291,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>355</v>
+        <v>828</v>
       </c>
       <c r="Q24" t="s">
         <v>93</v>
@@ -2874,7 +4344,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>356</v>
+        <v>829</v>
       </c>
       <c r="Q25" t="s">
         <v>71</v>
@@ -2927,7 +4397,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>357</v>
+        <v>830</v>
       </c>
       <c r="Q26" t="s">
         <v>96</v>

--- a/FedExApplication/bin/TestFiles/FedExShipments.xlsx
+++ b/FedExApplication/bin/TestFiles/FedExShipments.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2972" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3097" uniqueCount="873">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -2558,6 +2558,81 @@
   </si>
   <si>
     <t>320018799875</t>
+  </si>
+  <si>
+    <t>320018813081</t>
+  </si>
+  <si>
+    <t>320018813092</t>
+  </si>
+  <si>
+    <t>320018813129</t>
+  </si>
+  <si>
+    <t>320018813140</t>
+  </si>
+  <si>
+    <t>320018813184</t>
+  </si>
+  <si>
+    <t>320018813200</t>
+  </si>
+  <si>
+    <t>320018813232</t>
+  </si>
+  <si>
+    <t>320018813254</t>
+  </si>
+  <si>
+    <t>320018813287</t>
+  </si>
+  <si>
+    <t>320018813302</t>
+  </si>
+  <si>
+    <t>320018813346</t>
+  </si>
+  <si>
+    <t>320018813449</t>
+  </si>
+  <si>
+    <t>320018813471</t>
+  </si>
+  <si>
+    <t>320018813493</t>
+  </si>
+  <si>
+    <t>320018813520</t>
+  </si>
+  <si>
+    <t>320018813541</t>
+  </si>
+  <si>
+    <t>320018813585</t>
+  </si>
+  <si>
+    <t>320018813600</t>
+  </si>
+  <si>
+    <t>320018813850</t>
+  </si>
+  <si>
+    <t>320018813872</t>
+  </si>
+  <si>
+    <t>320018813909</t>
+  </si>
+  <si>
+    <t>320018813910</t>
+  </si>
+  <si>
+    <t>320018813920</t>
+  </si>
+  <si>
+    <t>320018813931</t>
+  </si>
+  <si>
+    <t>320018813942</t>
   </si>
 </sst>
 </file>
@@ -3125,7 +3200,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>831</v>
+        <v>848</v>
       </c>
       <c r="Q2" t="s">
         <v>53</v>
@@ -3178,7 +3253,7 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>832</v>
+        <v>849</v>
       </c>
       <c r="Q3" t="s">
         <v>56</v>
@@ -3231,7 +3306,7 @@
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>833</v>
+        <v>850</v>
       </c>
       <c r="Q4" t="s">
         <v>58</v>
@@ -3284,7 +3359,7 @@
         <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>834</v>
+        <v>851</v>
       </c>
       <c r="Q5" t="s">
         <v>60</v>
@@ -3337,7 +3412,7 @@
         <v>2</v>
       </c>
       <c r="P6" t="s">
-        <v>835</v>
+        <v>852</v>
       </c>
       <c r="Q6" t="s">
         <v>62</v>
@@ -3390,7 +3465,7 @@
         <v>3</v>
       </c>
       <c r="P7" t="s">
-        <v>836</v>
+        <v>853</v>
       </c>
       <c r="Q7" t="s">
         <v>52</v>
@@ -3443,7 +3518,7 @@
         <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>837</v>
+        <v>854</v>
       </c>
       <c r="Q8" t="s">
         <v>53</v>
@@ -3496,7 +3571,7 @@
         <v>3</v>
       </c>
       <c r="P9" t="s">
-        <v>838</v>
+        <v>855</v>
       </c>
       <c r="Q9" t="s">
         <v>66</v>
@@ -3549,7 +3624,7 @@
         <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>839</v>
+        <v>856</v>
       </c>
       <c r="Q10" t="s">
         <v>56</v>
@@ -3602,7 +3677,7 @@
         <v>4</v>
       </c>
       <c r="P11" t="s">
-        <v>840</v>
+        <v>857</v>
       </c>
       <c r="Q11" t="s">
         <v>69</v>
@@ -3655,7 +3730,7 @@
         <v>2</v>
       </c>
       <c r="P12" t="s">
-        <v>841</v>
+        <v>858</v>
       </c>
       <c r="Q12" t="s">
         <v>71</v>
@@ -3708,7 +3783,7 @@
         <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>842</v>
+        <v>859</v>
       </c>
       <c r="Q13" t="s">
         <v>73</v>
@@ -3761,7 +3836,7 @@
         <v>2</v>
       </c>
       <c r="P14" t="s">
-        <v>843</v>
+        <v>860</v>
       </c>
       <c r="Q14" t="s">
         <v>75</v>
@@ -3814,7 +3889,7 @@
         <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>844</v>
+        <v>861</v>
       </c>
       <c r="Q15" t="s">
         <v>77</v>
@@ -3867,7 +3942,7 @@
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>845</v>
+        <v>862</v>
       </c>
       <c r="Q16" t="s">
         <v>58</v>
@@ -3920,7 +3995,7 @@
         <v>4</v>
       </c>
       <c r="P17" t="s">
-        <v>846</v>
+        <v>863</v>
       </c>
       <c r="Q17" t="s">
         <v>80</v>
@@ -3973,7 +4048,7 @@
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>847</v>
+        <v>864</v>
       </c>
       <c r="Q18" t="s">
         <v>60</v>
@@ -4026,7 +4101,7 @@
         <v>3</v>
       </c>
       <c r="P19" t="s">
-        <v>823</v>
+        <v>865</v>
       </c>
       <c r="Q19" t="s">
         <v>83</v>
@@ -4079,7 +4154,7 @@
         <v>2</v>
       </c>
       <c r="P20" t="s">
-        <v>824</v>
+        <v>866</v>
       </c>
       <c r="Q20" t="s">
         <v>85</v>
@@ -4132,7 +4207,7 @@
         <v>3</v>
       </c>
       <c r="P21" t="s">
-        <v>825</v>
+        <v>867</v>
       </c>
       <c r="Q21" t="s">
         <v>87</v>
@@ -4185,7 +4260,7 @@
         <v>2</v>
       </c>
       <c r="P22" t="s">
-        <v>826</v>
+        <v>868</v>
       </c>
       <c r="Q22" t="s">
         <v>89</v>
@@ -4238,7 +4313,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>827</v>
+        <v>869</v>
       </c>
       <c r="Q23" t="s">
         <v>91</v>
@@ -4291,7 +4366,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>828</v>
+        <v>870</v>
       </c>
       <c r="Q24" t="s">
         <v>93</v>
@@ -4344,7 +4419,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>829</v>
+        <v>871</v>
       </c>
       <c r="Q25" t="s">
         <v>71</v>
@@ -4397,7 +4472,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>830</v>
+        <v>872</v>
       </c>
       <c r="Q26" t="s">
         <v>96</v>

--- a/FedExApplication/bin/TestFiles/FedExShipments.xlsx
+++ b/FedExApplication/bin/TestFiles/FedExShipments.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3097" uniqueCount="873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3317" uniqueCount="952">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -2633,6 +2633,243 @@
   </si>
   <si>
     <t>320018813942</t>
+  </si>
+  <si>
+    <t>320018499958</t>
+  </si>
+  <si>
+    <t>320018499969</t>
+  </si>
+  <si>
+    <t>320018499991</t>
+  </si>
+  <si>
+    <t>320018500017</t>
+  </si>
+  <si>
+    <t>320018500050</t>
+  </si>
+  <si>
+    <t>320018500072</t>
+  </si>
+  <si>
+    <t>320018500109</t>
+  </si>
+  <si>
+    <t>320018500120</t>
+  </si>
+  <si>
+    <t>320018500830</t>
+  </si>
+  <si>
+    <t>320018500852</t>
+  </si>
+  <si>
+    <t>320018500896</t>
+  </si>
+  <si>
+    <t>320018500911</t>
+  </si>
+  <si>
+    <t>320018500944</t>
+  </si>
+  <si>
+    <t>320018500966</t>
+  </si>
+  <si>
+    <t>320018500999</t>
+  </si>
+  <si>
+    <t>320018501035</t>
+  </si>
+  <si>
+    <t>320018501079</t>
+  </si>
+  <si>
+    <t>320018501090</t>
+  </si>
+  <si>
+    <t>320018501127</t>
+  </si>
+  <si>
+    <t>320018501149</t>
+  </si>
+  <si>
+    <t>320018501171</t>
+  </si>
+  <si>
+    <t>320018501182</t>
+  </si>
+  <si>
+    <t>320018501193</t>
+  </si>
+  <si>
+    <t>320018501208</t>
+  </si>
+  <si>
+    <t>320018501219</t>
+  </si>
+  <si>
+    <t>320018502833</t>
+  </si>
+  <si>
+    <t>320018502844</t>
+  </si>
+  <si>
+    <t>320018502888</t>
+  </si>
+  <si>
+    <t>320018502903</t>
+  </si>
+  <si>
+    <t>320018502947</t>
+  </si>
+  <si>
+    <t>320018502969</t>
+  </si>
+  <si>
+    <t>320018503005</t>
+  </si>
+  <si>
+    <t>320018503027</t>
+  </si>
+  <si>
+    <t>320018503050</t>
+  </si>
+  <si>
+    <t>320018503071</t>
+  </si>
+  <si>
+    <t>320018503119</t>
+  </si>
+  <si>
+    <t>320018503130</t>
+  </si>
+  <si>
+    <t>320018503163</t>
+  </si>
+  <si>
+    <t>320018503185</t>
+  </si>
+  <si>
+    <t>320018503211</t>
+  </si>
+  <si>
+    <t>320018503244</t>
+  </si>
+  <si>
+    <t>320018503288</t>
+  </si>
+  <si>
+    <t>320018503303</t>
+  </si>
+  <si>
+    <t>320018503336</t>
+  </si>
+  <si>
+    <t>320018503358</t>
+  </si>
+  <si>
+    <t>320018503380</t>
+  </si>
+  <si>
+    <t>320018503391</t>
+  </si>
+  <si>
+    <t>320018503406</t>
+  </si>
+  <si>
+    <t>320018503417</t>
+  </si>
+  <si>
+    <t>320018503428</t>
+  </si>
+  <si>
+    <t>320018505660</t>
+  </si>
+  <si>
+    <t>320018505670</t>
+  </si>
+  <si>
+    <t>320018505707</t>
+  </si>
+  <si>
+    <t>320018505729</t>
+  </si>
+  <si>
+    <t>320018505762</t>
+  </si>
+  <si>
+    <t>320018505784</t>
+  </si>
+  <si>
+    <t>320018505810</t>
+  </si>
+  <si>
+    <t>320018505832</t>
+  </si>
+  <si>
+    <t>320018505865</t>
+  </si>
+  <si>
+    <t>320018505887</t>
+  </si>
+  <si>
+    <t>320018505924</t>
+  </si>
+  <si>
+    <t>$61.34</t>
+  </si>
+  <si>
+    <t>320018511882</t>
+  </si>
+  <si>
+    <t>$69.80</t>
+  </si>
+  <si>
+    <t>320018511996</t>
+  </si>
+  <si>
+    <t>$74.03</t>
+  </si>
+  <si>
+    <t>320018512021</t>
+  </si>
+  <si>
+    <t>320018512098</t>
+  </si>
+  <si>
+    <t>$98.35</t>
+  </si>
+  <si>
+    <t>320018512135</t>
+  </si>
+  <si>
+    <t>320018512205</t>
+  </si>
+  <si>
+    <t>320018512238</t>
+  </si>
+  <si>
+    <t>$65.57</t>
+  </si>
+  <si>
+    <t>320018512250</t>
+  </si>
+  <si>
+    <t>320018512282</t>
+  </si>
+  <si>
+    <t>$82.49</t>
+  </si>
+  <si>
+    <t>320018512319</t>
+  </si>
+  <si>
+    <t>$95.18</t>
+  </si>
+  <si>
+    <t>320018512400</t>
   </si>
 </sst>
 </file>
@@ -3074,7 +3311,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="R2" sqref="R2:R26"/>
@@ -3200,13 +3437,13 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>848</v>
+        <v>935</v>
       </c>
       <c r="Q2" t="s">
-        <v>53</v>
+        <v>934</v>
       </c>
       <c r="R2" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="S2" s="3"/>
     </row>
@@ -3253,13 +3490,13 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>849</v>
+        <v>937</v>
       </c>
       <c r="Q3" t="s">
-        <v>56</v>
+        <v>936</v>
       </c>
       <c r="R3" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="S3" s="3"/>
     </row>
@@ -3306,13 +3543,13 @@
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>850</v>
+        <v>939</v>
       </c>
       <c r="Q4" t="s">
-        <v>58</v>
+        <v>938</v>
       </c>
       <c r="R4" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="S4" s="3"/>
     </row>
@@ -3359,13 +3596,13 @@
         <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>851</v>
+        <v>940</v>
       </c>
       <c r="Q5" t="s">
-        <v>60</v>
+        <v>211</v>
       </c>
       <c r="R5" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="S5" s="3"/>
     </row>
@@ -3412,13 +3649,13 @@
         <v>2</v>
       </c>
       <c r="P6" t="s">
-        <v>852</v>
+        <v>942</v>
       </c>
       <c r="Q6" t="s">
-        <v>62</v>
+        <v>941</v>
       </c>
       <c r="R6" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="S6" s="3"/>
     </row>
@@ -3465,13 +3702,13 @@
         <v>3</v>
       </c>
       <c r="P7" t="s">
-        <v>853</v>
+        <v>943</v>
       </c>
       <c r="Q7" t="s">
-        <v>52</v>
+        <v>725</v>
       </c>
       <c r="R7" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="S7" s="3"/>
     </row>
@@ -3518,13 +3755,13 @@
         <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>854</v>
+        <v>944</v>
       </c>
       <c r="Q8" t="s">
-        <v>53</v>
+        <v>934</v>
       </c>
       <c r="R8" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="S8" s="3"/>
     </row>
@@ -3571,13 +3808,13 @@
         <v>3</v>
       </c>
       <c r="P9" t="s">
-        <v>855</v>
+        <v>946</v>
       </c>
       <c r="Q9" t="s">
-        <v>66</v>
+        <v>945</v>
       </c>
       <c r="R9" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="S9" s="3"/>
     </row>
@@ -3624,13 +3861,13 @@
         <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>856</v>
+        <v>947</v>
       </c>
       <c r="Q10" t="s">
-        <v>56</v>
+        <v>936</v>
       </c>
       <c r="R10" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="S10" s="3"/>
     </row>
@@ -3677,13 +3914,13 @@
         <v>4</v>
       </c>
       <c r="P11" t="s">
-        <v>857</v>
+        <v>949</v>
       </c>
       <c r="Q11" t="s">
-        <v>69</v>
+        <v>948</v>
       </c>
       <c r="R11" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="S11" s="3"/>
     </row>
@@ -3730,13 +3967,13 @@
         <v>2</v>
       </c>
       <c r="P12" t="s">
-        <v>858</v>
+        <v>951</v>
       </c>
       <c r="Q12" t="s">
-        <v>71</v>
+        <v>950</v>
       </c>
       <c r="R12" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="S12" s="3"/>
     </row>
@@ -3783,7 +4020,7 @@
         <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>859</v>
+        <v>909</v>
       </c>
       <c r="Q13" t="s">
         <v>73</v>
@@ -3836,7 +4073,7 @@
         <v>2</v>
       </c>
       <c r="P14" t="s">
-        <v>860</v>
+        <v>910</v>
       </c>
       <c r="Q14" t="s">
         <v>75</v>
@@ -3889,7 +4126,7 @@
         <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>861</v>
+        <v>911</v>
       </c>
       <c r="Q15" t="s">
         <v>77</v>
@@ -3942,7 +4179,7 @@
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>862</v>
+        <v>912</v>
       </c>
       <c r="Q16" t="s">
         <v>58</v>
@@ -3995,7 +4232,7 @@
         <v>4</v>
       </c>
       <c r="P17" t="s">
-        <v>863</v>
+        <v>913</v>
       </c>
       <c r="Q17" t="s">
         <v>80</v>
@@ -4048,7 +4285,7 @@
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>864</v>
+        <v>914</v>
       </c>
       <c r="Q18" t="s">
         <v>60</v>
@@ -4101,7 +4338,7 @@
         <v>3</v>
       </c>
       <c r="P19" t="s">
-        <v>865</v>
+        <v>915</v>
       </c>
       <c r="Q19" t="s">
         <v>83</v>
@@ -4154,13 +4391,13 @@
         <v>2</v>
       </c>
       <c r="P20" t="s">
-        <v>866</v>
+        <v>916</v>
       </c>
       <c r="Q20" t="s">
-        <v>85</v>
+        <v>350</v>
       </c>
       <c r="R20" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="S20" s="3"/>
     </row>
@@ -4207,7 +4444,7 @@
         <v>3</v>
       </c>
       <c r="P21" t="s">
-        <v>867</v>
+        <v>917</v>
       </c>
       <c r="Q21" t="s">
         <v>87</v>
@@ -4260,7 +4497,7 @@
         <v>2</v>
       </c>
       <c r="P22" t="s">
-        <v>868</v>
+        <v>918</v>
       </c>
       <c r="Q22" t="s">
         <v>89</v>
@@ -4313,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>869</v>
+        <v>919</v>
       </c>
       <c r="Q23" t="s">
         <v>91</v>
@@ -4366,7 +4603,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>870</v>
+        <v>920</v>
       </c>
       <c r="Q24" t="s">
         <v>93</v>
@@ -4419,7 +4656,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>871</v>
+        <v>921</v>
       </c>
       <c r="Q25" t="s">
         <v>71</v>
@@ -4472,7 +4709,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>872</v>
+        <v>922</v>
       </c>
       <c r="Q26" t="s">
         <v>96</v>

--- a/FedExApplication/bin/TestFiles/FedExShipments.xlsx
+++ b/FedExApplication/bin/TestFiles/FedExShipments.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3317" uniqueCount="952">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3392" uniqueCount="977">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -2870,6 +2870,81 @@
   </si>
   <si>
     <t>320018512400</t>
+  </si>
+  <si>
+    <t>320018538422</t>
+  </si>
+  <si>
+    <t>320018538433</t>
+  </si>
+  <si>
+    <t>320018538466</t>
+  </si>
+  <si>
+    <t>320018538488</t>
+  </si>
+  <si>
+    <t>320018538525</t>
+  </si>
+  <si>
+    <t>320018538547</t>
+  </si>
+  <si>
+    <t>320018538570</t>
+  </si>
+  <si>
+    <t>320018538591</t>
+  </si>
+  <si>
+    <t>320018538628</t>
+  </si>
+  <si>
+    <t>320018538640</t>
+  </si>
+  <si>
+    <t>320018538694</t>
+  </si>
+  <si>
+    <t>320018538710</t>
+  </si>
+  <si>
+    <t>320018538742</t>
+  </si>
+  <si>
+    <t>320018538775</t>
+  </si>
+  <si>
+    <t>320018538801</t>
+  </si>
+  <si>
+    <t>320018538823</t>
+  </si>
+  <si>
+    <t>320018538867</t>
+  </si>
+  <si>
+    <t>320018538889</t>
+  </si>
+  <si>
+    <t>320018538915</t>
+  </si>
+  <si>
+    <t>320018538937</t>
+  </si>
+  <si>
+    <t>320018538960</t>
+  </si>
+  <si>
+    <t>320018538970</t>
+  </si>
+  <si>
+    <t>320018538981</t>
+  </si>
+  <si>
+    <t>320018538992</t>
+  </si>
+  <si>
+    <t>320018539006</t>
   </si>
 </sst>
 </file>
@@ -3437,13 +3512,13 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>935</v>
+        <v>952</v>
       </c>
       <c r="Q2" t="s">
-        <v>934</v>
+        <v>53</v>
       </c>
       <c r="R2" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="S2" s="3"/>
     </row>
@@ -3490,13 +3565,13 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>937</v>
+        <v>953</v>
       </c>
       <c r="Q3" t="s">
-        <v>936</v>
+        <v>56</v>
       </c>
       <c r="R3" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="S3" s="3"/>
     </row>
@@ -3543,13 +3618,13 @@
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>939</v>
+        <v>954</v>
       </c>
       <c r="Q4" t="s">
-        <v>938</v>
+        <v>58</v>
       </c>
       <c r="R4" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="S4" s="3"/>
     </row>
@@ -3596,13 +3671,13 @@
         <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>940</v>
+        <v>955</v>
       </c>
       <c r="Q5" t="s">
-        <v>211</v>
+        <v>60</v>
       </c>
       <c r="R5" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="S5" s="3"/>
     </row>
@@ -3649,13 +3724,13 @@
         <v>2</v>
       </c>
       <c r="P6" t="s">
-        <v>942</v>
+        <v>956</v>
       </c>
       <c r="Q6" t="s">
-        <v>941</v>
+        <v>62</v>
       </c>
       <c r="R6" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="S6" s="3"/>
     </row>
@@ -3702,13 +3777,13 @@
         <v>3</v>
       </c>
       <c r="P7" t="s">
-        <v>943</v>
+        <v>957</v>
       </c>
       <c r="Q7" t="s">
-        <v>725</v>
+        <v>52</v>
       </c>
       <c r="R7" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="S7" s="3"/>
     </row>
@@ -3755,13 +3830,13 @@
         <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>944</v>
+        <v>958</v>
       </c>
       <c r="Q8" t="s">
-        <v>934</v>
+        <v>53</v>
       </c>
       <c r="R8" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="S8" s="3"/>
     </row>
@@ -3808,13 +3883,13 @@
         <v>3</v>
       </c>
       <c r="P9" t="s">
-        <v>946</v>
+        <v>959</v>
       </c>
       <c r="Q9" t="s">
-        <v>945</v>
+        <v>66</v>
       </c>
       <c r="R9" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="S9" s="3"/>
     </row>
@@ -3861,13 +3936,13 @@
         <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>947</v>
+        <v>960</v>
       </c>
       <c r="Q10" t="s">
-        <v>936</v>
+        <v>56</v>
       </c>
       <c r="R10" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="S10" s="3"/>
     </row>
@@ -3914,13 +3989,13 @@
         <v>4</v>
       </c>
       <c r="P11" t="s">
-        <v>949</v>
+        <v>961</v>
       </c>
       <c r="Q11" t="s">
-        <v>948</v>
+        <v>69</v>
       </c>
       <c r="R11" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="S11" s="3"/>
     </row>
@@ -3967,13 +4042,13 @@
         <v>2</v>
       </c>
       <c r="P12" t="s">
-        <v>951</v>
+        <v>962</v>
       </c>
       <c r="Q12" t="s">
-        <v>950</v>
+        <v>71</v>
       </c>
       <c r="R12" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="S12" s="3"/>
     </row>
@@ -4020,7 +4095,7 @@
         <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>909</v>
+        <v>963</v>
       </c>
       <c r="Q13" t="s">
         <v>73</v>
@@ -4073,7 +4148,7 @@
         <v>2</v>
       </c>
       <c r="P14" t="s">
-        <v>910</v>
+        <v>964</v>
       </c>
       <c r="Q14" t="s">
         <v>75</v>
@@ -4126,7 +4201,7 @@
         <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>911</v>
+        <v>965</v>
       </c>
       <c r="Q15" t="s">
         <v>77</v>
@@ -4179,7 +4254,7 @@
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>912</v>
+        <v>966</v>
       </c>
       <c r="Q16" t="s">
         <v>58</v>
@@ -4232,7 +4307,7 @@
         <v>4</v>
       </c>
       <c r="P17" t="s">
-        <v>913</v>
+        <v>967</v>
       </c>
       <c r="Q17" t="s">
         <v>80</v>
@@ -4285,7 +4360,7 @@
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>914</v>
+        <v>968</v>
       </c>
       <c r="Q18" t="s">
         <v>60</v>
@@ -4338,7 +4413,7 @@
         <v>3</v>
       </c>
       <c r="P19" t="s">
-        <v>915</v>
+        <v>969</v>
       </c>
       <c r="Q19" t="s">
         <v>83</v>
@@ -4391,13 +4466,13 @@
         <v>2</v>
       </c>
       <c r="P20" t="s">
-        <v>916</v>
+        <v>970</v>
       </c>
       <c r="Q20" t="s">
-        <v>350</v>
+        <v>85</v>
       </c>
       <c r="R20" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="S20" s="3"/>
     </row>
@@ -4444,7 +4519,7 @@
         <v>3</v>
       </c>
       <c r="P21" t="s">
-        <v>917</v>
+        <v>971</v>
       </c>
       <c r="Q21" t="s">
         <v>87</v>
@@ -4497,7 +4572,7 @@
         <v>2</v>
       </c>
       <c r="P22" t="s">
-        <v>918</v>
+        <v>972</v>
       </c>
       <c r="Q22" t="s">
         <v>89</v>
@@ -4550,7 +4625,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>919</v>
+        <v>973</v>
       </c>
       <c r="Q23" t="s">
         <v>91</v>
@@ -4603,7 +4678,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>920</v>
+        <v>974</v>
       </c>
       <c r="Q24" t="s">
         <v>93</v>
@@ -4656,7 +4731,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>921</v>
+        <v>975</v>
       </c>
       <c r="Q25" t="s">
         <v>71</v>
@@ -4709,7 +4784,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>922</v>
+        <v>976</v>
       </c>
       <c r="Q26" t="s">
         <v>96</v>

--- a/FedExApplication/bin/TestFiles/FedExShipments.xlsx
+++ b/FedExApplication/bin/TestFiles/FedExShipments.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3392" uniqueCount="977">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3626" uniqueCount="1055">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -2945,6 +2945,240 @@
   </si>
   <si>
     <t>320018539006</t>
+  </si>
+  <si>
+    <t>320018539874</t>
+  </si>
+  <si>
+    <t>320018540010</t>
+  </si>
+  <si>
+    <t>320018540021</t>
+  </si>
+  <si>
+    <t>320018540054</t>
+  </si>
+  <si>
+    <t>320018540098</t>
+  </si>
+  <si>
+    <t>320018540135</t>
+  </si>
+  <si>
+    <t>320018540157</t>
+  </si>
+  <si>
+    <t>320018540180</t>
+  </si>
+  <si>
+    <t>320018540205</t>
+  </si>
+  <si>
+    <t>320018540238</t>
+  </si>
+  <si>
+    <t>320018540271</t>
+  </si>
+  <si>
+    <t>320018540320</t>
+  </si>
+  <si>
+    <t>320018540363</t>
+  </si>
+  <si>
+    <t>320018540396</t>
+  </si>
+  <si>
+    <t>320018540411</t>
+  </si>
+  <si>
+    <t>320018540444</t>
+  </si>
+  <si>
+    <t>320018540466</t>
+  </si>
+  <si>
+    <t>320018540514</t>
+  </si>
+  <si>
+    <t>320018540547</t>
+  </si>
+  <si>
+    <t>320018540570</t>
+  </si>
+  <si>
+    <t>320018540606</t>
+  </si>
+  <si>
+    <t>320018540639</t>
+  </si>
+  <si>
+    <t>320018540640</t>
+  </si>
+  <si>
+    <t>320018540650</t>
+  </si>
+  <si>
+    <t>320018540672</t>
+  </si>
+  <si>
+    <t>320018540683</t>
+  </si>
+  <si>
+    <t>320018541289</t>
+  </si>
+  <si>
+    <t>320018541290</t>
+  </si>
+  <si>
+    <t>320018541326</t>
+  </si>
+  <si>
+    <t>320018541348</t>
+  </si>
+  <si>
+    <t>320018541381</t>
+  </si>
+  <si>
+    <t>320018541407</t>
+  </si>
+  <si>
+    <t>320018541430</t>
+  </si>
+  <si>
+    <t>320018541451</t>
+  </si>
+  <si>
+    <t>320018541484</t>
+  </si>
+  <si>
+    <t>320018541500</t>
+  </si>
+  <si>
+    <t>320018541543</t>
+  </si>
+  <si>
+    <t>320018541565</t>
+  </si>
+  <si>
+    <t>320018541598</t>
+  </si>
+  <si>
+    <t>320018541613</t>
+  </si>
+  <si>
+    <t>320018541646</t>
+  </si>
+  <si>
+    <t>320018541668</t>
+  </si>
+  <si>
+    <t>320018541705</t>
+  </si>
+  <si>
+    <t>320018541727</t>
+  </si>
+  <si>
+    <t>320018541750</t>
+  </si>
+  <si>
+    <t>320018541771</t>
+  </si>
+  <si>
+    <t>320018541808</t>
+  </si>
+  <si>
+    <t>320018541819</t>
+  </si>
+  <si>
+    <t>320018541820</t>
+  </si>
+  <si>
+    <t>320018541830</t>
+  </si>
+  <si>
+    <t>320018541841</t>
+  </si>
+  <si>
+    <t>320018543178</t>
+  </si>
+  <si>
+    <t>320018543226</t>
+  </si>
+  <si>
+    <t>320018543259</t>
+  </si>
+  <si>
+    <t>320018543270</t>
+  </si>
+  <si>
+    <t>320018543318</t>
+  </si>
+  <si>
+    <t>320018543330</t>
+  </si>
+  <si>
+    <t>320018543362</t>
+  </si>
+  <si>
+    <t>320018543384</t>
+  </si>
+  <si>
+    <t>320018543410</t>
+  </si>
+  <si>
+    <t>320018543432</t>
+  </si>
+  <si>
+    <t>320018543476</t>
+  </si>
+  <si>
+    <t>320018543498</t>
+  </si>
+  <si>
+    <t>320018543524</t>
+  </si>
+  <si>
+    <t>320018543546</t>
+  </si>
+  <si>
+    <t>320018543579</t>
+  </si>
+  <si>
+    <t>320018548011</t>
+  </si>
+  <si>
+    <t>320018548055</t>
+  </si>
+  <si>
+    <t>320018548077</t>
+  </si>
+  <si>
+    <t>320018548103</t>
+  </si>
+  <si>
+    <t>320018548125</t>
+  </si>
+  <si>
+    <t>320018548158</t>
+  </si>
+  <si>
+    <t>320018548169</t>
+  </si>
+  <si>
+    <t>320018548170</t>
+  </si>
+  <si>
+    <t>320018548180</t>
+  </si>
+  <si>
+    <t>320018548191</t>
+  </si>
+  <si>
+    <t>320018556270</t>
+  </si>
+  <si>
+    <t>320018556454</t>
   </si>
 </sst>
 </file>
@@ -3512,7 +3746,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>952</v>
+        <v>1028</v>
       </c>
       <c r="Q2" t="s">
         <v>53</v>
@@ -3565,7 +3799,7 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>953</v>
+        <v>1029</v>
       </c>
       <c r="Q3" t="s">
         <v>56</v>
@@ -3618,7 +3852,7 @@
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>954</v>
+        <v>1030</v>
       </c>
       <c r="Q4" t="s">
         <v>58</v>
@@ -3671,7 +3905,7 @@
         <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>955</v>
+        <v>1031</v>
       </c>
       <c r="Q5" t="s">
         <v>60</v>
@@ -3724,7 +3958,7 @@
         <v>2</v>
       </c>
       <c r="P6" t="s">
-        <v>956</v>
+        <v>1032</v>
       </c>
       <c r="Q6" t="s">
         <v>62</v>
@@ -3777,7 +4011,7 @@
         <v>3</v>
       </c>
       <c r="P7" t="s">
-        <v>957</v>
+        <v>1033</v>
       </c>
       <c r="Q7" t="s">
         <v>52</v>
@@ -3830,7 +4064,7 @@
         <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>958</v>
+        <v>1034</v>
       </c>
       <c r="Q8" t="s">
         <v>53</v>
@@ -3883,7 +4117,7 @@
         <v>3</v>
       </c>
       <c r="P9" t="s">
-        <v>959</v>
+        <v>1035</v>
       </c>
       <c r="Q9" t="s">
         <v>66</v>
@@ -3936,7 +4170,7 @@
         <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>960</v>
+        <v>1036</v>
       </c>
       <c r="Q10" t="s">
         <v>56</v>
@@ -3989,7 +4223,7 @@
         <v>4</v>
       </c>
       <c r="P11" t="s">
-        <v>961</v>
+        <v>1037</v>
       </c>
       <c r="Q11" t="s">
         <v>69</v>
@@ -4042,7 +4276,7 @@
         <v>2</v>
       </c>
       <c r="P12" t="s">
-        <v>962</v>
+        <v>1038</v>
       </c>
       <c r="Q12" t="s">
         <v>71</v>
@@ -4095,7 +4329,7 @@
         <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>963</v>
+        <v>1039</v>
       </c>
       <c r="Q13" t="s">
         <v>73</v>
@@ -4148,7 +4382,7 @@
         <v>2</v>
       </c>
       <c r="P14" t="s">
-        <v>964</v>
+        <v>1040</v>
       </c>
       <c r="Q14" t="s">
         <v>75</v>
@@ -4201,7 +4435,7 @@
         <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>965</v>
+        <v>1041</v>
       </c>
       <c r="Q15" t="s">
         <v>77</v>
@@ -4254,7 +4488,7 @@
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>966</v>
+        <v>1042</v>
       </c>
       <c r="Q16" t="s">
         <v>58</v>
@@ -4307,7 +4541,7 @@
         <v>4</v>
       </c>
       <c r="P17" t="s">
-        <v>967</v>
+        <v>1043</v>
       </c>
       <c r="Q17" t="s">
         <v>80</v>
@@ -4360,7 +4594,7 @@
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>968</v>
+        <v>1044</v>
       </c>
       <c r="Q18" t="s">
         <v>60</v>
@@ -4413,7 +4647,7 @@
         <v>3</v>
       </c>
       <c r="P19" t="s">
-        <v>969</v>
+        <v>1045</v>
       </c>
       <c r="Q19" t="s">
         <v>83</v>
@@ -4466,7 +4700,7 @@
         <v>2</v>
       </c>
       <c r="P20" t="s">
-        <v>970</v>
+        <v>1046</v>
       </c>
       <c r="Q20" t="s">
         <v>85</v>
@@ -4519,7 +4753,7 @@
         <v>3</v>
       </c>
       <c r="P21" t="s">
-        <v>971</v>
+        <v>1047</v>
       </c>
       <c r="Q21" t="s">
         <v>87</v>
@@ -4572,7 +4806,7 @@
         <v>2</v>
       </c>
       <c r="P22" t="s">
-        <v>972</v>
+        <v>1048</v>
       </c>
       <c r="Q22" t="s">
         <v>89</v>
@@ -4625,7 +4859,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>973</v>
+        <v>1049</v>
       </c>
       <c r="Q23" t="s">
         <v>91</v>
@@ -4678,7 +4912,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>974</v>
+        <v>1050</v>
       </c>
       <c r="Q24" t="s">
         <v>93</v>
@@ -4731,7 +4965,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>975</v>
+        <v>1051</v>
       </c>
       <c r="Q25" t="s">
         <v>71</v>
@@ -4784,7 +5018,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>976</v>
+        <v>1054</v>
       </c>
       <c r="Q26" t="s">
         <v>96</v>

--- a/FedExApplication/bin/TestFiles/FedExShipments.xlsx
+++ b/FedExApplication/bin/TestFiles/FedExShipments.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3626" uniqueCount="1055">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3643" uniqueCount="1060">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -3179,6 +3179,21 @@
   </si>
   <si>
     <t>320018556454</t>
+  </si>
+  <si>
+    <t>320018556660</t>
+  </si>
+  <si>
+    <t>320018556671</t>
+  </si>
+  <si>
+    <t>320018556682</t>
+  </si>
+  <si>
+    <t>320018556719</t>
+  </si>
+  <si>
+    <t>320018556741</t>
   </si>
 </sst>
 </file>
@@ -3620,7 +3635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="R2" sqref="R2:R26"/>
@@ -5018,7 +5033,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>1054</v>
+        <v>1059</v>
       </c>
       <c r="Q26" t="s">
         <v>96</v>

--- a/FedExApplication/bin/TestFiles/FedExShipments.xlsx
+++ b/FedExApplication/bin/TestFiles/FedExShipments.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3643" uniqueCount="1060">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3895" uniqueCount="1136">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -3194,6 +3194,234 @@
   </si>
   <si>
     <t>320018556741</t>
+  </si>
+  <si>
+    <t>$18.40</t>
+  </si>
+  <si>
+    <t>$23.39</t>
+  </si>
+  <si>
+    <t>$30.67</t>
+  </si>
+  <si>
+    <t>$41.92</t>
+  </si>
+  <si>
+    <t>$46.06</t>
+  </si>
+  <si>
+    <t>$209.87</t>
+  </si>
+  <si>
+    <t>$19.00</t>
+  </si>
+  <si>
+    <t>$18.00</t>
+  </si>
+  <si>
+    <t>$27.00</t>
+  </si>
+  <si>
+    <t>$39.00</t>
+  </si>
+  <si>
+    <t>$15.00</t>
+  </si>
+  <si>
+    <t>$14.71</t>
+  </si>
+  <si>
+    <t>$15.49</t>
+  </si>
+  <si>
+    <t>$21.01</t>
+  </si>
+  <si>
+    <t>$31.52</t>
+  </si>
+  <si>
+    <t>$36.86</t>
+  </si>
+  <si>
+    <t>$43.07</t>
+  </si>
+  <si>
+    <t>$53.58</t>
+  </si>
+  <si>
+    <t>$97.19</t>
+  </si>
+  <si>
+    <t>$56.73</t>
+  </si>
+  <si>
+    <t>$240.26</t>
+  </si>
+  <si>
+    <t>$281.30</t>
+  </si>
+  <si>
+    <t>$53.60</t>
+  </si>
+  <si>
+    <t>$28.00</t>
+  </si>
+  <si>
+    <t>$5.00</t>
+  </si>
+  <si>
+    <t>$61.99</t>
+  </si>
+  <si>
+    <t>320018568517</t>
+  </si>
+  <si>
+    <t>320018568528</t>
+  </si>
+  <si>
+    <t>320018568550</t>
+  </si>
+  <si>
+    <t>320018568572</t>
+  </si>
+  <si>
+    <t>320018568610</t>
+  </si>
+  <si>
+    <t>320018568631</t>
+  </si>
+  <si>
+    <t>320018568664</t>
+  </si>
+  <si>
+    <t>320018568686</t>
+  </si>
+  <si>
+    <t>320018568712</t>
+  </si>
+  <si>
+    <t>320018568734</t>
+  </si>
+  <si>
+    <t>320018568778</t>
+  </si>
+  <si>
+    <t>320018568790</t>
+  </si>
+  <si>
+    <t>320018568826</t>
+  </si>
+  <si>
+    <t>320018568848</t>
+  </si>
+  <si>
+    <t>320018568870</t>
+  </si>
+  <si>
+    <t>320018568892</t>
+  </si>
+  <si>
+    <t>320018568930</t>
+  </si>
+  <si>
+    <t>320018568951</t>
+  </si>
+  <si>
+    <t>320018568984</t>
+  </si>
+  <si>
+    <t>320018569009</t>
+  </si>
+  <si>
+    <t>320018569031</t>
+  </si>
+  <si>
+    <t>320018569042</t>
+  </si>
+  <si>
+    <t>320018569053</t>
+  </si>
+  <si>
+    <t>320018569064</t>
+  </si>
+  <si>
+    <t>320018569075</t>
+  </si>
+  <si>
+    <t>320018589548</t>
+  </si>
+  <si>
+    <t>320018589559</t>
+  </si>
+  <si>
+    <t>320018589581</t>
+  </si>
+  <si>
+    <t>320018589607</t>
+  </si>
+  <si>
+    <t>320018589640</t>
+  </si>
+  <si>
+    <t>320018589662</t>
+  </si>
+  <si>
+    <t>320018589695</t>
+  </si>
+  <si>
+    <t>320018589710</t>
+  </si>
+  <si>
+    <t>320018589743</t>
+  </si>
+  <si>
+    <t>320018589765</t>
+  </si>
+  <si>
+    <t>320018589802</t>
+  </si>
+  <si>
+    <t>320018589824</t>
+  </si>
+  <si>
+    <t>320018589857</t>
+  </si>
+  <si>
+    <t>320018589879</t>
+  </si>
+  <si>
+    <t>320018589905</t>
+  </si>
+  <si>
+    <t>320018589927</t>
+  </si>
+  <si>
+    <t>320018589960</t>
+  </si>
+  <si>
+    <t>320018589982</t>
+  </si>
+  <si>
+    <t>320018590015</t>
+  </si>
+  <si>
+    <t>320018590037</t>
+  </si>
+  <si>
+    <t>320018590060</t>
+  </si>
+  <si>
+    <t>320018590070</t>
+  </si>
+  <si>
+    <t>320018590081</t>
+  </si>
+  <si>
+    <t>320018590092</t>
+  </si>
+  <si>
+    <t>320018590107</t>
   </si>
 </sst>
 </file>
@@ -3761,7 +3989,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>1028</v>
+        <v>1111</v>
       </c>
       <c r="Q2" t="s">
         <v>53</v>
@@ -3814,7 +4042,7 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>1029</v>
+        <v>1112</v>
       </c>
       <c r="Q3" t="s">
         <v>56</v>
@@ -3867,7 +4095,7 @@
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>1030</v>
+        <v>1113</v>
       </c>
       <c r="Q4" t="s">
         <v>58</v>
@@ -3920,7 +4148,7 @@
         <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>1031</v>
+        <v>1114</v>
       </c>
       <c r="Q5" t="s">
         <v>60</v>
@@ -3973,7 +4201,7 @@
         <v>2</v>
       </c>
       <c r="P6" t="s">
-        <v>1032</v>
+        <v>1115</v>
       </c>
       <c r="Q6" t="s">
         <v>62</v>
@@ -4026,7 +4254,7 @@
         <v>3</v>
       </c>
       <c r="P7" t="s">
-        <v>1033</v>
+        <v>1116</v>
       </c>
       <c r="Q7" t="s">
         <v>52</v>
@@ -4079,7 +4307,7 @@
         <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>1034</v>
+        <v>1117</v>
       </c>
       <c r="Q8" t="s">
         <v>53</v>
@@ -4132,7 +4360,7 @@
         <v>3</v>
       </c>
       <c r="P9" t="s">
-        <v>1035</v>
+        <v>1118</v>
       </c>
       <c r="Q9" t="s">
         <v>66</v>
@@ -4185,7 +4413,7 @@
         <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>1036</v>
+        <v>1119</v>
       </c>
       <c r="Q10" t="s">
         <v>56</v>
@@ -4238,7 +4466,7 @@
         <v>4</v>
       </c>
       <c r="P11" t="s">
-        <v>1037</v>
+        <v>1120</v>
       </c>
       <c r="Q11" t="s">
         <v>69</v>
@@ -4291,7 +4519,7 @@
         <v>2</v>
       </c>
       <c r="P12" t="s">
-        <v>1038</v>
+        <v>1121</v>
       </c>
       <c r="Q12" t="s">
         <v>71</v>
@@ -4344,7 +4572,7 @@
         <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>1039</v>
+        <v>1122</v>
       </c>
       <c r="Q13" t="s">
         <v>73</v>
@@ -4397,7 +4625,7 @@
         <v>2</v>
       </c>
       <c r="P14" t="s">
-        <v>1040</v>
+        <v>1123</v>
       </c>
       <c r="Q14" t="s">
         <v>75</v>
@@ -4450,7 +4678,7 @@
         <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>1041</v>
+        <v>1124</v>
       </c>
       <c r="Q15" t="s">
         <v>77</v>
@@ -4503,7 +4731,7 @@
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>1042</v>
+        <v>1125</v>
       </c>
       <c r="Q16" t="s">
         <v>58</v>
@@ -4556,7 +4784,7 @@
         <v>4</v>
       </c>
       <c r="P17" t="s">
-        <v>1043</v>
+        <v>1126</v>
       </c>
       <c r="Q17" t="s">
         <v>80</v>
@@ -4609,7 +4837,7 @@
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>1044</v>
+        <v>1127</v>
       </c>
       <c r="Q18" t="s">
         <v>60</v>
@@ -4662,7 +4890,7 @@
         <v>3</v>
       </c>
       <c r="P19" t="s">
-        <v>1045</v>
+        <v>1128</v>
       </c>
       <c r="Q19" t="s">
         <v>83</v>
@@ -4715,7 +4943,7 @@
         <v>2</v>
       </c>
       <c r="P20" t="s">
-        <v>1046</v>
+        <v>1129</v>
       </c>
       <c r="Q20" t="s">
         <v>85</v>
@@ -4768,7 +4996,7 @@
         <v>3</v>
       </c>
       <c r="P21" t="s">
-        <v>1047</v>
+        <v>1130</v>
       </c>
       <c r="Q21" t="s">
         <v>87</v>
@@ -4821,7 +5049,7 @@
         <v>2</v>
       </c>
       <c r="P22" t="s">
-        <v>1048</v>
+        <v>1131</v>
       </c>
       <c r="Q22" t="s">
         <v>89</v>
@@ -4874,7 +5102,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>1049</v>
+        <v>1132</v>
       </c>
       <c r="Q23" t="s">
         <v>91</v>
@@ -4927,7 +5155,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>1050</v>
+        <v>1133</v>
       </c>
       <c r="Q24" t="s">
         <v>93</v>
@@ -4980,7 +5208,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>1051</v>
+        <v>1134</v>
       </c>
       <c r="Q25" t="s">
         <v>71</v>
@@ -5033,7 +5261,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>1059</v>
+        <v>1135</v>
       </c>
       <c r="Q26" t="s">
         <v>96</v>

--- a/FedExApplication/bin/TestFiles/FedExShipments.xlsx
+++ b/FedExApplication/bin/TestFiles/FedExShipments.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3895" uniqueCount="1136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3970" uniqueCount="1161">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -3422,6 +3422,81 @@
   </si>
   <si>
     <t>320018590107</t>
+  </si>
+  <si>
+    <t>320018594180</t>
+  </si>
+  <si>
+    <t>320018594190</t>
+  </si>
+  <si>
+    <t>320018594227</t>
+  </si>
+  <si>
+    <t>320018594249</t>
+  </si>
+  <si>
+    <t>320018594282</t>
+  </si>
+  <si>
+    <t>320018594308</t>
+  </si>
+  <si>
+    <t>320018594330</t>
+  </si>
+  <si>
+    <t>320018594352</t>
+  </si>
+  <si>
+    <t>320018594385</t>
+  </si>
+  <si>
+    <t>320018594400</t>
+  </si>
+  <si>
+    <t>320018594444</t>
+  </si>
+  <si>
+    <t>320018594466</t>
+  </si>
+  <si>
+    <t>320018594499</t>
+  </si>
+  <si>
+    <t>320018594514</t>
+  </si>
+  <si>
+    <t>320018594547</t>
+  </si>
+  <si>
+    <t>320018594569</t>
+  </si>
+  <si>
+    <t>320018594606</t>
+  </si>
+  <si>
+    <t>320018594628</t>
+  </si>
+  <si>
+    <t>320018594650</t>
+  </si>
+  <si>
+    <t>320018594672</t>
+  </si>
+  <si>
+    <t>320018594709</t>
+  </si>
+  <si>
+    <t>320018594710</t>
+  </si>
+  <si>
+    <t>320018594720</t>
+  </si>
+  <si>
+    <t>320018594731</t>
+  </si>
+  <si>
+    <t>320018594742</t>
   </si>
 </sst>
 </file>
@@ -3989,7 +4064,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>1111</v>
+        <v>1136</v>
       </c>
       <c r="Q2" t="s">
         <v>53</v>
@@ -4042,7 +4117,7 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>1112</v>
+        <v>1137</v>
       </c>
       <c r="Q3" t="s">
         <v>56</v>
@@ -4095,7 +4170,7 @@
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>1113</v>
+        <v>1138</v>
       </c>
       <c r="Q4" t="s">
         <v>58</v>
@@ -4148,7 +4223,7 @@
         <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>1114</v>
+        <v>1139</v>
       </c>
       <c r="Q5" t="s">
         <v>60</v>
@@ -4201,7 +4276,7 @@
         <v>2</v>
       </c>
       <c r="P6" t="s">
-        <v>1115</v>
+        <v>1140</v>
       </c>
       <c r="Q6" t="s">
         <v>62</v>
@@ -4254,7 +4329,7 @@
         <v>3</v>
       </c>
       <c r="P7" t="s">
-        <v>1116</v>
+        <v>1141</v>
       </c>
       <c r="Q7" t="s">
         <v>52</v>
@@ -4307,7 +4382,7 @@
         <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>1117</v>
+        <v>1142</v>
       </c>
       <c r="Q8" t="s">
         <v>53</v>
@@ -4360,7 +4435,7 @@
         <v>3</v>
       </c>
       <c r="P9" t="s">
-        <v>1118</v>
+        <v>1143</v>
       </c>
       <c r="Q9" t="s">
         <v>66</v>
@@ -4413,7 +4488,7 @@
         <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>1119</v>
+        <v>1144</v>
       </c>
       <c r="Q10" t="s">
         <v>56</v>
@@ -4466,7 +4541,7 @@
         <v>4</v>
       </c>
       <c r="P11" t="s">
-        <v>1120</v>
+        <v>1145</v>
       </c>
       <c r="Q11" t="s">
         <v>69</v>
@@ -4519,7 +4594,7 @@
         <v>2</v>
       </c>
       <c r="P12" t="s">
-        <v>1121</v>
+        <v>1146</v>
       </c>
       <c r="Q12" t="s">
         <v>71</v>
@@ -4572,7 +4647,7 @@
         <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>1122</v>
+        <v>1147</v>
       </c>
       <c r="Q13" t="s">
         <v>73</v>
@@ -4625,7 +4700,7 @@
         <v>2</v>
       </c>
       <c r="P14" t="s">
-        <v>1123</v>
+        <v>1148</v>
       </c>
       <c r="Q14" t="s">
         <v>75</v>
@@ -4678,7 +4753,7 @@
         <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>1124</v>
+        <v>1149</v>
       </c>
       <c r="Q15" t="s">
         <v>77</v>
@@ -4731,7 +4806,7 @@
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>1125</v>
+        <v>1150</v>
       </c>
       <c r="Q16" t="s">
         <v>58</v>
@@ -4784,7 +4859,7 @@
         <v>4</v>
       </c>
       <c r="P17" t="s">
-        <v>1126</v>
+        <v>1151</v>
       </c>
       <c r="Q17" t="s">
         <v>80</v>
@@ -4837,7 +4912,7 @@
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>1127</v>
+        <v>1152</v>
       </c>
       <c r="Q18" t="s">
         <v>60</v>
@@ -4890,7 +4965,7 @@
         <v>3</v>
       </c>
       <c r="P19" t="s">
-        <v>1128</v>
+        <v>1153</v>
       </c>
       <c r="Q19" t="s">
         <v>83</v>
@@ -4943,7 +5018,7 @@
         <v>2</v>
       </c>
       <c r="P20" t="s">
-        <v>1129</v>
+        <v>1154</v>
       </c>
       <c r="Q20" t="s">
         <v>85</v>
@@ -4996,7 +5071,7 @@
         <v>3</v>
       </c>
       <c r="P21" t="s">
-        <v>1130</v>
+        <v>1155</v>
       </c>
       <c r="Q21" t="s">
         <v>87</v>
@@ -5049,7 +5124,7 @@
         <v>2</v>
       </c>
       <c r="P22" t="s">
-        <v>1131</v>
+        <v>1156</v>
       </c>
       <c r="Q22" t="s">
         <v>89</v>
@@ -5102,7 +5177,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>1132</v>
+        <v>1157</v>
       </c>
       <c r="Q23" t="s">
         <v>91</v>
@@ -5155,7 +5230,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>1133</v>
+        <v>1158</v>
       </c>
       <c r="Q24" t="s">
         <v>93</v>
@@ -5208,7 +5283,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>1134</v>
+        <v>1159</v>
       </c>
       <c r="Q25" t="s">
         <v>71</v>
@@ -5261,7 +5336,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>1135</v>
+        <v>1160</v>
       </c>
       <c r="Q26" t="s">
         <v>96</v>
